--- a/registro_main.xlsx
+++ b/registro_main.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\QAOTYK\Desktop\registro_excel_macros\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3C3149E-1553-4644-946C-FFF94D3B3B3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5F45E84-A6CC-4453-8D3A-F3DFC3B840D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{D3AF314D-D49C-4E56-878F-BFC4E127C6E3}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>FECHA</t>
   </si>
@@ -54,25 +54,28 @@
     <t>TELEFONO</t>
   </si>
   <si>
-    <t>TIPO DE PAGO</t>
-  </si>
-  <si>
-    <t>A CUENTA</t>
-  </si>
-  <si>
     <t>EFECTIVO</t>
   </si>
   <si>
     <t>TARJETA</t>
   </si>
   <si>
-    <t>TOTAL DE VENTA</t>
-  </si>
-  <si>
     <t>CIERRE/DIA</t>
   </si>
   <si>
     <t>TOTAL</t>
+  </si>
+  <si>
+    <t>CONCEPTO</t>
+  </si>
+  <si>
+    <t>FORMA DE PAGO</t>
+  </si>
+  <si>
+    <t>VENTA</t>
+  </si>
+  <si>
+    <t>TOTAL DE</t>
   </si>
 </sst>
 </file>
@@ -169,7 +172,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -239,7 +242,31 @@
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom style="medium">
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -249,7 +276,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -276,9 +303,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="44" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -304,16 +328,46 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -631,10 +685,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{047E54BC-2388-4289-9894-A5CEAA9ACA7E}">
-  <dimension ref="A1:M24"/>
+  <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -643,29 +697,39 @@
     <col min="2" max="2" width="12.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="64.85546875" style="2" customWidth="1"/>
     <col min="4" max="4" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.85546875" style="2" customWidth="1"/>
     <col min="6" max="6" width="13.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="14.140625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="15.5703125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="20.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="11.42578125" style="4"/>
+    <col min="8" max="10" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="11.42578125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C1" s="19"/>
-    </row>
-    <row r="2" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="str">
+    <row r="1" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C1" s="18"/>
+    </row>
+    <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="19" t="str">
         <f>UPPER(TEXT(A4,"DDDD"))</f>
         <v>SÁBADO</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="20" t="s">
+      <c r="H2" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="21"/>
+      <c r="J2" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" s="28" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="27" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="8" t="s">
@@ -680,336 +744,309 @@
       <c r="E3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="9" t="s">
         <v>5</v>
       </c>
       <c r="G3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="I3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="J3" s="9" t="s">
+      <c r="J3" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="20"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="20"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="20"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="20"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="20"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="20"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="20"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="20"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="20"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="20"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="20"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="20"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="20"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="20"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="20"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="20"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="20"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="20"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="20"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="20"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+    </row>
+    <row r="24" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="L3" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="M3" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="22"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="23"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="23"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="23"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="23"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="23"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="23"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="23"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="23"/>
-      <c r="B12" s="15"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="23"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="23"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="14"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="23"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="23"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="14"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="23"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="14"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="23"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="14"/>
-      <c r="K18" s="14"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="23"/>
-      <c r="B19" s="15"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="14"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="23"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="14"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="23"/>
-      <c r="B21" s="15"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="14"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="5"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="23"/>
-      <c r="B22" s="15"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="14"/>
-      <c r="J22" s="14"/>
-      <c r="K22" s="14"/>
-      <c r="L22" s="5"/>
-      <c r="M22" s="5"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="23"/>
-      <c r="B23" s="15"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="14"/>
-      <c r="J23" s="14"/>
-      <c r="K23" s="14"/>
-      <c r="L23" s="5"/>
-      <c r="M23" s="5"/>
-    </row>
-    <row r="24" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B24" s="18" t="str">
+      <c r="B24" s="17" t="str">
         <f>SUM(B4:B23)&amp;" Artículos"</f>
         <v>0 Artículos</v>
       </c>
@@ -1018,29 +1055,33 @@
       <c r="E24" s="6"/>
       <c r="F24" s="7"/>
       <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="12">
+      <c r="H24" s="11">
+        <f>SUM(H4:H23)</f>
+        <v>0</v>
+      </c>
+      <c r="I24" s="11">
         <f>SUM(I4:I23)</f>
         <v>0</v>
       </c>
-      <c r="J24" s="12">
+      <c r="J24" s="11">
+        <f>SUM(H24:I24)</f>
+        <v>0</v>
+      </c>
+      <c r="K24" s="11">
         <f>SUM(J4:J23)</f>
         <v>0</v>
       </c>
-      <c r="K24" s="12">
-        <f>SUM(I24:J24)</f>
+      <c r="L24" s="10">
+        <f>SUM(K24)</f>
         <v>0</v>
       </c>
-      <c r="L24" s="12">
-        <f>SUM(K4:K23)</f>
-        <v>0</v>
-      </c>
-      <c r="M24" s="11">
-        <f>SUM(L24)</f>
-        <v>0</v>
-      </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/registro_main.xlsx
+++ b/registro_main.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\QAOTYK\Desktop\registro_excel_macros\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5F45E84-A6CC-4453-8D3A-F3DFC3B840D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74DCA482-2BD9-4BA5-B1D8-B2F50044241A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{D3AF314D-D49C-4E56-878F-BFC4E127C6E3}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="REPORTE" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="15">
   <si>
     <t>FECHA</t>
   </si>
@@ -76,6 +76,9 @@
   </si>
   <si>
     <t>TOTAL DE</t>
+  </si>
+  <si>
+    <t>TOTAL DE VENTA</t>
   </si>
 </sst>
 </file>
@@ -276,7 +279,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -364,10 +367,16 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -685,10 +694,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{047E54BC-2388-4289-9894-A5CEAA9ACA7E}">
-  <dimension ref="A1:L24"/>
+  <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -700,95 +710,120 @@
     <col min="5" max="5" width="25.85546875" style="2" customWidth="1"/>
     <col min="6" max="6" width="13.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.140625" style="1" customWidth="1"/>
-    <col min="8" max="10" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="11.42578125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C1" s="18"/>
-    </row>
-    <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="str">
-        <f>UPPER(TEXT(A4,"DDDD"))</f>
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="29" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C2" s="18"/>
+    </row>
+    <row r="3" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="19" t="str">
+        <f>UPPER(TEXT(A5,"DDDD"))</f>
         <v>SÁBADO</v>
       </c>
-      <c r="H2" s="30" t="s">
+      <c r="H3" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="21"/>
-      <c r="J2" s="31" t="s">
+      <c r="I3" s="31"/>
+      <c r="J3" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="K2" s="28" t="s">
+      <c r="K3" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="28" t="s">
+      <c r="L3" s="32" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="27" t="s">
+    <row r="4" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B4" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H4" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="I4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="32" t="s">
+      <c r="J4" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="K3" s="29"/>
-      <c r="L3" s="29"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="20"/>
-      <c r="B4" s="22"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="26"/>
-      <c r="K4" s="24"/>
-      <c r="L4" s="24"/>
+      <c r="K4" s="33"/>
+      <c r="L4" s="33"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="20"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="7"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="25"/>
       <c r="G5" s="16"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="24"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="20"/>
@@ -1042,45 +1077,59 @@
       <c r="K23" s="5"/>
       <c r="L23" s="5"/>
     </row>
-    <row r="24" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="12" t="s">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="20"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="13"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+    </row>
+    <row r="25" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B24" s="17" t="str">
-        <f>SUM(B4:B23)&amp;" Artículos"</f>
+      <c r="B25" s="17" t="str">
+        <f>SUM(B5:B24)&amp;" Artículos"</f>
         <v>0 Artículos</v>
       </c>
-      <c r="C24" s="6"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="11">
-        <f>SUM(H4:H23)</f>
+      <c r="C25" s="6"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="11">
+        <f>SUM(H5:H24)</f>
         <v>0</v>
       </c>
-      <c r="I24" s="11">
-        <f>SUM(I4:I23)</f>
+      <c r="I25" s="11">
+        <f>SUM(I5:I24)</f>
         <v>0</v>
       </c>
-      <c r="J24" s="11">
-        <f>SUM(H24:I24)</f>
+      <c r="J25" s="11">
+        <f>SUM(H25:I25)</f>
         <v>0</v>
       </c>
-      <c r="K24" s="11">
-        <f>SUM(J4:J23)</f>
+      <c r="K25" s="11">
+        <f>SUM(J5:J24)</f>
         <v>0</v>
       </c>
-      <c r="L24" s="10">
-        <f>SUM(K24)</f>
+      <c r="L25" s="10">
+        <f>SUM(K25)</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/registro_main.xlsx
+++ b/registro_main.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\QAOTYK\Desktop\registro_excel_macros\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\modap\Desktop\hoja_de_ventas\registro_excel_macros\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EDFB796-E185-48B7-B8B2-78576210D7EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{319FEF25-8149-4DF0-881A-910C4CCCAE59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{D3AF314D-D49C-4E56-878F-BFC4E127C6E3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D3AF314D-D49C-4E56-878F-BFC4E127C6E3}"/>
   </bookViews>
   <sheets>
     <sheet name="REPORTE" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="16">
   <si>
     <t>FECHA</t>
   </si>
@@ -407,14 +407,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="15" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -428,30 +425,21 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="15" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="9" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <b/>
@@ -461,16 +449,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -793,12 +771,12 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15" style="36" customWidth="1"/>
+    <col min="1" max="1" width="15" style="29" customWidth="1"/>
     <col min="2" max="2" width="12.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="64.85546875" style="2" customWidth="1"/>
     <col min="4" max="4" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
@@ -856,24 +834,24 @@
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="str">
         <f>UPPER(TEXT(A5,"DDDD"))</f>
-        <v>SÁBADO</v>
-      </c>
-      <c r="B3" s="29" t="s">
+        <v>MIÉRCOLES</v>
+      </c>
+      <c r="B3" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="30"/>
-      <c r="D3" s="31"/>
-      <c r="H3" s="32" t="s">
+      <c r="C3" s="36"/>
+      <c r="D3" s="37"/>
+      <c r="H3" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="33"/>
+      <c r="I3" s="32"/>
       <c r="J3" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="34" t="s">
+      <c r="K3" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="34" t="s">
+      <c r="L3" s="33" t="s">
         <v>9</v>
       </c>
     </row>
@@ -908,11 +886,13 @@
       <c r="J4" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="K4" s="35"/>
-      <c r="L4" s="35"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="34"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="37"/>
+      <c r="A5" s="30">
+        <v>45658</v>
+      </c>
       <c r="B5" s="19"/>
       <c r="C5" s="18"/>
       <c r="D5" s="19"/>
@@ -926,7 +906,10 @@
       <c r="L5" s="19"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="37"/>
+      <c r="A6" s="30">
+        <f>A5</f>
+        <v>45658</v>
+      </c>
       <c r="B6" s="5"/>
       <c r="C6" s="13"/>
       <c r="D6" s="5"/>
@@ -940,7 +923,10 @@
       <c r="L6" s="5"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="37"/>
+      <c r="A7" s="30">
+        <f t="shared" ref="A7:A24" si="0">A6</f>
+        <v>45658</v>
+      </c>
       <c r="B7" s="5"/>
       <c r="C7" s="13"/>
       <c r="D7" s="5"/>
@@ -954,7 +940,10 @@
       <c r="L7" s="5"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="37"/>
+      <c r="A8" s="30">
+        <f t="shared" si="0"/>
+        <v>45658</v>
+      </c>
       <c r="B8" s="5"/>
       <c r="C8" s="13"/>
       <c r="D8" s="5"/>
@@ -968,7 +957,10 @@
       <c r="L8" s="5"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="37"/>
+      <c r="A9" s="30">
+        <f t="shared" si="0"/>
+        <v>45658</v>
+      </c>
       <c r="B9" s="5"/>
       <c r="C9" s="13"/>
       <c r="D9" s="5"/>
@@ -982,7 +974,10 @@
       <c r="L9" s="5"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="37"/>
+      <c r="A10" s="30">
+        <f t="shared" si="0"/>
+        <v>45658</v>
+      </c>
       <c r="B10" s="5"/>
       <c r="C10" s="13"/>
       <c r="D10" s="5"/>
@@ -996,7 +991,10 @@
       <c r="L10" s="5"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="37"/>
+      <c r="A11" s="30">
+        <f t="shared" si="0"/>
+        <v>45658</v>
+      </c>
       <c r="B11" s="5"/>
       <c r="C11" s="13"/>
       <c r="D11" s="5"/>
@@ -1010,7 +1008,10 @@
       <c r="L11" s="5"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="37"/>
+      <c r="A12" s="30">
+        <f t="shared" si="0"/>
+        <v>45658</v>
+      </c>
       <c r="B12" s="5"/>
       <c r="C12" s="13"/>
       <c r="D12" s="5"/>
@@ -1024,7 +1025,10 @@
       <c r="L12" s="5"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="37"/>
+      <c r="A13" s="30">
+        <f t="shared" si="0"/>
+        <v>45658</v>
+      </c>
       <c r="B13" s="5"/>
       <c r="C13" s="13"/>
       <c r="D13" s="5"/>
@@ -1038,7 +1042,10 @@
       <c r="L13" s="5"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="37"/>
+      <c r="A14" s="30">
+        <f t="shared" si="0"/>
+        <v>45658</v>
+      </c>
       <c r="B14" s="5"/>
       <c r="C14" s="13"/>
       <c r="D14" s="5"/>
@@ -1052,7 +1059,10 @@
       <c r="L14" s="5"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="37"/>
+      <c r="A15" s="30">
+        <f t="shared" si="0"/>
+        <v>45658</v>
+      </c>
       <c r="B15" s="5"/>
       <c r="C15" s="13"/>
       <c r="D15" s="5"/>
@@ -1066,7 +1076,10 @@
       <c r="L15" s="5"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="37"/>
+      <c r="A16" s="30">
+        <f t="shared" si="0"/>
+        <v>45658</v>
+      </c>
       <c r="B16" s="5"/>
       <c r="C16" s="13"/>
       <c r="D16" s="5"/>
@@ -1080,7 +1093,10 @@
       <c r="L16" s="5"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="37"/>
+      <c r="A17" s="30">
+        <f t="shared" si="0"/>
+        <v>45658</v>
+      </c>
       <c r="B17" s="5"/>
       <c r="C17" s="13"/>
       <c r="D17" s="5"/>
@@ -1094,7 +1110,10 @@
       <c r="L17" s="5"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="37"/>
+      <c r="A18" s="30">
+        <f t="shared" si="0"/>
+        <v>45658</v>
+      </c>
       <c r="B18" s="5"/>
       <c r="C18" s="13"/>
       <c r="D18" s="5"/>
@@ -1108,7 +1127,10 @@
       <c r="L18" s="5"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="37"/>
+      <c r="A19" s="30">
+        <f t="shared" si="0"/>
+        <v>45658</v>
+      </c>
       <c r="B19" s="5"/>
       <c r="C19" s="13"/>
       <c r="D19" s="5"/>
@@ -1122,7 +1144,10 @@
       <c r="L19" s="5"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="37"/>
+      <c r="A20" s="30">
+        <f t="shared" si="0"/>
+        <v>45658</v>
+      </c>
       <c r="B20" s="5"/>
       <c r="C20" s="13"/>
       <c r="D20" s="5"/>
@@ -1136,7 +1161,10 @@
       <c r="L20" s="5"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="37"/>
+      <c r="A21" s="30">
+        <f t="shared" si="0"/>
+        <v>45658</v>
+      </c>
       <c r="B21" s="5"/>
       <c r="C21" s="13"/>
       <c r="D21" s="5"/>
@@ -1150,7 +1178,10 @@
       <c r="L21" s="5"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="37"/>
+      <c r="A22" s="30">
+        <f t="shared" si="0"/>
+        <v>45658</v>
+      </c>
       <c r="B22" s="5"/>
       <c r="C22" s="13"/>
       <c r="D22" s="5"/>
@@ -1164,7 +1195,10 @@
       <c r="L22" s="5"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="37"/>
+      <c r="A23" s="30">
+        <f t="shared" si="0"/>
+        <v>45658</v>
+      </c>
       <c r="B23" s="5"/>
       <c r="C23" s="13"/>
       <c r="D23" s="5"/>
@@ -1178,7 +1212,10 @@
       <c r="L23" s="5"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="37"/>
+      <c r="A24" s="30">
+        <f t="shared" si="0"/>
+        <v>45658</v>
+      </c>
       <c r="B24" s="5"/>
       <c r="C24" s="13"/>
       <c r="D24" s="5"/>
@@ -1229,24 +1266,24 @@
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="17" t="str">
         <f>UPPER(TEXT(A29,"DDDD"))</f>
-        <v>SÁBADO</v>
-      </c>
-      <c r="B27" s="29" t="s">
+        <v>JUEVES</v>
+      </c>
+      <c r="B27" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="C27" s="30"/>
-      <c r="D27" s="31"/>
-      <c r="H27" s="32" t="s">
+      <c r="C27" s="36"/>
+      <c r="D27" s="37"/>
+      <c r="H27" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="I27" s="33"/>
+      <c r="I27" s="32"/>
       <c r="J27" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="K27" s="34" t="s">
+      <c r="K27" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="L27" s="34" t="s">
+      <c r="L27" s="33" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1281,11 +1318,14 @@
       <c r="J28" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="K28" s="35"/>
-      <c r="L28" s="35"/>
+      <c r="K28" s="34"/>
+      <c r="L28" s="34"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="37"/>
+      <c r="A29" s="30">
+        <f>A5+1</f>
+        <v>45659</v>
+      </c>
       <c r="B29" s="19"/>
       <c r="C29" s="18"/>
       <c r="D29" s="19"/>
@@ -1299,7 +1339,10 @@
       <c r="L29" s="19"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="37"/>
+      <c r="A30" s="30">
+        <f>A29</f>
+        <v>45659</v>
+      </c>
       <c r="B30" s="5"/>
       <c r="C30" s="13"/>
       <c r="D30" s="5"/>
@@ -1313,7 +1356,10 @@
       <c r="L30" s="5"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="37"/>
+      <c r="A31" s="30">
+        <f t="shared" ref="A31:A48" si="1">A30</f>
+        <v>45659</v>
+      </c>
       <c r="B31" s="5"/>
       <c r="C31" s="13"/>
       <c r="D31" s="5"/>
@@ -1327,7 +1373,10 @@
       <c r="L31" s="5"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="37"/>
+      <c r="A32" s="30">
+        <f t="shared" si="1"/>
+        <v>45659</v>
+      </c>
       <c r="B32" s="5"/>
       <c r="C32" s="13"/>
       <c r="D32" s="5"/>
@@ -1341,7 +1390,10 @@
       <c r="L32" s="5"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="37"/>
+      <c r="A33" s="30">
+        <f t="shared" si="1"/>
+        <v>45659</v>
+      </c>
       <c r="B33" s="5"/>
       <c r="C33" s="13"/>
       <c r="D33" s="5"/>
@@ -1355,7 +1407,10 @@
       <c r="L33" s="5"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="37"/>
+      <c r="A34" s="30">
+        <f t="shared" si="1"/>
+        <v>45659</v>
+      </c>
       <c r="B34" s="5"/>
       <c r="C34" s="13"/>
       <c r="D34" s="5"/>
@@ -1369,7 +1424,10 @@
       <c r="L34" s="5"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="37"/>
+      <c r="A35" s="30">
+        <f t="shared" si="1"/>
+        <v>45659</v>
+      </c>
       <c r="B35" s="5"/>
       <c r="C35" s="13"/>
       <c r="D35" s="5"/>
@@ -1383,7 +1441,10 @@
       <c r="L35" s="5"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="37"/>
+      <c r="A36" s="30">
+        <f t="shared" si="1"/>
+        <v>45659</v>
+      </c>
       <c r="B36" s="5"/>
       <c r="C36" s="13"/>
       <c r="D36" s="5"/>
@@ -1397,7 +1458,10 @@
       <c r="L36" s="5"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="37"/>
+      <c r="A37" s="30">
+        <f t="shared" si="1"/>
+        <v>45659</v>
+      </c>
       <c r="B37" s="5"/>
       <c r="C37" s="13"/>
       <c r="D37" s="5"/>
@@ -1411,7 +1475,10 @@
       <c r="L37" s="5"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="37"/>
+      <c r="A38" s="30">
+        <f t="shared" si="1"/>
+        <v>45659</v>
+      </c>
       <c r="B38" s="5"/>
       <c r="C38" s="13"/>
       <c r="D38" s="5"/>
@@ -1425,7 +1492,10 @@
       <c r="L38" s="5"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="37"/>
+      <c r="A39" s="30">
+        <f t="shared" si="1"/>
+        <v>45659</v>
+      </c>
       <c r="B39" s="5"/>
       <c r="C39" s="13"/>
       <c r="D39" s="5"/>
@@ -1439,7 +1509,10 @@
       <c r="L39" s="5"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="37"/>
+      <c r="A40" s="30">
+        <f t="shared" si="1"/>
+        <v>45659</v>
+      </c>
       <c r="B40" s="5"/>
       <c r="C40" s="13"/>
       <c r="D40" s="5"/>
@@ -1453,7 +1526,10 @@
       <c r="L40" s="5"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" s="37"/>
+      <c r="A41" s="30">
+        <f t="shared" si="1"/>
+        <v>45659</v>
+      </c>
       <c r="B41" s="5"/>
       <c r="C41" s="13"/>
       <c r="D41" s="5"/>
@@ -1467,7 +1543,10 @@
       <c r="L41" s="5"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42" s="37"/>
+      <c r="A42" s="30">
+        <f t="shared" si="1"/>
+        <v>45659</v>
+      </c>
       <c r="B42" s="5"/>
       <c r="C42" s="13"/>
       <c r="D42" s="5"/>
@@ -1481,7 +1560,10 @@
       <c r="L42" s="5"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43" s="37"/>
+      <c r="A43" s="30">
+        <f t="shared" si="1"/>
+        <v>45659</v>
+      </c>
       <c r="B43" s="5"/>
       <c r="C43" s="13"/>
       <c r="D43" s="5"/>
@@ -1495,7 +1577,10 @@
       <c r="L43" s="5"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="37"/>
+      <c r="A44" s="30">
+        <f t="shared" si="1"/>
+        <v>45659</v>
+      </c>
       <c r="B44" s="5"/>
       <c r="C44" s="13"/>
       <c r="D44" s="5"/>
@@ -1509,7 +1594,10 @@
       <c r="L44" s="5"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" s="37"/>
+      <c r="A45" s="30">
+        <f t="shared" si="1"/>
+        <v>45659</v>
+      </c>
       <c r="B45" s="5"/>
       <c r="C45" s="13"/>
       <c r="D45" s="5"/>
@@ -1523,7 +1611,10 @@
       <c r="L45" s="5"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A46" s="37"/>
+      <c r="A46" s="30">
+        <f t="shared" si="1"/>
+        <v>45659</v>
+      </c>
       <c r="B46" s="5"/>
       <c r="C46" s="13"/>
       <c r="D46" s="5"/>
@@ -1537,7 +1628,10 @@
       <c r="L46" s="5"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47" s="37"/>
+      <c r="A47" s="30">
+        <f t="shared" si="1"/>
+        <v>45659</v>
+      </c>
       <c r="B47" s="5"/>
       <c r="C47" s="13"/>
       <c r="D47" s="5"/>
@@ -1551,7 +1645,10 @@
       <c r="L47" s="5"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A48" s="37"/>
+      <c r="A48" s="30">
+        <f t="shared" si="1"/>
+        <v>45659</v>
+      </c>
       <c r="B48" s="5"/>
       <c r="C48" s="13"/>
       <c r="D48" s="5"/>
@@ -1602,24 +1699,24 @@
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="17" t="str">
         <f>UPPER(TEXT(A53,"DDDD"))</f>
-        <v>SÁBADO</v>
-      </c>
-      <c r="B51" s="29" t="s">
+        <v>VIERNES</v>
+      </c>
+      <c r="B51" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="C51" s="30"/>
-      <c r="D51" s="31"/>
-      <c r="H51" s="32" t="s">
+      <c r="C51" s="36"/>
+      <c r="D51" s="37"/>
+      <c r="H51" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="I51" s="33"/>
+      <c r="I51" s="32"/>
       <c r="J51" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="K51" s="34" t="s">
+      <c r="K51" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="L51" s="34" t="s">
+      <c r="L51" s="33" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1654,11 +1751,14 @@
       <c r="J52" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="K52" s="35"/>
-      <c r="L52" s="35"/>
+      <c r="K52" s="34"/>
+      <c r="L52" s="34"/>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A53" s="37"/>
+      <c r="A53" s="30">
+        <f>A29+1</f>
+        <v>45660</v>
+      </c>
       <c r="B53" s="19"/>
       <c r="C53" s="18"/>
       <c r="D53" s="19"/>
@@ -1672,7 +1772,10 @@
       <c r="L53" s="19"/>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A54" s="37"/>
+      <c r="A54" s="30">
+        <f t="shared" ref="A54:A72" si="2">A30+1</f>
+        <v>45660</v>
+      </c>
       <c r="B54" s="5"/>
       <c r="C54" s="13"/>
       <c r="D54" s="5"/>
@@ -1686,7 +1789,10 @@
       <c r="L54" s="5"/>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A55" s="37"/>
+      <c r="A55" s="30">
+        <f t="shared" si="2"/>
+        <v>45660</v>
+      </c>
       <c r="B55" s="5"/>
       <c r="C55" s="13"/>
       <c r="D55" s="5"/>
@@ -1700,7 +1806,10 @@
       <c r="L55" s="5"/>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A56" s="37"/>
+      <c r="A56" s="30">
+        <f t="shared" si="2"/>
+        <v>45660</v>
+      </c>
       <c r="B56" s="5"/>
       <c r="C56" s="13"/>
       <c r="D56" s="5"/>
@@ -1714,7 +1823,10 @@
       <c r="L56" s="5"/>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A57" s="37"/>
+      <c r="A57" s="30">
+        <f t="shared" si="2"/>
+        <v>45660</v>
+      </c>
       <c r="B57" s="5"/>
       <c r="C57" s="13"/>
       <c r="D57" s="5"/>
@@ -1728,7 +1840,10 @@
       <c r="L57" s="5"/>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A58" s="37"/>
+      <c r="A58" s="30">
+        <f t="shared" si="2"/>
+        <v>45660</v>
+      </c>
       <c r="B58" s="5"/>
       <c r="C58" s="13"/>
       <c r="D58" s="5"/>
@@ -1742,7 +1857,10 @@
       <c r="L58" s="5"/>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A59" s="37"/>
+      <c r="A59" s="30">
+        <f t="shared" si="2"/>
+        <v>45660</v>
+      </c>
       <c r="B59" s="5"/>
       <c r="C59" s="13"/>
       <c r="D59" s="5"/>
@@ -1756,7 +1874,10 @@
       <c r="L59" s="5"/>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A60" s="37"/>
+      <c r="A60" s="30">
+        <f t="shared" si="2"/>
+        <v>45660</v>
+      </c>
       <c r="B60" s="5"/>
       <c r="C60" s="13"/>
       <c r="D60" s="5"/>
@@ -1770,7 +1891,10 @@
       <c r="L60" s="5"/>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A61" s="37"/>
+      <c r="A61" s="30">
+        <f t="shared" si="2"/>
+        <v>45660</v>
+      </c>
       <c r="B61" s="5"/>
       <c r="C61" s="13"/>
       <c r="D61" s="5"/>
@@ -1784,7 +1908,10 @@
       <c r="L61" s="5"/>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A62" s="37"/>
+      <c r="A62" s="30">
+        <f t="shared" si="2"/>
+        <v>45660</v>
+      </c>
       <c r="B62" s="5"/>
       <c r="C62" s="13"/>
       <c r="D62" s="5"/>
@@ -1798,7 +1925,10 @@
       <c r="L62" s="5"/>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A63" s="37"/>
+      <c r="A63" s="30">
+        <f t="shared" si="2"/>
+        <v>45660</v>
+      </c>
       <c r="B63" s="5"/>
       <c r="C63" s="13"/>
       <c r="D63" s="5"/>
@@ -1812,7 +1942,10 @@
       <c r="L63" s="5"/>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A64" s="37"/>
+      <c r="A64" s="30">
+        <f t="shared" si="2"/>
+        <v>45660</v>
+      </c>
       <c r="B64" s="5"/>
       <c r="C64" s="13"/>
       <c r="D64" s="5"/>
@@ -1826,7 +1959,10 @@
       <c r="L64" s="5"/>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A65" s="37"/>
+      <c r="A65" s="30">
+        <f t="shared" si="2"/>
+        <v>45660</v>
+      </c>
       <c r="B65" s="5"/>
       <c r="C65" s="13"/>
       <c r="D65" s="5"/>
@@ -1840,7 +1976,10 @@
       <c r="L65" s="5"/>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A66" s="37"/>
+      <c r="A66" s="30">
+        <f t="shared" si="2"/>
+        <v>45660</v>
+      </c>
       <c r="B66" s="5"/>
       <c r="C66" s="13"/>
       <c r="D66" s="5"/>
@@ -1854,7 +1993,10 @@
       <c r="L66" s="5"/>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A67" s="37"/>
+      <c r="A67" s="30">
+        <f t="shared" si="2"/>
+        <v>45660</v>
+      </c>
       <c r="B67" s="5"/>
       <c r="C67" s="13"/>
       <c r="D67" s="5"/>
@@ -1868,7 +2010,10 @@
       <c r="L67" s="5"/>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A68" s="37"/>
+      <c r="A68" s="30">
+        <f t="shared" si="2"/>
+        <v>45660</v>
+      </c>
       <c r="B68" s="5"/>
       <c r="C68" s="13"/>
       <c r="D68" s="5"/>
@@ -1882,7 +2027,10 @@
       <c r="L68" s="5"/>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A69" s="37"/>
+      <c r="A69" s="30">
+        <f t="shared" si="2"/>
+        <v>45660</v>
+      </c>
       <c r="B69" s="5"/>
       <c r="C69" s="13"/>
       <c r="D69" s="5"/>
@@ -1896,7 +2044,10 @@
       <c r="L69" s="5"/>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A70" s="37"/>
+      <c r="A70" s="30">
+        <f t="shared" si="2"/>
+        <v>45660</v>
+      </c>
       <c r="B70" s="5"/>
       <c r="C70" s="13"/>
       <c r="D70" s="5"/>
@@ -1910,7 +2061,10 @@
       <c r="L70" s="5"/>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A71" s="37"/>
+      <c r="A71" s="30">
+        <f t="shared" si="2"/>
+        <v>45660</v>
+      </c>
       <c r="B71" s="5"/>
       <c r="C71" s="13"/>
       <c r="D71" s="5"/>
@@ -1924,7 +2078,10 @@
       <c r="L71" s="5"/>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A72" s="37"/>
+      <c r="A72" s="30">
+        <f t="shared" si="2"/>
+        <v>45660</v>
+      </c>
       <c r="B72" s="5"/>
       <c r="C72" s="13"/>
       <c r="D72" s="5"/>
@@ -1977,22 +2134,22 @@
         <f>UPPER(TEXT(A77,"DDDD"))</f>
         <v>SÁBADO</v>
       </c>
-      <c r="B75" s="29" t="s">
+      <c r="B75" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="C75" s="30"/>
-      <c r="D75" s="31"/>
-      <c r="H75" s="32" t="s">
+      <c r="C75" s="36"/>
+      <c r="D75" s="37"/>
+      <c r="H75" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="I75" s="33"/>
+      <c r="I75" s="32"/>
       <c r="J75" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="K75" s="34" t="s">
+      <c r="K75" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="L75" s="34" t="s">
+      <c r="L75" s="33" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2027,11 +2184,14 @@
       <c r="J76" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="K76" s="35"/>
-      <c r="L76" s="35"/>
+      <c r="K76" s="34"/>
+      <c r="L76" s="34"/>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A77" s="37"/>
+      <c r="A77" s="30">
+        <f>A53+1</f>
+        <v>45661</v>
+      </c>
       <c r="B77" s="19"/>
       <c r="C77" s="18"/>
       <c r="D77" s="19"/>
@@ -2045,7 +2205,10 @@
       <c r="L77" s="19"/>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A78" s="37"/>
+      <c r="A78" s="30">
+        <f t="shared" ref="A78:A96" si="3">A54+1</f>
+        <v>45661</v>
+      </c>
       <c r="B78" s="5"/>
       <c r="C78" s="13"/>
       <c r="D78" s="5"/>
@@ -2059,7 +2222,10 @@
       <c r="L78" s="5"/>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A79" s="37"/>
+      <c r="A79" s="30">
+        <f t="shared" si="3"/>
+        <v>45661</v>
+      </c>
       <c r="B79" s="5"/>
       <c r="C79" s="13"/>
       <c r="D79" s="5"/>
@@ -2073,7 +2239,10 @@
       <c r="L79" s="5"/>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A80" s="37"/>
+      <c r="A80" s="30">
+        <f t="shared" si="3"/>
+        <v>45661</v>
+      </c>
       <c r="B80" s="5"/>
       <c r="C80" s="13"/>
       <c r="D80" s="5"/>
@@ -2087,7 +2256,10 @@
       <c r="L80" s="5"/>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A81" s="37"/>
+      <c r="A81" s="30">
+        <f t="shared" si="3"/>
+        <v>45661</v>
+      </c>
       <c r="B81" s="5"/>
       <c r="C81" s="13"/>
       <c r="D81" s="5"/>
@@ -2101,7 +2273,10 @@
       <c r="L81" s="5"/>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A82" s="37"/>
+      <c r="A82" s="30">
+        <f t="shared" si="3"/>
+        <v>45661</v>
+      </c>
       <c r="B82" s="5"/>
       <c r="C82" s="13"/>
       <c r="D82" s="5"/>
@@ -2115,7 +2290,10 @@
       <c r="L82" s="5"/>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A83" s="37"/>
+      <c r="A83" s="30">
+        <f t="shared" si="3"/>
+        <v>45661</v>
+      </c>
       <c r="B83" s="5"/>
       <c r="C83" s="13"/>
       <c r="D83" s="5"/>
@@ -2129,7 +2307,10 @@
       <c r="L83" s="5"/>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A84" s="37"/>
+      <c r="A84" s="30">
+        <f t="shared" si="3"/>
+        <v>45661</v>
+      </c>
       <c r="B84" s="5"/>
       <c r="C84" s="13"/>
       <c r="D84" s="5"/>
@@ -2143,7 +2324,10 @@
       <c r="L84" s="5"/>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A85" s="37"/>
+      <c r="A85" s="30">
+        <f t="shared" si="3"/>
+        <v>45661</v>
+      </c>
       <c r="B85" s="5"/>
       <c r="C85" s="13"/>
       <c r="D85" s="5"/>
@@ -2157,7 +2341,10 @@
       <c r="L85" s="5"/>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A86" s="37"/>
+      <c r="A86" s="30">
+        <f t="shared" si="3"/>
+        <v>45661</v>
+      </c>
       <c r="B86" s="5"/>
       <c r="C86" s="13"/>
       <c r="D86" s="5"/>
@@ -2171,7 +2358,10 @@
       <c r="L86" s="5"/>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A87" s="37"/>
+      <c r="A87" s="30">
+        <f t="shared" si="3"/>
+        <v>45661</v>
+      </c>
       <c r="B87" s="5"/>
       <c r="C87" s="13"/>
       <c r="D87" s="5"/>
@@ -2185,7 +2375,10 @@
       <c r="L87" s="5"/>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A88" s="37"/>
+      <c r="A88" s="30">
+        <f t="shared" si="3"/>
+        <v>45661</v>
+      </c>
       <c r="B88" s="5"/>
       <c r="C88" s="13"/>
       <c r="D88" s="5"/>
@@ -2199,7 +2392,10 @@
       <c r="L88" s="5"/>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A89" s="37"/>
+      <c r="A89" s="30">
+        <f t="shared" si="3"/>
+        <v>45661</v>
+      </c>
       <c r="B89" s="5"/>
       <c r="C89" s="13"/>
       <c r="D89" s="5"/>
@@ -2213,7 +2409,10 @@
       <c r="L89" s="5"/>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A90" s="37"/>
+      <c r="A90" s="30">
+        <f t="shared" si="3"/>
+        <v>45661</v>
+      </c>
       <c r="B90" s="5"/>
       <c r="C90" s="13"/>
       <c r="D90" s="5"/>
@@ -2227,7 +2426,10 @@
       <c r="L90" s="5"/>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A91" s="37"/>
+      <c r="A91" s="30">
+        <f t="shared" si="3"/>
+        <v>45661</v>
+      </c>
       <c r="B91" s="5"/>
       <c r="C91" s="13"/>
       <c r="D91" s="5"/>
@@ -2241,7 +2443,10 @@
       <c r="L91" s="5"/>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A92" s="37"/>
+      <c r="A92" s="30">
+        <f t="shared" si="3"/>
+        <v>45661</v>
+      </c>
       <c r="B92" s="5"/>
       <c r="C92" s="13"/>
       <c r="D92" s="5"/>
@@ -2255,7 +2460,10 @@
       <c r="L92" s="5"/>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A93" s="37"/>
+      <c r="A93" s="30">
+        <f t="shared" si="3"/>
+        <v>45661</v>
+      </c>
       <c r="B93" s="5"/>
       <c r="C93" s="13"/>
       <c r="D93" s="5"/>
@@ -2269,7 +2477,10 @@
       <c r="L93" s="5"/>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A94" s="37"/>
+      <c r="A94" s="30">
+        <f t="shared" si="3"/>
+        <v>45661</v>
+      </c>
       <c r="B94" s="5"/>
       <c r="C94" s="13"/>
       <c r="D94" s="5"/>
@@ -2283,7 +2494,10 @@
       <c r="L94" s="5"/>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A95" s="37"/>
+      <c r="A95" s="30">
+        <f t="shared" si="3"/>
+        <v>45661</v>
+      </c>
       <c r="B95" s="5"/>
       <c r="C95" s="13"/>
       <c r="D95" s="5"/>
@@ -2297,7 +2511,10 @@
       <c r="L95" s="5"/>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A96" s="37"/>
+      <c r="A96" s="30">
+        <f t="shared" si="3"/>
+        <v>45661</v>
+      </c>
       <c r="B96" s="5"/>
       <c r="C96" s="13"/>
       <c r="D96" s="5"/>
@@ -2348,24 +2565,24 @@
     <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99" s="17" t="str">
         <f>UPPER(TEXT(A101,"DDDD"))</f>
-        <v>SÁBADO</v>
-      </c>
-      <c r="B99" s="29" t="s">
+        <v>DOMINGO</v>
+      </c>
+      <c r="B99" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="C99" s="30"/>
-      <c r="D99" s="31"/>
-      <c r="H99" s="32" t="s">
+      <c r="C99" s="36"/>
+      <c r="D99" s="37"/>
+      <c r="H99" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="I99" s="33"/>
+      <c r="I99" s="32"/>
       <c r="J99" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="K99" s="34" t="s">
+      <c r="K99" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="L99" s="34" t="s">
+      <c r="L99" s="33" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2400,11 +2617,14 @@
       <c r="J100" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="K100" s="35"/>
-      <c r="L100" s="35"/>
+      <c r="K100" s="34"/>
+      <c r="L100" s="34"/>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A101" s="37"/>
+      <c r="A101" s="30">
+        <f>A77+1</f>
+        <v>45662</v>
+      </c>
       <c r="B101" s="19"/>
       <c r="C101" s="18"/>
       <c r="D101" s="19"/>
@@ -2418,7 +2638,10 @@
       <c r="L101" s="19"/>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A102" s="37"/>
+      <c r="A102" s="30">
+        <f>A101</f>
+        <v>45662</v>
+      </c>
       <c r="B102" s="5"/>
       <c r="C102" s="13"/>
       <c r="D102" s="5"/>
@@ -2432,7 +2655,10 @@
       <c r="L102" s="5"/>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A103" s="37"/>
+      <c r="A103" s="30">
+        <f t="shared" ref="A103:A120" si="4">A102</f>
+        <v>45662</v>
+      </c>
       <c r="B103" s="5"/>
       <c r="C103" s="13"/>
       <c r="D103" s="5"/>
@@ -2446,7 +2672,10 @@
       <c r="L103" s="5"/>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A104" s="37"/>
+      <c r="A104" s="30">
+        <f t="shared" si="4"/>
+        <v>45662</v>
+      </c>
       <c r="B104" s="5"/>
       <c r="C104" s="13"/>
       <c r="D104" s="5"/>
@@ -2460,7 +2689,10 @@
       <c r="L104" s="5"/>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A105" s="37"/>
+      <c r="A105" s="30">
+        <f t="shared" si="4"/>
+        <v>45662</v>
+      </c>
       <c r="B105" s="5"/>
       <c r="C105" s="13"/>
       <c r="D105" s="5"/>
@@ -2474,7 +2706,10 @@
       <c r="L105" s="5"/>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A106" s="37"/>
+      <c r="A106" s="30">
+        <f t="shared" si="4"/>
+        <v>45662</v>
+      </c>
       <c r="B106" s="5"/>
       <c r="C106" s="13"/>
       <c r="D106" s="5"/>
@@ -2488,7 +2723,10 @@
       <c r="L106" s="5"/>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A107" s="37"/>
+      <c r="A107" s="30">
+        <f t="shared" si="4"/>
+        <v>45662</v>
+      </c>
       <c r="B107" s="5"/>
       <c r="C107" s="13"/>
       <c r="D107" s="5"/>
@@ -2502,7 +2740,10 @@
       <c r="L107" s="5"/>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A108" s="37"/>
+      <c r="A108" s="30">
+        <f t="shared" si="4"/>
+        <v>45662</v>
+      </c>
       <c r="B108" s="5"/>
       <c r="C108" s="13"/>
       <c r="D108" s="5"/>
@@ -2516,7 +2757,10 @@
       <c r="L108" s="5"/>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A109" s="37"/>
+      <c r="A109" s="30">
+        <f t="shared" si="4"/>
+        <v>45662</v>
+      </c>
       <c r="B109" s="5"/>
       <c r="C109" s="13"/>
       <c r="D109" s="5"/>
@@ -2530,7 +2774,10 @@
       <c r="L109" s="5"/>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A110" s="37"/>
+      <c r="A110" s="30">
+        <f t="shared" si="4"/>
+        <v>45662</v>
+      </c>
       <c r="B110" s="5"/>
       <c r="C110" s="13"/>
       <c r="D110" s="5"/>
@@ -2544,7 +2791,10 @@
       <c r="L110" s="5"/>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A111" s="37"/>
+      <c r="A111" s="30">
+        <f t="shared" si="4"/>
+        <v>45662</v>
+      </c>
       <c r="B111" s="5"/>
       <c r="C111" s="13"/>
       <c r="D111" s="5"/>
@@ -2558,7 +2808,10 @@
       <c r="L111" s="5"/>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A112" s="37"/>
+      <c r="A112" s="30">
+        <f t="shared" si="4"/>
+        <v>45662</v>
+      </c>
       <c r="B112" s="5"/>
       <c r="C112" s="13"/>
       <c r="D112" s="5"/>
@@ -2572,7 +2825,10 @@
       <c r="L112" s="5"/>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A113" s="37"/>
+      <c r="A113" s="30">
+        <f t="shared" si="4"/>
+        <v>45662</v>
+      </c>
       <c r="B113" s="5"/>
       <c r="C113" s="13"/>
       <c r="D113" s="5"/>
@@ -2586,7 +2842,10 @@
       <c r="L113" s="5"/>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A114" s="37"/>
+      <c r="A114" s="30">
+        <f t="shared" si="4"/>
+        <v>45662</v>
+      </c>
       <c r="B114" s="5"/>
       <c r="C114" s="13"/>
       <c r="D114" s="5"/>
@@ -2600,7 +2859,10 @@
       <c r="L114" s="5"/>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A115" s="37"/>
+      <c r="A115" s="30">
+        <f t="shared" si="4"/>
+        <v>45662</v>
+      </c>
       <c r="B115" s="5"/>
       <c r="C115" s="13"/>
       <c r="D115" s="5"/>
@@ -2614,7 +2876,10 @@
       <c r="L115" s="5"/>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A116" s="37"/>
+      <c r="A116" s="30">
+        <f t="shared" si="4"/>
+        <v>45662</v>
+      </c>
       <c r="B116" s="5"/>
       <c r="C116" s="13"/>
       <c r="D116" s="5"/>
@@ -2628,7 +2893,10 @@
       <c r="L116" s="5"/>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A117" s="37"/>
+      <c r="A117" s="30">
+        <f t="shared" si="4"/>
+        <v>45662</v>
+      </c>
       <c r="B117" s="5"/>
       <c r="C117" s="13"/>
       <c r="D117" s="5"/>
@@ -2642,7 +2910,10 @@
       <c r="L117" s="5"/>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A118" s="37"/>
+      <c r="A118" s="30">
+        <f t="shared" si="4"/>
+        <v>45662</v>
+      </c>
       <c r="B118" s="5"/>
       <c r="C118" s="13"/>
       <c r="D118" s="5"/>
@@ -2656,7 +2927,10 @@
       <c r="L118" s="5"/>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A119" s="37"/>
+      <c r="A119" s="30">
+        <f t="shared" si="4"/>
+        <v>45662</v>
+      </c>
       <c r="B119" s="5"/>
       <c r="C119" s="13"/>
       <c r="D119" s="5"/>
@@ -2670,7 +2944,10 @@
       <c r="L119" s="5"/>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A120" s="37"/>
+      <c r="A120" s="30">
+        <f t="shared" si="4"/>
+        <v>45662</v>
+      </c>
       <c r="B120" s="5"/>
       <c r="C120" s="13"/>
       <c r="D120" s="5"/>
@@ -2721,24 +2998,24 @@
     <row r="123" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A123" s="17" t="str">
         <f>UPPER(TEXT(A125,"DDDD"))</f>
-        <v>SÁBADO</v>
-      </c>
-      <c r="B123" s="29" t="s">
+        <v>LUNES</v>
+      </c>
+      <c r="B123" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="C123" s="30"/>
-      <c r="D123" s="31"/>
-      <c r="H123" s="32" t="s">
+      <c r="C123" s="36"/>
+      <c r="D123" s="37"/>
+      <c r="H123" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="I123" s="33"/>
+      <c r="I123" s="32"/>
       <c r="J123" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="K123" s="34" t="s">
+      <c r="K123" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="L123" s="34" t="s">
+      <c r="L123" s="33" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2773,11 +3050,14 @@
       <c r="J124" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="K124" s="35"/>
-      <c r="L124" s="35"/>
+      <c r="K124" s="34"/>
+      <c r="L124" s="34"/>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A125" s="37"/>
+      <c r="A125" s="30">
+        <f>A101+1</f>
+        <v>45663</v>
+      </c>
       <c r="B125" s="19"/>
       <c r="C125" s="18"/>
       <c r="D125" s="19"/>
@@ -2791,7 +3071,10 @@
       <c r="L125" s="19"/>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A126" s="37"/>
+      <c r="A126" s="30">
+        <f>A125</f>
+        <v>45663</v>
+      </c>
       <c r="B126" s="5"/>
       <c r="C126" s="13"/>
       <c r="D126" s="5"/>
@@ -2805,7 +3088,10 @@
       <c r="L126" s="5"/>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A127" s="37"/>
+      <c r="A127" s="30">
+        <f t="shared" ref="A127:A144" si="5">A126</f>
+        <v>45663</v>
+      </c>
       <c r="B127" s="5"/>
       <c r="C127" s="13"/>
       <c r="D127" s="5"/>
@@ -2819,7 +3105,10 @@
       <c r="L127" s="5"/>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A128" s="37"/>
+      <c r="A128" s="30">
+        <f t="shared" si="5"/>
+        <v>45663</v>
+      </c>
       <c r="B128" s="5"/>
       <c r="C128" s="13"/>
       <c r="D128" s="5"/>
@@ -2833,7 +3122,10 @@
       <c r="L128" s="5"/>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A129" s="37"/>
+      <c r="A129" s="30">
+        <f t="shared" si="5"/>
+        <v>45663</v>
+      </c>
       <c r="B129" s="5"/>
       <c r="C129" s="13"/>
       <c r="D129" s="5"/>
@@ -2847,7 +3139,10 @@
       <c r="L129" s="5"/>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A130" s="37"/>
+      <c r="A130" s="30">
+        <f t="shared" si="5"/>
+        <v>45663</v>
+      </c>
       <c r="B130" s="5"/>
       <c r="C130" s="13"/>
       <c r="D130" s="5"/>
@@ -2861,7 +3156,10 @@
       <c r="L130" s="5"/>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A131" s="37"/>
+      <c r="A131" s="30">
+        <f t="shared" si="5"/>
+        <v>45663</v>
+      </c>
       <c r="B131" s="5"/>
       <c r="C131" s="13"/>
       <c r="D131" s="5"/>
@@ -2875,7 +3173,10 @@
       <c r="L131" s="5"/>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A132" s="37"/>
+      <c r="A132" s="30">
+        <f t="shared" si="5"/>
+        <v>45663</v>
+      </c>
       <c r="B132" s="5"/>
       <c r="C132" s="13"/>
       <c r="D132" s="5"/>
@@ -2889,7 +3190,10 @@
       <c r="L132" s="5"/>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A133" s="37"/>
+      <c r="A133" s="30">
+        <f t="shared" si="5"/>
+        <v>45663</v>
+      </c>
       <c r="B133" s="5"/>
       <c r="C133" s="13"/>
       <c r="D133" s="5"/>
@@ -2903,7 +3207,10 @@
       <c r="L133" s="5"/>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A134" s="37"/>
+      <c r="A134" s="30">
+        <f t="shared" si="5"/>
+        <v>45663</v>
+      </c>
       <c r="B134" s="5"/>
       <c r="C134" s="13"/>
       <c r="D134" s="5"/>
@@ -2917,7 +3224,10 @@
       <c r="L134" s="5"/>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A135" s="37"/>
+      <c r="A135" s="30">
+        <f t="shared" si="5"/>
+        <v>45663</v>
+      </c>
       <c r="B135" s="5"/>
       <c r="C135" s="13"/>
       <c r="D135" s="5"/>
@@ -2931,7 +3241,10 @@
       <c r="L135" s="5"/>
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A136" s="37"/>
+      <c r="A136" s="30">
+        <f t="shared" si="5"/>
+        <v>45663</v>
+      </c>
       <c r="B136" s="5"/>
       <c r="C136" s="13"/>
       <c r="D136" s="5"/>
@@ -2945,7 +3258,10 @@
       <c r="L136" s="5"/>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A137" s="37"/>
+      <c r="A137" s="30">
+        <f t="shared" si="5"/>
+        <v>45663</v>
+      </c>
       <c r="B137" s="5"/>
       <c r="C137" s="13"/>
       <c r="D137" s="5"/>
@@ -2959,7 +3275,10 @@
       <c r="L137" s="5"/>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A138" s="37"/>
+      <c r="A138" s="30">
+        <f t="shared" si="5"/>
+        <v>45663</v>
+      </c>
       <c r="B138" s="5"/>
       <c r="C138" s="13"/>
       <c r="D138" s="5"/>
@@ -2973,7 +3292,10 @@
       <c r="L138" s="5"/>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A139" s="37"/>
+      <c r="A139" s="30">
+        <f t="shared" si="5"/>
+        <v>45663</v>
+      </c>
       <c r="B139" s="5"/>
       <c r="C139" s="13"/>
       <c r="D139" s="5"/>
@@ -2987,7 +3309,10 @@
       <c r="L139" s="5"/>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A140" s="37"/>
+      <c r="A140" s="30">
+        <f t="shared" si="5"/>
+        <v>45663</v>
+      </c>
       <c r="B140" s="5"/>
       <c r="C140" s="13"/>
       <c r="D140" s="5"/>
@@ -3001,7 +3326,10 @@
       <c r="L140" s="5"/>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A141" s="37"/>
+      <c r="A141" s="30">
+        <f t="shared" si="5"/>
+        <v>45663</v>
+      </c>
       <c r="B141" s="5"/>
       <c r="C141" s="13"/>
       <c r="D141" s="5"/>
@@ -3015,7 +3343,10 @@
       <c r="L141" s="5"/>
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A142" s="37"/>
+      <c r="A142" s="30">
+        <f t="shared" si="5"/>
+        <v>45663</v>
+      </c>
       <c r="B142" s="5"/>
       <c r="C142" s="13"/>
       <c r="D142" s="5"/>
@@ -3029,7 +3360,10 @@
       <c r="L142" s="5"/>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A143" s="37"/>
+      <c r="A143" s="30">
+        <f t="shared" si="5"/>
+        <v>45663</v>
+      </c>
       <c r="B143" s="5"/>
       <c r="C143" s="13"/>
       <c r="D143" s="5"/>
@@ -3043,7 +3377,10 @@
       <c r="L143" s="5"/>
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A144" s="37"/>
+      <c r="A144" s="30">
+        <f t="shared" si="5"/>
+        <v>45663</v>
+      </c>
       <c r="B144" s="5"/>
       <c r="C144" s="13"/>
       <c r="D144" s="5"/>
@@ -3094,24 +3431,24 @@
     <row r="147" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A147" s="17" t="str">
         <f>UPPER(TEXT(A149,"DDDD"))</f>
-        <v>SÁBADO</v>
-      </c>
-      <c r="B147" s="29" t="s">
+        <v>MARTES</v>
+      </c>
+      <c r="B147" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="C147" s="30"/>
-      <c r="D147" s="31"/>
-      <c r="H147" s="32" t="s">
+      <c r="C147" s="36"/>
+      <c r="D147" s="37"/>
+      <c r="H147" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="I147" s="33"/>
+      <c r="I147" s="32"/>
       <c r="J147" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="K147" s="34" t="s">
+      <c r="K147" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="L147" s="34" t="s">
+      <c r="L147" s="33" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3146,11 +3483,14 @@
       <c r="J148" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="K148" s="35"/>
-      <c r="L148" s="35"/>
+      <c r="K148" s="34"/>
+      <c r="L148" s="34"/>
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A149" s="37"/>
+      <c r="A149" s="30">
+        <f>A125+1</f>
+        <v>45664</v>
+      </c>
       <c r="B149" s="19"/>
       <c r="C149" s="18"/>
       <c r="D149" s="19"/>
@@ -3164,7 +3504,10 @@
       <c r="L149" s="19"/>
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A150" s="37"/>
+      <c r="A150" s="30">
+        <f t="shared" ref="A150:A168" si="6">A126+1</f>
+        <v>45664</v>
+      </c>
       <c r="B150" s="5"/>
       <c r="C150" s="13"/>
       <c r="D150" s="5"/>
@@ -3178,7 +3521,10 @@
       <c r="L150" s="5"/>
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A151" s="37"/>
+      <c r="A151" s="30">
+        <f t="shared" si="6"/>
+        <v>45664</v>
+      </c>
       <c r="B151" s="5"/>
       <c r="C151" s="13"/>
       <c r="D151" s="5"/>
@@ -3192,7 +3538,10 @@
       <c r="L151" s="5"/>
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A152" s="37"/>
+      <c r="A152" s="30">
+        <f t="shared" si="6"/>
+        <v>45664</v>
+      </c>
       <c r="B152" s="5"/>
       <c r="C152" s="13"/>
       <c r="D152" s="5"/>
@@ -3206,7 +3555,10 @@
       <c r="L152" s="5"/>
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A153" s="37"/>
+      <c r="A153" s="30">
+        <f t="shared" si="6"/>
+        <v>45664</v>
+      </c>
       <c r="B153" s="5"/>
       <c r="C153" s="13"/>
       <c r="D153" s="5"/>
@@ -3220,7 +3572,10 @@
       <c r="L153" s="5"/>
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A154" s="37"/>
+      <c r="A154" s="30">
+        <f t="shared" si="6"/>
+        <v>45664</v>
+      </c>
       <c r="B154" s="5"/>
       <c r="C154" s="13"/>
       <c r="D154" s="5"/>
@@ -3234,7 +3589,10 @@
       <c r="L154" s="5"/>
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A155" s="37"/>
+      <c r="A155" s="30">
+        <f t="shared" si="6"/>
+        <v>45664</v>
+      </c>
       <c r="B155" s="5"/>
       <c r="C155" s="13"/>
       <c r="D155" s="5"/>
@@ -3248,7 +3606,10 @@
       <c r="L155" s="5"/>
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A156" s="37"/>
+      <c r="A156" s="30">
+        <f t="shared" si="6"/>
+        <v>45664</v>
+      </c>
       <c r="B156" s="5"/>
       <c r="C156" s="13"/>
       <c r="D156" s="5"/>
@@ -3262,7 +3623,10 @@
       <c r="L156" s="5"/>
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A157" s="37"/>
+      <c r="A157" s="30">
+        <f t="shared" si="6"/>
+        <v>45664</v>
+      </c>
       <c r="B157" s="5"/>
       <c r="C157" s="13"/>
       <c r="D157" s="5"/>
@@ -3276,7 +3640,10 @@
       <c r="L157" s="5"/>
     </row>
     <row r="158" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A158" s="37"/>
+      <c r="A158" s="30">
+        <f t="shared" si="6"/>
+        <v>45664</v>
+      </c>
       <c r="B158" s="5"/>
       <c r="C158" s="13"/>
       <c r="D158" s="5"/>
@@ -3290,7 +3657,10 @@
       <c r="L158" s="5"/>
     </row>
     <row r="159" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A159" s="37"/>
+      <c r="A159" s="30">
+        <f t="shared" si="6"/>
+        <v>45664</v>
+      </c>
       <c r="B159" s="5"/>
       <c r="C159" s="13"/>
       <c r="D159" s="5"/>
@@ -3304,7 +3674,10 @@
       <c r="L159" s="5"/>
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A160" s="37"/>
+      <c r="A160" s="30">
+        <f t="shared" si="6"/>
+        <v>45664</v>
+      </c>
       <c r="B160" s="5"/>
       <c r="C160" s="13"/>
       <c r="D160" s="5"/>
@@ -3318,7 +3691,10 @@
       <c r="L160" s="5"/>
     </row>
     <row r="161" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A161" s="37"/>
+      <c r="A161" s="30">
+        <f t="shared" si="6"/>
+        <v>45664</v>
+      </c>
       <c r="B161" s="5"/>
       <c r="C161" s="13"/>
       <c r="D161" s="5"/>
@@ -3332,7 +3708,10 @@
       <c r="L161" s="5"/>
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A162" s="37"/>
+      <c r="A162" s="30">
+        <f t="shared" si="6"/>
+        <v>45664</v>
+      </c>
       <c r="B162" s="5"/>
       <c r="C162" s="13"/>
       <c r="D162" s="5"/>
@@ -3346,7 +3725,10 @@
       <c r="L162" s="5"/>
     </row>
     <row r="163" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A163" s="37"/>
+      <c r="A163" s="30">
+        <f t="shared" si="6"/>
+        <v>45664</v>
+      </c>
       <c r="B163" s="5"/>
       <c r="C163" s="13"/>
       <c r="D163" s="5"/>
@@ -3360,7 +3742,10 @@
       <c r="L163" s="5"/>
     </row>
     <row r="164" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A164" s="37"/>
+      <c r="A164" s="30">
+        <f t="shared" si="6"/>
+        <v>45664</v>
+      </c>
       <c r="B164" s="5"/>
       <c r="C164" s="13"/>
       <c r="D164" s="5"/>
@@ -3374,7 +3759,10 @@
       <c r="L164" s="5"/>
     </row>
     <row r="165" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A165" s="37"/>
+      <c r="A165" s="30">
+        <f t="shared" si="6"/>
+        <v>45664</v>
+      </c>
       <c r="B165" s="5"/>
       <c r="C165" s="13"/>
       <c r="D165" s="5"/>
@@ -3388,7 +3776,10 @@
       <c r="L165" s="5"/>
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A166" s="37"/>
+      <c r="A166" s="30">
+        <f t="shared" si="6"/>
+        <v>45664</v>
+      </c>
       <c r="B166" s="5"/>
       <c r="C166" s="13"/>
       <c r="D166" s="5"/>
@@ -3402,7 +3793,10 @@
       <c r="L166" s="5"/>
     </row>
     <row r="167" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A167" s="37"/>
+      <c r="A167" s="30">
+        <f t="shared" si="6"/>
+        <v>45664</v>
+      </c>
       <c r="B167" s="5"/>
       <c r="C167" s="13"/>
       <c r="D167" s="5"/>
@@ -3416,7 +3810,10 @@
       <c r="L167" s="5"/>
     </row>
     <row r="168" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A168" s="37"/>
+      <c r="A168" s="30">
+        <f t="shared" si="6"/>
+        <v>45664</v>
+      </c>
       <c r="B168" s="5"/>
       <c r="C168" s="13"/>
       <c r="D168" s="5"/>
@@ -3467,24 +3864,24 @@
     <row r="171" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A171" s="17" t="str">
         <f>UPPER(TEXT(A173,"DDDD"))</f>
-        <v>SÁBADO</v>
-      </c>
-      <c r="B171" s="29" t="s">
+        <v>MIÉRCOLES</v>
+      </c>
+      <c r="B171" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="C171" s="30"/>
-      <c r="D171" s="31"/>
-      <c r="H171" s="32" t="s">
+      <c r="C171" s="36"/>
+      <c r="D171" s="37"/>
+      <c r="H171" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="I171" s="33"/>
+      <c r="I171" s="32"/>
       <c r="J171" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="K171" s="34" t="s">
+      <c r="K171" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="L171" s="34" t="s">
+      <c r="L171" s="33" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3519,11 +3916,14 @@
       <c r="J172" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="K172" s="35"/>
-      <c r="L172" s="35"/>
+      <c r="K172" s="34"/>
+      <c r="L172" s="34"/>
     </row>
     <row r="173" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A173" s="37"/>
+      <c r="A173" s="30">
+        <f>A149+1</f>
+        <v>45665</v>
+      </c>
       <c r="B173" s="19"/>
       <c r="C173" s="18"/>
       <c r="D173" s="19"/>
@@ -3537,7 +3937,10 @@
       <c r="L173" s="19"/>
     </row>
     <row r="174" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A174" s="37"/>
+      <c r="A174" s="30">
+        <f>A173</f>
+        <v>45665</v>
+      </c>
       <c r="B174" s="5"/>
       <c r="C174" s="13"/>
       <c r="D174" s="5"/>
@@ -3551,7 +3954,10 @@
       <c r="L174" s="5"/>
     </row>
     <row r="175" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A175" s="37"/>
+      <c r="A175" s="30">
+        <f t="shared" ref="A175:A192" si="7">A174</f>
+        <v>45665</v>
+      </c>
       <c r="B175" s="5"/>
       <c r="C175" s="13"/>
       <c r="D175" s="5"/>
@@ -3565,7 +3971,10 @@
       <c r="L175" s="5"/>
     </row>
     <row r="176" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A176" s="37"/>
+      <c r="A176" s="30">
+        <f t="shared" si="7"/>
+        <v>45665</v>
+      </c>
       <c r="B176" s="5"/>
       <c r="C176" s="13"/>
       <c r="D176" s="5"/>
@@ -3579,7 +3988,10 @@
       <c r="L176" s="5"/>
     </row>
     <row r="177" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A177" s="37"/>
+      <c r="A177" s="30">
+        <f t="shared" si="7"/>
+        <v>45665</v>
+      </c>
       <c r="B177" s="5"/>
       <c r="C177" s="13"/>
       <c r="D177" s="5"/>
@@ -3593,7 +4005,10 @@
       <c r="L177" s="5"/>
     </row>
     <row r="178" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A178" s="37"/>
+      <c r="A178" s="30">
+        <f t="shared" si="7"/>
+        <v>45665</v>
+      </c>
       <c r="B178" s="5"/>
       <c r="C178" s="13"/>
       <c r="D178" s="5"/>
@@ -3607,7 +4022,10 @@
       <c r="L178" s="5"/>
     </row>
     <row r="179" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A179" s="37"/>
+      <c r="A179" s="30">
+        <f t="shared" si="7"/>
+        <v>45665</v>
+      </c>
       <c r="B179" s="5"/>
       <c r="C179" s="13"/>
       <c r="D179" s="5"/>
@@ -3621,7 +4039,10 @@
       <c r="L179" s="5"/>
     </row>
     <row r="180" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A180" s="37"/>
+      <c r="A180" s="30">
+        <f t="shared" si="7"/>
+        <v>45665</v>
+      </c>
       <c r="B180" s="5"/>
       <c r="C180" s="13"/>
       <c r="D180" s="5"/>
@@ -3635,7 +4056,10 @@
       <c r="L180" s="5"/>
     </row>
     <row r="181" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A181" s="37"/>
+      <c r="A181" s="30">
+        <f t="shared" si="7"/>
+        <v>45665</v>
+      </c>
       <c r="B181" s="5"/>
       <c r="C181" s="13"/>
       <c r="D181" s="5"/>
@@ -3649,7 +4073,10 @@
       <c r="L181" s="5"/>
     </row>
     <row r="182" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A182" s="37"/>
+      <c r="A182" s="30">
+        <f t="shared" si="7"/>
+        <v>45665</v>
+      </c>
       <c r="B182" s="5"/>
       <c r="C182" s="13"/>
       <c r="D182" s="5"/>
@@ -3663,7 +4090,10 @@
       <c r="L182" s="5"/>
     </row>
     <row r="183" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A183" s="37"/>
+      <c r="A183" s="30">
+        <f t="shared" si="7"/>
+        <v>45665</v>
+      </c>
       <c r="B183" s="5"/>
       <c r="C183" s="13"/>
       <c r="D183" s="5"/>
@@ -3677,7 +4107,10 @@
       <c r="L183" s="5"/>
     </row>
     <row r="184" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A184" s="37"/>
+      <c r="A184" s="30">
+        <f t="shared" si="7"/>
+        <v>45665</v>
+      </c>
       <c r="B184" s="5"/>
       <c r="C184" s="13"/>
       <c r="D184" s="5"/>
@@ -3691,7 +4124,10 @@
       <c r="L184" s="5"/>
     </row>
     <row r="185" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A185" s="37"/>
+      <c r="A185" s="30">
+        <f t="shared" si="7"/>
+        <v>45665</v>
+      </c>
       <c r="B185" s="5"/>
       <c r="C185" s="13"/>
       <c r="D185" s="5"/>
@@ -3705,7 +4141,10 @@
       <c r="L185" s="5"/>
     </row>
     <row r="186" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A186" s="37"/>
+      <c r="A186" s="30">
+        <f t="shared" si="7"/>
+        <v>45665</v>
+      </c>
       <c r="B186" s="5"/>
       <c r="C186" s="13"/>
       <c r="D186" s="5"/>
@@ -3719,7 +4158,10 @@
       <c r="L186" s="5"/>
     </row>
     <row r="187" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A187" s="37"/>
+      <c r="A187" s="30">
+        <f t="shared" si="7"/>
+        <v>45665</v>
+      </c>
       <c r="B187" s="5"/>
       <c r="C187" s="13"/>
       <c r="D187" s="5"/>
@@ -3733,7 +4175,10 @@
       <c r="L187" s="5"/>
     </row>
     <row r="188" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A188" s="37"/>
+      <c r="A188" s="30">
+        <f t="shared" si="7"/>
+        <v>45665</v>
+      </c>
       <c r="B188" s="5"/>
       <c r="C188" s="13"/>
       <c r="D188" s="5"/>
@@ -3747,7 +4192,10 @@
       <c r="L188" s="5"/>
     </row>
     <row r="189" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A189" s="37"/>
+      <c r="A189" s="30">
+        <f t="shared" si="7"/>
+        <v>45665</v>
+      </c>
       <c r="B189" s="5"/>
       <c r="C189" s="13"/>
       <c r="D189" s="5"/>
@@ -3761,7 +4209,10 @@
       <c r="L189" s="5"/>
     </row>
     <row r="190" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A190" s="37"/>
+      <c r="A190" s="30">
+        <f t="shared" si="7"/>
+        <v>45665</v>
+      </c>
       <c r="B190" s="5"/>
       <c r="C190" s="13"/>
       <c r="D190" s="5"/>
@@ -3775,7 +4226,10 @@
       <c r="L190" s="5"/>
     </row>
     <row r="191" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A191" s="37"/>
+      <c r="A191" s="30">
+        <f t="shared" si="7"/>
+        <v>45665</v>
+      </c>
       <c r="B191" s="5"/>
       <c r="C191" s="13"/>
       <c r="D191" s="5"/>
@@ -3789,7 +4243,10 @@
       <c r="L191" s="5"/>
     </row>
     <row r="192" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A192" s="37"/>
+      <c r="A192" s="30">
+        <f t="shared" si="7"/>
+        <v>45665</v>
+      </c>
       <c r="B192" s="5"/>
       <c r="C192" s="13"/>
       <c r="D192" s="5"/>
@@ -3840,24 +4297,24 @@
     <row r="195" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A195" s="17" t="str">
         <f>UPPER(TEXT(A197,"DDDD"))</f>
-        <v>SÁBADO</v>
-      </c>
-      <c r="B195" s="29" t="s">
+        <v>JUEVES</v>
+      </c>
+      <c r="B195" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="C195" s="30"/>
-      <c r="D195" s="31"/>
-      <c r="H195" s="32" t="s">
+      <c r="C195" s="36"/>
+      <c r="D195" s="37"/>
+      <c r="H195" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="I195" s="33"/>
+      <c r="I195" s="32"/>
       <c r="J195" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="K195" s="34" t="s">
+      <c r="K195" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="L195" s="34" t="s">
+      <c r="L195" s="33" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3892,11 +4349,14 @@
       <c r="J196" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="K196" s="35"/>
-      <c r="L196" s="35"/>
+      <c r="K196" s="34"/>
+      <c r="L196" s="34"/>
     </row>
     <row r="197" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A197" s="37"/>
+      <c r="A197" s="30">
+        <f>A173+1</f>
+        <v>45666</v>
+      </c>
       <c r="B197" s="19"/>
       <c r="C197" s="18"/>
       <c r="D197" s="19"/>
@@ -3910,7 +4370,10 @@
       <c r="L197" s="19"/>
     </row>
     <row r="198" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A198" s="37"/>
+      <c r="A198" s="30">
+        <f>A197</f>
+        <v>45666</v>
+      </c>
       <c r="B198" s="5"/>
       <c r="C198" s="13"/>
       <c r="D198" s="5"/>
@@ -3924,7 +4387,10 @@
       <c r="L198" s="5"/>
     </row>
     <row r="199" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A199" s="37"/>
+      <c r="A199" s="30">
+        <f t="shared" ref="A199:A216" si="8">A198</f>
+        <v>45666</v>
+      </c>
       <c r="B199" s="5"/>
       <c r="C199" s="13"/>
       <c r="D199" s="5"/>
@@ -3938,7 +4404,10 @@
       <c r="L199" s="5"/>
     </row>
     <row r="200" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A200" s="37"/>
+      <c r="A200" s="30">
+        <f t="shared" si="8"/>
+        <v>45666</v>
+      </c>
       <c r="B200" s="5"/>
       <c r="C200" s="13"/>
       <c r="D200" s="5"/>
@@ -3952,7 +4421,10 @@
       <c r="L200" s="5"/>
     </row>
     <row r="201" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A201" s="37"/>
+      <c r="A201" s="30">
+        <f t="shared" si="8"/>
+        <v>45666</v>
+      </c>
       <c r="B201" s="5"/>
       <c r="C201" s="13"/>
       <c r="D201" s="5"/>
@@ -3966,7 +4438,10 @@
       <c r="L201" s="5"/>
     </row>
     <row r="202" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A202" s="37"/>
+      <c r="A202" s="30">
+        <f t="shared" si="8"/>
+        <v>45666</v>
+      </c>
       <c r="B202" s="5"/>
       <c r="C202" s="13"/>
       <c r="D202" s="5"/>
@@ -3980,7 +4455,10 @@
       <c r="L202" s="5"/>
     </row>
     <row r="203" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A203" s="37"/>
+      <c r="A203" s="30">
+        <f t="shared" si="8"/>
+        <v>45666</v>
+      </c>
       <c r="B203" s="5"/>
       <c r="C203" s="13"/>
       <c r="D203" s="5"/>
@@ -3994,7 +4472,10 @@
       <c r="L203" s="5"/>
     </row>
     <row r="204" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A204" s="37"/>
+      <c r="A204" s="30">
+        <f t="shared" si="8"/>
+        <v>45666</v>
+      </c>
       <c r="B204" s="5"/>
       <c r="C204" s="13"/>
       <c r="D204" s="5"/>
@@ -4008,7 +4489,10 @@
       <c r="L204" s="5"/>
     </row>
     <row r="205" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A205" s="37"/>
+      <c r="A205" s="30">
+        <f t="shared" si="8"/>
+        <v>45666</v>
+      </c>
       <c r="B205" s="5"/>
       <c r="C205" s="13"/>
       <c r="D205" s="5"/>
@@ -4022,7 +4506,10 @@
       <c r="L205" s="5"/>
     </row>
     <row r="206" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A206" s="37"/>
+      <c r="A206" s="30">
+        <f t="shared" si="8"/>
+        <v>45666</v>
+      </c>
       <c r="B206" s="5"/>
       <c r="C206" s="13"/>
       <c r="D206" s="5"/>
@@ -4036,7 +4523,10 @@
       <c r="L206" s="5"/>
     </row>
     <row r="207" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A207" s="37"/>
+      <c r="A207" s="30">
+        <f t="shared" si="8"/>
+        <v>45666</v>
+      </c>
       <c r="B207" s="5"/>
       <c r="C207" s="13"/>
       <c r="D207" s="5"/>
@@ -4050,7 +4540,10 @@
       <c r="L207" s="5"/>
     </row>
     <row r="208" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A208" s="37"/>
+      <c r="A208" s="30">
+        <f t="shared" si="8"/>
+        <v>45666</v>
+      </c>
       <c r="B208" s="5"/>
       <c r="C208" s="13"/>
       <c r="D208" s="5"/>
@@ -4064,7 +4557,10 @@
       <c r="L208" s="5"/>
     </row>
     <row r="209" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A209" s="37"/>
+      <c r="A209" s="30">
+        <f t="shared" si="8"/>
+        <v>45666</v>
+      </c>
       <c r="B209" s="5"/>
       <c r="C209" s="13"/>
       <c r="D209" s="5"/>
@@ -4078,7 +4574,10 @@
       <c r="L209" s="5"/>
     </row>
     <row r="210" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A210" s="37"/>
+      <c r="A210" s="30">
+        <f t="shared" si="8"/>
+        <v>45666</v>
+      </c>
       <c r="B210" s="5"/>
       <c r="C210" s="13"/>
       <c r="D210" s="5"/>
@@ -4092,7 +4591,10 @@
       <c r="L210" s="5"/>
     </row>
     <row r="211" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A211" s="37"/>
+      <c r="A211" s="30">
+        <f t="shared" si="8"/>
+        <v>45666</v>
+      </c>
       <c r="B211" s="5"/>
       <c r="C211" s="13"/>
       <c r="D211" s="5"/>
@@ -4106,7 +4608,10 @@
       <c r="L211" s="5"/>
     </row>
     <row r="212" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A212" s="37"/>
+      <c r="A212" s="30">
+        <f t="shared" si="8"/>
+        <v>45666</v>
+      </c>
       <c r="B212" s="5"/>
       <c r="C212" s="13"/>
       <c r="D212" s="5"/>
@@ -4120,7 +4625,10 @@
       <c r="L212" s="5"/>
     </row>
     <row r="213" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A213" s="37"/>
+      <c r="A213" s="30">
+        <f t="shared" si="8"/>
+        <v>45666</v>
+      </c>
       <c r="B213" s="5"/>
       <c r="C213" s="13"/>
       <c r="D213" s="5"/>
@@ -4134,7 +4642,10 @@
       <c r="L213" s="5"/>
     </row>
     <row r="214" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A214" s="37"/>
+      <c r="A214" s="30">
+        <f t="shared" si="8"/>
+        <v>45666</v>
+      </c>
       <c r="B214" s="5"/>
       <c r="C214" s="13"/>
       <c r="D214" s="5"/>
@@ -4148,7 +4659,10 @@
       <c r="L214" s="5"/>
     </row>
     <row r="215" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A215" s="37"/>
+      <c r="A215" s="30">
+        <f t="shared" si="8"/>
+        <v>45666</v>
+      </c>
       <c r="B215" s="5"/>
       <c r="C215" s="13"/>
       <c r="D215" s="5"/>
@@ -4162,7 +4676,10 @@
       <c r="L215" s="5"/>
     </row>
     <row r="216" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A216" s="37"/>
+      <c r="A216" s="30">
+        <f t="shared" si="8"/>
+        <v>45666</v>
+      </c>
       <c r="B216" s="5"/>
       <c r="C216" s="13"/>
       <c r="D216" s="5"/>
@@ -4213,24 +4730,24 @@
     <row r="219" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A219" s="17" t="str">
         <f>UPPER(TEXT(A221,"DDDD"))</f>
-        <v>SÁBADO</v>
-      </c>
-      <c r="B219" s="29" t="s">
+        <v>VIERNES</v>
+      </c>
+      <c r="B219" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="C219" s="30"/>
-      <c r="D219" s="31"/>
-      <c r="H219" s="32" t="s">
+      <c r="C219" s="36"/>
+      <c r="D219" s="37"/>
+      <c r="H219" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="I219" s="33"/>
+      <c r="I219" s="32"/>
       <c r="J219" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="K219" s="34" t="s">
+      <c r="K219" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="L219" s="34" t="s">
+      <c r="L219" s="33" t="s">
         <v>9</v>
       </c>
     </row>
@@ -4265,11 +4782,14 @@
       <c r="J220" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="K220" s="35"/>
-      <c r="L220" s="35"/>
+      <c r="K220" s="34"/>
+      <c r="L220" s="34"/>
     </row>
     <row r="221" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A221" s="37"/>
+      <c r="A221" s="30">
+        <f>A197+1</f>
+        <v>45667</v>
+      </c>
       <c r="B221" s="19"/>
       <c r="C221" s="18"/>
       <c r="D221" s="19"/>
@@ -4283,7 +4803,10 @@
       <c r="L221" s="19"/>
     </row>
     <row r="222" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A222" s="37"/>
+      <c r="A222" s="30">
+        <f>A221</f>
+        <v>45667</v>
+      </c>
       <c r="B222" s="5"/>
       <c r="C222" s="13"/>
       <c r="D222" s="5"/>
@@ -4297,7 +4820,10 @@
       <c r="L222" s="5"/>
     </row>
     <row r="223" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A223" s="37"/>
+      <c r="A223" s="30">
+        <f t="shared" ref="A223:A240" si="9">A222</f>
+        <v>45667</v>
+      </c>
       <c r="B223" s="5"/>
       <c r="C223" s="13"/>
       <c r="D223" s="5"/>
@@ -4311,7 +4837,10 @@
       <c r="L223" s="5"/>
     </row>
     <row r="224" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A224" s="37"/>
+      <c r="A224" s="30">
+        <f t="shared" si="9"/>
+        <v>45667</v>
+      </c>
       <c r="B224" s="5"/>
       <c r="C224" s="13"/>
       <c r="D224" s="5"/>
@@ -4325,7 +4854,10 @@
       <c r="L224" s="5"/>
     </row>
     <row r="225" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A225" s="37"/>
+      <c r="A225" s="30">
+        <f t="shared" si="9"/>
+        <v>45667</v>
+      </c>
       <c r="B225" s="5"/>
       <c r="C225" s="13"/>
       <c r="D225" s="5"/>
@@ -4339,7 +4871,10 @@
       <c r="L225" s="5"/>
     </row>
     <row r="226" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A226" s="37"/>
+      <c r="A226" s="30">
+        <f t="shared" si="9"/>
+        <v>45667</v>
+      </c>
       <c r="B226" s="5"/>
       <c r="C226" s="13"/>
       <c r="D226" s="5"/>
@@ -4353,7 +4888,10 @@
       <c r="L226" s="5"/>
     </row>
     <row r="227" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A227" s="37"/>
+      <c r="A227" s="30">
+        <f t="shared" si="9"/>
+        <v>45667</v>
+      </c>
       <c r="B227" s="5"/>
       <c r="C227" s="13"/>
       <c r="D227" s="5"/>
@@ -4367,7 +4905,10 @@
       <c r="L227" s="5"/>
     </row>
     <row r="228" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A228" s="37"/>
+      <c r="A228" s="30">
+        <f t="shared" si="9"/>
+        <v>45667</v>
+      </c>
       <c r="B228" s="5"/>
       <c r="C228" s="13"/>
       <c r="D228" s="5"/>
@@ -4381,7 +4922,10 @@
       <c r="L228" s="5"/>
     </row>
     <row r="229" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A229" s="37"/>
+      <c r="A229" s="30">
+        <f t="shared" si="9"/>
+        <v>45667</v>
+      </c>
       <c r="B229" s="5"/>
       <c r="C229" s="13"/>
       <c r="D229" s="5"/>
@@ -4395,7 +4939,10 @@
       <c r="L229" s="5"/>
     </row>
     <row r="230" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A230" s="37"/>
+      <c r="A230" s="30">
+        <f t="shared" si="9"/>
+        <v>45667</v>
+      </c>
       <c r="B230" s="5"/>
       <c r="C230" s="13"/>
       <c r="D230" s="5"/>
@@ -4409,7 +4956,10 @@
       <c r="L230" s="5"/>
     </row>
     <row r="231" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A231" s="37"/>
+      <c r="A231" s="30">
+        <f t="shared" si="9"/>
+        <v>45667</v>
+      </c>
       <c r="B231" s="5"/>
       <c r="C231" s="13"/>
       <c r="D231" s="5"/>
@@ -4423,7 +4973,10 @@
       <c r="L231" s="5"/>
     </row>
     <row r="232" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A232" s="37"/>
+      <c r="A232" s="30">
+        <f t="shared" si="9"/>
+        <v>45667</v>
+      </c>
       <c r="B232" s="5"/>
       <c r="C232" s="13"/>
       <c r="D232" s="5"/>
@@ -4437,7 +4990,10 @@
       <c r="L232" s="5"/>
     </row>
     <row r="233" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A233" s="37"/>
+      <c r="A233" s="30">
+        <f t="shared" si="9"/>
+        <v>45667</v>
+      </c>
       <c r="B233" s="5"/>
       <c r="C233" s="13"/>
       <c r="D233" s="5"/>
@@ -4451,7 +5007,10 @@
       <c r="L233" s="5"/>
     </row>
     <row r="234" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A234" s="37"/>
+      <c r="A234" s="30">
+        <f t="shared" si="9"/>
+        <v>45667</v>
+      </c>
       <c r="B234" s="5"/>
       <c r="C234" s="13"/>
       <c r="D234" s="5"/>
@@ -4465,7 +5024,10 @@
       <c r="L234" s="5"/>
     </row>
     <row r="235" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A235" s="37"/>
+      <c r="A235" s="30">
+        <f t="shared" si="9"/>
+        <v>45667</v>
+      </c>
       <c r="B235" s="5"/>
       <c r="C235" s="13"/>
       <c r="D235" s="5"/>
@@ -4479,7 +5041,10 @@
       <c r="L235" s="5"/>
     </row>
     <row r="236" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A236" s="37"/>
+      <c r="A236" s="30">
+        <f t="shared" si="9"/>
+        <v>45667</v>
+      </c>
       <c r="B236" s="5"/>
       <c r="C236" s="13"/>
       <c r="D236" s="5"/>
@@ -4493,7 +5058,10 @@
       <c r="L236" s="5"/>
     </row>
     <row r="237" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A237" s="37"/>
+      <c r="A237" s="30">
+        <f t="shared" si="9"/>
+        <v>45667</v>
+      </c>
       <c r="B237" s="5"/>
       <c r="C237" s="13"/>
       <c r="D237" s="5"/>
@@ -4507,7 +5075,10 @@
       <c r="L237" s="5"/>
     </row>
     <row r="238" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A238" s="37"/>
+      <c r="A238" s="30">
+        <f t="shared" si="9"/>
+        <v>45667</v>
+      </c>
       <c r="B238" s="5"/>
       <c r="C238" s="13"/>
       <c r="D238" s="5"/>
@@ -4521,7 +5092,10 @@
       <c r="L238" s="5"/>
     </row>
     <row r="239" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A239" s="37"/>
+      <c r="A239" s="30">
+        <f t="shared" si="9"/>
+        <v>45667</v>
+      </c>
       <c r="B239" s="5"/>
       <c r="C239" s="13"/>
       <c r="D239" s="5"/>
@@ -4535,7 +5109,10 @@
       <c r="L239" s="5"/>
     </row>
     <row r="240" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A240" s="37"/>
+      <c r="A240" s="30">
+        <f t="shared" si="9"/>
+        <v>45667</v>
+      </c>
       <c r="B240" s="5"/>
       <c r="C240" s="13"/>
       <c r="D240" s="5"/>
@@ -4588,22 +5165,22 @@
         <f>UPPER(TEXT(A245,"DDDD"))</f>
         <v>SÁBADO</v>
       </c>
-      <c r="B243" s="29" t="s">
+      <c r="B243" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="C243" s="30"/>
-      <c r="D243" s="31"/>
-      <c r="H243" s="32" t="s">
+      <c r="C243" s="36"/>
+      <c r="D243" s="37"/>
+      <c r="H243" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="I243" s="33"/>
+      <c r="I243" s="32"/>
       <c r="J243" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="K243" s="34" t="s">
+      <c r="K243" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="L243" s="34" t="s">
+      <c r="L243" s="33" t="s">
         <v>9</v>
       </c>
     </row>
@@ -4638,11 +5215,14 @@
       <c r="J244" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="K244" s="35"/>
-      <c r="L244" s="35"/>
+      <c r="K244" s="34"/>
+      <c r="L244" s="34"/>
     </row>
     <row r="245" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A245" s="37"/>
+      <c r="A245" s="30">
+        <f>A221+1</f>
+        <v>45668</v>
+      </c>
       <c r="B245" s="19"/>
       <c r="C245" s="18"/>
       <c r="D245" s="19"/>
@@ -4656,7 +5236,10 @@
       <c r="L245" s="19"/>
     </row>
     <row r="246" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A246" s="37"/>
+      <c r="A246" s="30">
+        <f>A245</f>
+        <v>45668</v>
+      </c>
       <c r="B246" s="5"/>
       <c r="C246" s="13"/>
       <c r="D246" s="5"/>
@@ -4670,7 +5253,10 @@
       <c r="L246" s="5"/>
     </row>
     <row r="247" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A247" s="37"/>
+      <c r="A247" s="30">
+        <f t="shared" ref="A247:A264" si="10">A246</f>
+        <v>45668</v>
+      </c>
       <c r="B247" s="5"/>
       <c r="C247" s="13"/>
       <c r="D247" s="5"/>
@@ -4684,7 +5270,10 @@
       <c r="L247" s="5"/>
     </row>
     <row r="248" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A248" s="37"/>
+      <c r="A248" s="30">
+        <f t="shared" si="10"/>
+        <v>45668</v>
+      </c>
       <c r="B248" s="5"/>
       <c r="C248" s="13"/>
       <c r="D248" s="5"/>
@@ -4698,7 +5287,10 @@
       <c r="L248" s="5"/>
     </row>
     <row r="249" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A249" s="37"/>
+      <c r="A249" s="30">
+        <f t="shared" si="10"/>
+        <v>45668</v>
+      </c>
       <c r="B249" s="5"/>
       <c r="C249" s="13"/>
       <c r="D249" s="5"/>
@@ -4712,7 +5304,10 @@
       <c r="L249" s="5"/>
     </row>
     <row r="250" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A250" s="37"/>
+      <c r="A250" s="30">
+        <f t="shared" si="10"/>
+        <v>45668</v>
+      </c>
       <c r="B250" s="5"/>
       <c r="C250" s="13"/>
       <c r="D250" s="5"/>
@@ -4726,7 +5321,10 @@
       <c r="L250" s="5"/>
     </row>
     <row r="251" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A251" s="37"/>
+      <c r="A251" s="30">
+        <f t="shared" si="10"/>
+        <v>45668</v>
+      </c>
       <c r="B251" s="5"/>
       <c r="C251" s="13"/>
       <c r="D251" s="5"/>
@@ -4740,7 +5338,10 @@
       <c r="L251" s="5"/>
     </row>
     <row r="252" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A252" s="37"/>
+      <c r="A252" s="30">
+        <f t="shared" si="10"/>
+        <v>45668</v>
+      </c>
       <c r="B252" s="5"/>
       <c r="C252" s="13"/>
       <c r="D252" s="5"/>
@@ -4754,7 +5355,10 @@
       <c r="L252" s="5"/>
     </row>
     <row r="253" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A253" s="37"/>
+      <c r="A253" s="30">
+        <f t="shared" si="10"/>
+        <v>45668</v>
+      </c>
       <c r="B253" s="5"/>
       <c r="C253" s="13"/>
       <c r="D253" s="5"/>
@@ -4768,7 +5372,10 @@
       <c r="L253" s="5"/>
     </row>
     <row r="254" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A254" s="37"/>
+      <c r="A254" s="30">
+        <f t="shared" si="10"/>
+        <v>45668</v>
+      </c>
       <c r="B254" s="5"/>
       <c r="C254" s="13"/>
       <c r="D254" s="5"/>
@@ -4782,7 +5389,10 @@
       <c r="L254" s="5"/>
     </row>
     <row r="255" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A255" s="37"/>
+      <c r="A255" s="30">
+        <f t="shared" si="10"/>
+        <v>45668</v>
+      </c>
       <c r="B255" s="5"/>
       <c r="C255" s="13"/>
       <c r="D255" s="5"/>
@@ -4796,7 +5406,10 @@
       <c r="L255" s="5"/>
     </row>
     <row r="256" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A256" s="37"/>
+      <c r="A256" s="30">
+        <f t="shared" si="10"/>
+        <v>45668</v>
+      </c>
       <c r="B256" s="5"/>
       <c r="C256" s="13"/>
       <c r="D256" s="5"/>
@@ -4810,7 +5423,10 @@
       <c r="L256" s="5"/>
     </row>
     <row r="257" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A257" s="37"/>
+      <c r="A257" s="30">
+        <f t="shared" si="10"/>
+        <v>45668</v>
+      </c>
       <c r="B257" s="5"/>
       <c r="C257" s="13"/>
       <c r="D257" s="5"/>
@@ -4824,7 +5440,10 @@
       <c r="L257" s="5"/>
     </row>
     <row r="258" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A258" s="37"/>
+      <c r="A258" s="30">
+        <f t="shared" si="10"/>
+        <v>45668</v>
+      </c>
       <c r="B258" s="5"/>
       <c r="C258" s="13"/>
       <c r="D258" s="5"/>
@@ -4838,7 +5457,10 @@
       <c r="L258" s="5"/>
     </row>
     <row r="259" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A259" s="37"/>
+      <c r="A259" s="30">
+        <f t="shared" si="10"/>
+        <v>45668</v>
+      </c>
       <c r="B259" s="5"/>
       <c r="C259" s="13"/>
       <c r="D259" s="5"/>
@@ -4852,7 +5474,10 @@
       <c r="L259" s="5"/>
     </row>
     <row r="260" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A260" s="37"/>
+      <c r="A260" s="30">
+        <f t="shared" si="10"/>
+        <v>45668</v>
+      </c>
       <c r="B260" s="5"/>
       <c r="C260" s="13"/>
       <c r="D260" s="5"/>
@@ -4866,7 +5491,10 @@
       <c r="L260" s="5"/>
     </row>
     <row r="261" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A261" s="37"/>
+      <c r="A261" s="30">
+        <f t="shared" si="10"/>
+        <v>45668</v>
+      </c>
       <c r="B261" s="5"/>
       <c r="C261" s="13"/>
       <c r="D261" s="5"/>
@@ -4880,7 +5508,10 @@
       <c r="L261" s="5"/>
     </row>
     <row r="262" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A262" s="37"/>
+      <c r="A262" s="30">
+        <f t="shared" si="10"/>
+        <v>45668</v>
+      </c>
       <c r="B262" s="5"/>
       <c r="C262" s="13"/>
       <c r="D262" s="5"/>
@@ -4894,7 +5525,10 @@
       <c r="L262" s="5"/>
     </row>
     <row r="263" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A263" s="37"/>
+      <c r="A263" s="30">
+        <f t="shared" si="10"/>
+        <v>45668</v>
+      </c>
       <c r="B263" s="5"/>
       <c r="C263" s="13"/>
       <c r="D263" s="5"/>
@@ -4908,7 +5542,10 @@
       <c r="L263" s="5"/>
     </row>
     <row r="264" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A264" s="37"/>
+      <c r="A264" s="30">
+        <f t="shared" si="10"/>
+        <v>45668</v>
+      </c>
       <c r="B264" s="5"/>
       <c r="C264" s="13"/>
       <c r="D264" s="5"/>
@@ -4959,24 +5596,24 @@
     <row r="267" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A267" s="17" t="str">
         <f>UPPER(TEXT(A269,"DDDD"))</f>
-        <v>SÁBADO</v>
-      </c>
-      <c r="B267" s="29" t="s">
+        <v>DOMINGO</v>
+      </c>
+      <c r="B267" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="C267" s="30"/>
-      <c r="D267" s="31"/>
-      <c r="H267" s="32" t="s">
+      <c r="C267" s="36"/>
+      <c r="D267" s="37"/>
+      <c r="H267" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="I267" s="33"/>
+      <c r="I267" s="32"/>
       <c r="J267" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="K267" s="34" t="s">
+      <c r="K267" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="L267" s="34" t="s">
+      <c r="L267" s="33" t="s">
         <v>9</v>
       </c>
     </row>
@@ -5011,11 +5648,14 @@
       <c r="J268" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="K268" s="35"/>
-      <c r="L268" s="35"/>
+      <c r="K268" s="34"/>
+      <c r="L268" s="34"/>
     </row>
     <row r="269" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A269" s="37"/>
+      <c r="A269" s="30">
+        <f>A245+1</f>
+        <v>45669</v>
+      </c>
       <c r="B269" s="19"/>
       <c r="C269" s="18"/>
       <c r="D269" s="19"/>
@@ -5029,7 +5669,10 @@
       <c r="L269" s="19"/>
     </row>
     <row r="270" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A270" s="37"/>
+      <c r="A270" s="30">
+        <f>A269</f>
+        <v>45669</v>
+      </c>
       <c r="B270" s="5"/>
       <c r="C270" s="13"/>
       <c r="D270" s="5"/>
@@ -5043,7 +5686,10 @@
       <c r="L270" s="5"/>
     </row>
     <row r="271" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A271" s="37"/>
+      <c r="A271" s="30">
+        <f t="shared" ref="A271:A288" si="11">A270</f>
+        <v>45669</v>
+      </c>
       <c r="B271" s="5"/>
       <c r="C271" s="13"/>
       <c r="D271" s="5"/>
@@ -5057,7 +5703,10 @@
       <c r="L271" s="5"/>
     </row>
     <row r="272" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A272" s="37"/>
+      <c r="A272" s="30">
+        <f t="shared" si="11"/>
+        <v>45669</v>
+      </c>
       <c r="B272" s="5"/>
       <c r="C272" s="13"/>
       <c r="D272" s="5"/>
@@ -5071,7 +5720,10 @@
       <c r="L272" s="5"/>
     </row>
     <row r="273" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A273" s="37"/>
+      <c r="A273" s="30">
+        <f t="shared" si="11"/>
+        <v>45669</v>
+      </c>
       <c r="B273" s="5"/>
       <c r="C273" s="13"/>
       <c r="D273" s="5"/>
@@ -5085,7 +5737,10 @@
       <c r="L273" s="5"/>
     </row>
     <row r="274" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A274" s="37"/>
+      <c r="A274" s="30">
+        <f t="shared" si="11"/>
+        <v>45669</v>
+      </c>
       <c r="B274" s="5"/>
       <c r="C274" s="13"/>
       <c r="D274" s="5"/>
@@ -5099,7 +5754,10 @@
       <c r="L274" s="5"/>
     </row>
     <row r="275" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A275" s="37"/>
+      <c r="A275" s="30">
+        <f t="shared" si="11"/>
+        <v>45669</v>
+      </c>
       <c r="B275" s="5"/>
       <c r="C275" s="13"/>
       <c r="D275" s="5"/>
@@ -5113,7 +5771,10 @@
       <c r="L275" s="5"/>
     </row>
     <row r="276" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A276" s="37"/>
+      <c r="A276" s="30">
+        <f t="shared" si="11"/>
+        <v>45669</v>
+      </c>
       <c r="B276" s="5"/>
       <c r="C276" s="13"/>
       <c r="D276" s="5"/>
@@ -5127,7 +5788,10 @@
       <c r="L276" s="5"/>
     </row>
     <row r="277" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A277" s="37"/>
+      <c r="A277" s="30">
+        <f t="shared" si="11"/>
+        <v>45669</v>
+      </c>
       <c r="B277" s="5"/>
       <c r="C277" s="13"/>
       <c r="D277" s="5"/>
@@ -5141,7 +5805,10 @@
       <c r="L277" s="5"/>
     </row>
     <row r="278" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A278" s="37"/>
+      <c r="A278" s="30">
+        <f t="shared" si="11"/>
+        <v>45669</v>
+      </c>
       <c r="B278" s="5"/>
       <c r="C278" s="13"/>
       <c r="D278" s="5"/>
@@ -5155,7 +5822,10 @@
       <c r="L278" s="5"/>
     </row>
     <row r="279" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A279" s="37"/>
+      <c r="A279" s="30">
+        <f t="shared" si="11"/>
+        <v>45669</v>
+      </c>
       <c r="B279" s="5"/>
       <c r="C279" s="13"/>
       <c r="D279" s="5"/>
@@ -5169,7 +5839,10 @@
       <c r="L279" s="5"/>
     </row>
     <row r="280" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A280" s="37"/>
+      <c r="A280" s="30">
+        <f t="shared" si="11"/>
+        <v>45669</v>
+      </c>
       <c r="B280" s="5"/>
       <c r="C280" s="13"/>
       <c r="D280" s="5"/>
@@ -5183,7 +5856,10 @@
       <c r="L280" s="5"/>
     </row>
     <row r="281" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A281" s="37"/>
+      <c r="A281" s="30">
+        <f t="shared" si="11"/>
+        <v>45669</v>
+      </c>
       <c r="B281" s="5"/>
       <c r="C281" s="13"/>
       <c r="D281" s="5"/>
@@ -5197,7 +5873,10 @@
       <c r="L281" s="5"/>
     </row>
     <row r="282" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A282" s="37"/>
+      <c r="A282" s="30">
+        <f t="shared" si="11"/>
+        <v>45669</v>
+      </c>
       <c r="B282" s="5"/>
       <c r="C282" s="13"/>
       <c r="D282" s="5"/>
@@ -5211,7 +5890,10 @@
       <c r="L282" s="5"/>
     </row>
     <row r="283" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A283" s="37"/>
+      <c r="A283" s="30">
+        <f t="shared" si="11"/>
+        <v>45669</v>
+      </c>
       <c r="B283" s="5"/>
       <c r="C283" s="13"/>
       <c r="D283" s="5"/>
@@ -5225,7 +5907,10 @@
       <c r="L283" s="5"/>
     </row>
     <row r="284" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A284" s="37"/>
+      <c r="A284" s="30">
+        <f t="shared" si="11"/>
+        <v>45669</v>
+      </c>
       <c r="B284" s="5"/>
       <c r="C284" s="13"/>
       <c r="D284" s="5"/>
@@ -5239,7 +5924,10 @@
       <c r="L284" s="5"/>
     </row>
     <row r="285" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A285" s="37"/>
+      <c r="A285" s="30">
+        <f t="shared" si="11"/>
+        <v>45669</v>
+      </c>
       <c r="B285" s="5"/>
       <c r="C285" s="13"/>
       <c r="D285" s="5"/>
@@ -5253,7 +5941,10 @@
       <c r="L285" s="5"/>
     </row>
     <row r="286" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A286" s="37"/>
+      <c r="A286" s="30">
+        <f t="shared" si="11"/>
+        <v>45669</v>
+      </c>
       <c r="B286" s="5"/>
       <c r="C286" s="13"/>
       <c r="D286" s="5"/>
@@ -5267,7 +5958,10 @@
       <c r="L286" s="5"/>
     </row>
     <row r="287" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A287" s="37"/>
+      <c r="A287" s="30">
+        <f t="shared" si="11"/>
+        <v>45669</v>
+      </c>
       <c r="B287" s="5"/>
       <c r="C287" s="13"/>
       <c r="D287" s="5"/>
@@ -5281,7 +5975,10 @@
       <c r="L287" s="5"/>
     </row>
     <row r="288" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A288" s="37"/>
+      <c r="A288" s="30">
+        <f t="shared" si="11"/>
+        <v>45669</v>
+      </c>
       <c r="B288" s="5"/>
       <c r="C288" s="13"/>
       <c r="D288" s="5"/>
@@ -5332,24 +6029,24 @@
     <row r="291" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A291" s="17" t="str">
         <f>UPPER(TEXT(A293,"DDDD"))</f>
-        <v>SÁBADO</v>
-      </c>
-      <c r="B291" s="29" t="s">
+        <v>LUNES</v>
+      </c>
+      <c r="B291" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="C291" s="30"/>
-      <c r="D291" s="31"/>
-      <c r="H291" s="32" t="s">
+      <c r="C291" s="36"/>
+      <c r="D291" s="37"/>
+      <c r="H291" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="I291" s="33"/>
+      <c r="I291" s="32"/>
       <c r="J291" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="K291" s="34" t="s">
+      <c r="K291" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="L291" s="34" t="s">
+      <c r="L291" s="33" t="s">
         <v>9</v>
       </c>
     </row>
@@ -5384,11 +6081,14 @@
       <c r="J292" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="K292" s="35"/>
-      <c r="L292" s="35"/>
+      <c r="K292" s="34"/>
+      <c r="L292" s="34"/>
     </row>
     <row r="293" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A293" s="37"/>
+      <c r="A293" s="30">
+        <f>A269+1</f>
+        <v>45670</v>
+      </c>
       <c r="B293" s="19"/>
       <c r="C293" s="18"/>
       <c r="D293" s="19"/>
@@ -5402,7 +6102,10 @@
       <c r="L293" s="19"/>
     </row>
     <row r="294" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A294" s="37"/>
+      <c r="A294" s="30">
+        <f>A293</f>
+        <v>45670</v>
+      </c>
       <c r="B294" s="5"/>
       <c r="C294" s="13"/>
       <c r="D294" s="5"/>
@@ -5416,7 +6119,10 @@
       <c r="L294" s="5"/>
     </row>
     <row r="295" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A295" s="37"/>
+      <c r="A295" s="30">
+        <f t="shared" ref="A295:A312" si="12">A294</f>
+        <v>45670</v>
+      </c>
       <c r="B295" s="5"/>
       <c r="C295" s="13"/>
       <c r="D295" s="5"/>
@@ -5430,7 +6136,10 @@
       <c r="L295" s="5"/>
     </row>
     <row r="296" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A296" s="37"/>
+      <c r="A296" s="30">
+        <f t="shared" si="12"/>
+        <v>45670</v>
+      </c>
       <c r="B296" s="5"/>
       <c r="C296" s="13"/>
       <c r="D296" s="5"/>
@@ -5444,7 +6153,10 @@
       <c r="L296" s="5"/>
     </row>
     <row r="297" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A297" s="37"/>
+      <c r="A297" s="30">
+        <f t="shared" si="12"/>
+        <v>45670</v>
+      </c>
       <c r="B297" s="5"/>
       <c r="C297" s="13"/>
       <c r="D297" s="5"/>
@@ -5458,7 +6170,10 @@
       <c r="L297" s="5"/>
     </row>
     <row r="298" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A298" s="37"/>
+      <c r="A298" s="30">
+        <f t="shared" si="12"/>
+        <v>45670</v>
+      </c>
       <c r="B298" s="5"/>
       <c r="C298" s="13"/>
       <c r="D298" s="5"/>
@@ -5472,7 +6187,10 @@
       <c r="L298" s="5"/>
     </row>
     <row r="299" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A299" s="37"/>
+      <c r="A299" s="30">
+        <f t="shared" si="12"/>
+        <v>45670</v>
+      </c>
       <c r="B299" s="5"/>
       <c r="C299" s="13"/>
       <c r="D299" s="5"/>
@@ -5486,7 +6204,10 @@
       <c r="L299" s="5"/>
     </row>
     <row r="300" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A300" s="37"/>
+      <c r="A300" s="30">
+        <f t="shared" si="12"/>
+        <v>45670</v>
+      </c>
       <c r="B300" s="5"/>
       <c r="C300" s="13"/>
       <c r="D300" s="5"/>
@@ -5500,7 +6221,10 @@
       <c r="L300" s="5"/>
     </row>
     <row r="301" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A301" s="37"/>
+      <c r="A301" s="30">
+        <f t="shared" si="12"/>
+        <v>45670</v>
+      </c>
       <c r="B301" s="5"/>
       <c r="C301" s="13"/>
       <c r="D301" s="5"/>
@@ -5514,7 +6238,10 @@
       <c r="L301" s="5"/>
     </row>
     <row r="302" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A302" s="37"/>
+      <c r="A302" s="30">
+        <f t="shared" si="12"/>
+        <v>45670</v>
+      </c>
       <c r="B302" s="5"/>
       <c r="C302" s="13"/>
       <c r="D302" s="5"/>
@@ -5528,7 +6255,10 @@
       <c r="L302" s="5"/>
     </row>
     <row r="303" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A303" s="37"/>
+      <c r="A303" s="30">
+        <f t="shared" si="12"/>
+        <v>45670</v>
+      </c>
       <c r="B303" s="5"/>
       <c r="C303" s="13"/>
       <c r="D303" s="5"/>
@@ -5542,7 +6272,10 @@
       <c r="L303" s="5"/>
     </row>
     <row r="304" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A304" s="37"/>
+      <c r="A304" s="30">
+        <f t="shared" si="12"/>
+        <v>45670</v>
+      </c>
       <c r="B304" s="5"/>
       <c r="C304" s="13"/>
       <c r="D304" s="5"/>
@@ -5556,7 +6289,10 @@
       <c r="L304" s="5"/>
     </row>
     <row r="305" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A305" s="37"/>
+      <c r="A305" s="30">
+        <f t="shared" si="12"/>
+        <v>45670</v>
+      </c>
       <c r="B305" s="5"/>
       <c r="C305" s="13"/>
       <c r="D305" s="5"/>
@@ -5570,7 +6306,10 @@
       <c r="L305" s="5"/>
     </row>
     <row r="306" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A306" s="37"/>
+      <c r="A306" s="30">
+        <f t="shared" si="12"/>
+        <v>45670</v>
+      </c>
       <c r="B306" s="5"/>
       <c r="C306" s="13"/>
       <c r="D306" s="5"/>
@@ -5584,7 +6323,10 @@
       <c r="L306" s="5"/>
     </row>
     <row r="307" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A307" s="37"/>
+      <c r="A307" s="30">
+        <f t="shared" si="12"/>
+        <v>45670</v>
+      </c>
       <c r="B307" s="5"/>
       <c r="C307" s="13"/>
       <c r="D307" s="5"/>
@@ -5598,7 +6340,10 @@
       <c r="L307" s="5"/>
     </row>
     <row r="308" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A308" s="37"/>
+      <c r="A308" s="30">
+        <f t="shared" si="12"/>
+        <v>45670</v>
+      </c>
       <c r="B308" s="5"/>
       <c r="C308" s="13"/>
       <c r="D308" s="5"/>
@@ -5612,7 +6357,10 @@
       <c r="L308" s="5"/>
     </row>
     <row r="309" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A309" s="37"/>
+      <c r="A309" s="30">
+        <f t="shared" si="12"/>
+        <v>45670</v>
+      </c>
       <c r="B309" s="5"/>
       <c r="C309" s="13"/>
       <c r="D309" s="5"/>
@@ -5626,7 +6374,10 @@
       <c r="L309" s="5"/>
     </row>
     <row r="310" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A310" s="37"/>
+      <c r="A310" s="30">
+        <f t="shared" si="12"/>
+        <v>45670</v>
+      </c>
       <c r="B310" s="5"/>
       <c r="C310" s="13"/>
       <c r="D310" s="5"/>
@@ -5640,7 +6391,10 @@
       <c r="L310" s="5"/>
     </row>
     <row r="311" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A311" s="37"/>
+      <c r="A311" s="30">
+        <f t="shared" si="12"/>
+        <v>45670</v>
+      </c>
       <c r="B311" s="5"/>
       <c r="C311" s="13"/>
       <c r="D311" s="5"/>
@@ -5654,7 +6408,10 @@
       <c r="L311" s="5"/>
     </row>
     <row r="312" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A312" s="37"/>
+      <c r="A312" s="30">
+        <f t="shared" si="12"/>
+        <v>45670</v>
+      </c>
       <c r="B312" s="5"/>
       <c r="C312" s="13"/>
       <c r="D312" s="5"/>
@@ -5705,24 +6462,24 @@
     <row r="315" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A315" s="17" t="str">
         <f>UPPER(TEXT(A317,"DDDD"))</f>
-        <v>SÁBADO</v>
-      </c>
-      <c r="B315" s="29" t="s">
+        <v>MARTES</v>
+      </c>
+      <c r="B315" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="C315" s="30"/>
-      <c r="D315" s="31"/>
-      <c r="H315" s="32" t="s">
+      <c r="C315" s="36"/>
+      <c r="D315" s="37"/>
+      <c r="H315" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="I315" s="33"/>
+      <c r="I315" s="32"/>
       <c r="J315" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="K315" s="34" t="s">
+      <c r="K315" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="L315" s="34" t="s">
+      <c r="L315" s="33" t="s">
         <v>9</v>
       </c>
     </row>
@@ -5757,11 +6514,14 @@
       <c r="J316" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="K316" s="35"/>
-      <c r="L316" s="35"/>
+      <c r="K316" s="34"/>
+      <c r="L316" s="34"/>
     </row>
     <row r="317" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A317" s="37"/>
+      <c r="A317" s="30">
+        <f>A293+1</f>
+        <v>45671</v>
+      </c>
       <c r="B317" s="19"/>
       <c r="C317" s="18"/>
       <c r="D317" s="19"/>
@@ -5775,7 +6535,10 @@
       <c r="L317" s="19"/>
     </row>
     <row r="318" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A318" s="37"/>
+      <c r="A318" s="30">
+        <f>A317</f>
+        <v>45671</v>
+      </c>
       <c r="B318" s="5"/>
       <c r="C318" s="13"/>
       <c r="D318" s="5"/>
@@ -5789,7 +6552,10 @@
       <c r="L318" s="5"/>
     </row>
     <row r="319" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A319" s="37"/>
+      <c r="A319" s="30">
+        <f t="shared" ref="A319:A336" si="13">A318</f>
+        <v>45671</v>
+      </c>
       <c r="B319" s="5"/>
       <c r="C319" s="13"/>
       <c r="D319" s="5"/>
@@ -5803,7 +6569,10 @@
       <c r="L319" s="5"/>
     </row>
     <row r="320" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A320" s="37"/>
+      <c r="A320" s="30">
+        <f t="shared" si="13"/>
+        <v>45671</v>
+      </c>
       <c r="B320" s="5"/>
       <c r="C320" s="13"/>
       <c r="D320" s="5"/>
@@ -5817,7 +6586,10 @@
       <c r="L320" s="5"/>
     </row>
     <row r="321" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A321" s="37"/>
+      <c r="A321" s="30">
+        <f t="shared" si="13"/>
+        <v>45671</v>
+      </c>
       <c r="B321" s="5"/>
       <c r="C321" s="13"/>
       <c r="D321" s="5"/>
@@ -5831,7 +6603,10 @@
       <c r="L321" s="5"/>
     </row>
     <row r="322" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A322" s="37"/>
+      <c r="A322" s="30">
+        <f t="shared" si="13"/>
+        <v>45671</v>
+      </c>
       <c r="B322" s="5"/>
       <c r="C322" s="13"/>
       <c r="D322" s="5"/>
@@ -5845,7 +6620,10 @@
       <c r="L322" s="5"/>
     </row>
     <row r="323" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A323" s="37"/>
+      <c r="A323" s="30">
+        <f t="shared" si="13"/>
+        <v>45671</v>
+      </c>
       <c r="B323" s="5"/>
       <c r="C323" s="13"/>
       <c r="D323" s="5"/>
@@ -5859,7 +6637,10 @@
       <c r="L323" s="5"/>
     </row>
     <row r="324" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A324" s="37"/>
+      <c r="A324" s="30">
+        <f t="shared" si="13"/>
+        <v>45671</v>
+      </c>
       <c r="B324" s="5"/>
       <c r="C324" s="13"/>
       <c r="D324" s="5"/>
@@ -5873,7 +6654,10 @@
       <c r="L324" s="5"/>
     </row>
     <row r="325" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A325" s="37"/>
+      <c r="A325" s="30">
+        <f t="shared" si="13"/>
+        <v>45671</v>
+      </c>
       <c r="B325" s="5"/>
       <c r="C325" s="13"/>
       <c r="D325" s="5"/>
@@ -5887,7 +6671,10 @@
       <c r="L325" s="5"/>
     </row>
     <row r="326" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A326" s="37"/>
+      <c r="A326" s="30">
+        <f t="shared" si="13"/>
+        <v>45671</v>
+      </c>
       <c r="B326" s="5"/>
       <c r="C326" s="13"/>
       <c r="D326" s="5"/>
@@ -5901,7 +6688,10 @@
       <c r="L326" s="5"/>
     </row>
     <row r="327" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A327" s="37"/>
+      <c r="A327" s="30">
+        <f t="shared" si="13"/>
+        <v>45671</v>
+      </c>
       <c r="B327" s="5"/>
       <c r="C327" s="13"/>
       <c r="D327" s="5"/>
@@ -5915,7 +6705,10 @@
       <c r="L327" s="5"/>
     </row>
     <row r="328" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A328" s="37"/>
+      <c r="A328" s="30">
+        <f t="shared" si="13"/>
+        <v>45671</v>
+      </c>
       <c r="B328" s="5"/>
       <c r="C328" s="13"/>
       <c r="D328" s="5"/>
@@ -5929,7 +6722,10 @@
       <c r="L328" s="5"/>
     </row>
     <row r="329" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A329" s="37"/>
+      <c r="A329" s="30">
+        <f t="shared" si="13"/>
+        <v>45671</v>
+      </c>
       <c r="B329" s="5"/>
       <c r="C329" s="13"/>
       <c r="D329" s="5"/>
@@ -5943,7 +6739,10 @@
       <c r="L329" s="5"/>
     </row>
     <row r="330" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A330" s="37"/>
+      <c r="A330" s="30">
+        <f t="shared" si="13"/>
+        <v>45671</v>
+      </c>
       <c r="B330" s="5"/>
       <c r="C330" s="13"/>
       <c r="D330" s="5"/>
@@ -5957,7 +6756,10 @@
       <c r="L330" s="5"/>
     </row>
     <row r="331" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A331" s="37"/>
+      <c r="A331" s="30">
+        <f t="shared" si="13"/>
+        <v>45671</v>
+      </c>
       <c r="B331" s="5"/>
       <c r="C331" s="13"/>
       <c r="D331" s="5"/>
@@ -5971,7 +6773,10 @@
       <c r="L331" s="5"/>
     </row>
     <row r="332" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A332" s="37"/>
+      <c r="A332" s="30">
+        <f t="shared" si="13"/>
+        <v>45671</v>
+      </c>
       <c r="B332" s="5"/>
       <c r="C332" s="13"/>
       <c r="D332" s="5"/>
@@ -5985,7 +6790,10 @@
       <c r="L332" s="5"/>
     </row>
     <row r="333" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A333" s="37"/>
+      <c r="A333" s="30">
+        <f t="shared" si="13"/>
+        <v>45671</v>
+      </c>
       <c r="B333" s="5"/>
       <c r="C333" s="13"/>
       <c r="D333" s="5"/>
@@ -5999,7 +6807,10 @@
       <c r="L333" s="5"/>
     </row>
     <row r="334" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A334" s="37"/>
+      <c r="A334" s="30">
+        <f t="shared" si="13"/>
+        <v>45671</v>
+      </c>
       <c r="B334" s="5"/>
       <c r="C334" s="13"/>
       <c r="D334" s="5"/>
@@ -6013,7 +6824,10 @@
       <c r="L334" s="5"/>
     </row>
     <row r="335" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A335" s="37"/>
+      <c r="A335" s="30">
+        <f t="shared" si="13"/>
+        <v>45671</v>
+      </c>
       <c r="B335" s="5"/>
       <c r="C335" s="13"/>
       <c r="D335" s="5"/>
@@ -6027,7 +6841,10 @@
       <c r="L335" s="5"/>
     </row>
     <row r="336" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A336" s="37"/>
+      <c r="A336" s="30">
+        <f t="shared" si="13"/>
+        <v>45671</v>
+      </c>
       <c r="B336" s="5"/>
       <c r="C336" s="13"/>
       <c r="D336" s="5"/>
@@ -6078,24 +6895,24 @@
     <row r="339" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A339" s="17" t="str">
         <f>UPPER(TEXT(A341,"DDDD"))</f>
-        <v>SÁBADO</v>
-      </c>
-      <c r="B339" s="29" t="s">
+        <v>MIÉRCOLES</v>
+      </c>
+      <c r="B339" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="C339" s="30"/>
-      <c r="D339" s="31"/>
-      <c r="H339" s="32" t="s">
+      <c r="C339" s="36"/>
+      <c r="D339" s="37"/>
+      <c r="H339" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="I339" s="33"/>
+      <c r="I339" s="32"/>
       <c r="J339" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="K339" s="34" t="s">
+      <c r="K339" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="L339" s="34" t="s">
+      <c r="L339" s="33" t="s">
         <v>9</v>
       </c>
     </row>
@@ -6130,11 +6947,14 @@
       <c r="J340" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="K340" s="35"/>
-      <c r="L340" s="35"/>
+      <c r="K340" s="34"/>
+      <c r="L340" s="34"/>
     </row>
     <row r="341" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A341" s="37"/>
+      <c r="A341" s="30">
+        <f>A317+1</f>
+        <v>45672</v>
+      </c>
       <c r="B341" s="19"/>
       <c r="C341" s="18"/>
       <c r="D341" s="19"/>
@@ -6148,7 +6968,10 @@
       <c r="L341" s="19"/>
     </row>
     <row r="342" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A342" s="37"/>
+      <c r="A342" s="30">
+        <f>A341</f>
+        <v>45672</v>
+      </c>
       <c r="B342" s="5"/>
       <c r="C342" s="13"/>
       <c r="D342" s="5"/>
@@ -6162,7 +6985,10 @@
       <c r="L342" s="5"/>
     </row>
     <row r="343" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A343" s="37"/>
+      <c r="A343" s="30">
+        <f t="shared" ref="A343:A360" si="14">A342</f>
+        <v>45672</v>
+      </c>
       <c r="B343" s="5"/>
       <c r="C343" s="13"/>
       <c r="D343" s="5"/>
@@ -6176,7 +7002,10 @@
       <c r="L343" s="5"/>
     </row>
     <row r="344" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A344" s="37"/>
+      <c r="A344" s="30">
+        <f t="shared" si="14"/>
+        <v>45672</v>
+      </c>
       <c r="B344" s="5"/>
       <c r="C344" s="13"/>
       <c r="D344" s="5"/>
@@ -6190,7 +7019,10 @@
       <c r="L344" s="5"/>
     </row>
     <row r="345" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A345" s="37"/>
+      <c r="A345" s="30">
+        <f t="shared" si="14"/>
+        <v>45672</v>
+      </c>
       <c r="B345" s="5"/>
       <c r="C345" s="13"/>
       <c r="D345" s="5"/>
@@ -6204,7 +7036,10 @@
       <c r="L345" s="5"/>
     </row>
     <row r="346" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A346" s="37"/>
+      <c r="A346" s="30">
+        <f t="shared" si="14"/>
+        <v>45672</v>
+      </c>
       <c r="B346" s="5"/>
       <c r="C346" s="13"/>
       <c r="D346" s="5"/>
@@ -6218,7 +7053,10 @@
       <c r="L346" s="5"/>
     </row>
     <row r="347" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A347" s="37"/>
+      <c r="A347" s="30">
+        <f t="shared" si="14"/>
+        <v>45672</v>
+      </c>
       <c r="B347" s="5"/>
       <c r="C347" s="13"/>
       <c r="D347" s="5"/>
@@ -6232,7 +7070,10 @@
       <c r="L347" s="5"/>
     </row>
     <row r="348" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A348" s="37"/>
+      <c r="A348" s="30">
+        <f t="shared" si="14"/>
+        <v>45672</v>
+      </c>
       <c r="B348" s="5"/>
       <c r="C348" s="13"/>
       <c r="D348" s="5"/>
@@ -6246,7 +7087,10 @@
       <c r="L348" s="5"/>
     </row>
     <row r="349" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A349" s="37"/>
+      <c r="A349" s="30">
+        <f t="shared" si="14"/>
+        <v>45672</v>
+      </c>
       <c r="B349" s="5"/>
       <c r="C349" s="13"/>
       <c r="D349" s="5"/>
@@ -6260,7 +7104,10 @@
       <c r="L349" s="5"/>
     </row>
     <row r="350" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A350" s="37"/>
+      <c r="A350" s="30">
+        <f t="shared" si="14"/>
+        <v>45672</v>
+      </c>
       <c r="B350" s="5"/>
       <c r="C350" s="13"/>
       <c r="D350" s="5"/>
@@ -6274,7 +7121,10 @@
       <c r="L350" s="5"/>
     </row>
     <row r="351" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A351" s="37"/>
+      <c r="A351" s="30">
+        <f t="shared" si="14"/>
+        <v>45672</v>
+      </c>
       <c r="B351" s="5"/>
       <c r="C351" s="13"/>
       <c r="D351" s="5"/>
@@ -6288,7 +7138,10 @@
       <c r="L351" s="5"/>
     </row>
     <row r="352" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A352" s="37"/>
+      <c r="A352" s="30">
+        <f t="shared" si="14"/>
+        <v>45672</v>
+      </c>
       <c r="B352" s="5"/>
       <c r="C352" s="13"/>
       <c r="D352" s="5"/>
@@ -6302,7 +7155,10 @@
       <c r="L352" s="5"/>
     </row>
     <row r="353" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A353" s="37"/>
+      <c r="A353" s="30">
+        <f t="shared" si="14"/>
+        <v>45672</v>
+      </c>
       <c r="B353" s="5"/>
       <c r="C353" s="13"/>
       <c r="D353" s="5"/>
@@ -6316,7 +7172,10 @@
       <c r="L353" s="5"/>
     </row>
     <row r="354" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A354" s="37"/>
+      <c r="A354" s="30">
+        <f t="shared" si="14"/>
+        <v>45672</v>
+      </c>
       <c r="B354" s="5"/>
       <c r="C354" s="13"/>
       <c r="D354" s="5"/>
@@ -6330,7 +7189,10 @@
       <c r="L354" s="5"/>
     </row>
     <row r="355" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A355" s="37"/>
+      <c r="A355" s="30">
+        <f t="shared" si="14"/>
+        <v>45672</v>
+      </c>
       <c r="B355" s="5"/>
       <c r="C355" s="13"/>
       <c r="D355" s="5"/>
@@ -6344,7 +7206,10 @@
       <c r="L355" s="5"/>
     </row>
     <row r="356" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A356" s="37"/>
+      <c r="A356" s="30">
+        <f t="shared" si="14"/>
+        <v>45672</v>
+      </c>
       <c r="B356" s="5"/>
       <c r="C356" s="13"/>
       <c r="D356" s="5"/>
@@ -6358,7 +7223,10 @@
       <c r="L356" s="5"/>
     </row>
     <row r="357" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A357" s="37"/>
+      <c r="A357" s="30">
+        <f t="shared" si="14"/>
+        <v>45672</v>
+      </c>
       <c r="B357" s="5"/>
       <c r="C357" s="13"/>
       <c r="D357" s="5"/>
@@ -6372,7 +7240,10 @@
       <c r="L357" s="5"/>
     </row>
     <row r="358" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A358" s="37"/>
+      <c r="A358" s="30">
+        <f t="shared" si="14"/>
+        <v>45672</v>
+      </c>
       <c r="B358" s="5"/>
       <c r="C358" s="13"/>
       <c r="D358" s="5"/>
@@ -6386,7 +7257,10 @@
       <c r="L358" s="5"/>
     </row>
     <row r="359" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A359" s="37"/>
+      <c r="A359" s="30">
+        <f t="shared" si="14"/>
+        <v>45672</v>
+      </c>
       <c r="B359" s="5"/>
       <c r="C359" s="13"/>
       <c r="D359" s="5"/>
@@ -6400,7 +7274,10 @@
       <c r="L359" s="5"/>
     </row>
     <row r="360" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A360" s="37"/>
+      <c r="A360" s="30">
+        <f t="shared" si="14"/>
+        <v>45672</v>
+      </c>
       <c r="B360" s="5"/>
       <c r="C360" s="13"/>
       <c r="D360" s="5"/>
@@ -6451,24 +7328,24 @@
     <row r="363" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A363" s="17" t="str">
         <f>UPPER(TEXT(A365,"DDDD"))</f>
-        <v>SÁBADO</v>
-      </c>
-      <c r="B363" s="29" t="s">
+        <v>JUEVES</v>
+      </c>
+      <c r="B363" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="C363" s="30"/>
-      <c r="D363" s="31"/>
-      <c r="H363" s="32" t="s">
+      <c r="C363" s="36"/>
+      <c r="D363" s="37"/>
+      <c r="H363" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="I363" s="33"/>
+      <c r="I363" s="32"/>
       <c r="J363" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="K363" s="34" t="s">
+      <c r="K363" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="L363" s="34" t="s">
+      <c r="L363" s="33" t="s">
         <v>9</v>
       </c>
     </row>
@@ -6503,11 +7380,14 @@
       <c r="J364" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="K364" s="35"/>
-      <c r="L364" s="35"/>
+      <c r="K364" s="34"/>
+      <c r="L364" s="34"/>
     </row>
     <row r="365" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A365" s="37"/>
+      <c r="A365" s="30">
+        <f>A341+1</f>
+        <v>45673</v>
+      </c>
       <c r="B365" s="19"/>
       <c r="C365" s="18"/>
       <c r="D365" s="19"/>
@@ -6521,7 +7401,10 @@
       <c r="L365" s="19"/>
     </row>
     <row r="366" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A366" s="37"/>
+      <c r="A366" s="30">
+        <f>A365</f>
+        <v>45673</v>
+      </c>
       <c r="B366" s="5"/>
       <c r="C366" s="13"/>
       <c r="D366" s="5"/>
@@ -6535,7 +7418,10 @@
       <c r="L366" s="5"/>
     </row>
     <row r="367" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A367" s="37"/>
+      <c r="A367" s="30">
+        <f t="shared" ref="A367:A384" si="15">A366</f>
+        <v>45673</v>
+      </c>
       <c r="B367" s="5"/>
       <c r="C367" s="13"/>
       <c r="D367" s="5"/>
@@ -6549,7 +7435,10 @@
       <c r="L367" s="5"/>
     </row>
     <row r="368" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A368" s="37"/>
+      <c r="A368" s="30">
+        <f t="shared" si="15"/>
+        <v>45673</v>
+      </c>
       <c r="B368" s="5"/>
       <c r="C368" s="13"/>
       <c r="D368" s="5"/>
@@ -6563,7 +7452,10 @@
       <c r="L368" s="5"/>
     </row>
     <row r="369" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A369" s="37"/>
+      <c r="A369" s="30">
+        <f t="shared" si="15"/>
+        <v>45673</v>
+      </c>
       <c r="B369" s="5"/>
       <c r="C369" s="13"/>
       <c r="D369" s="5"/>
@@ -6577,7 +7469,10 @@
       <c r="L369" s="5"/>
     </row>
     <row r="370" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A370" s="37"/>
+      <c r="A370" s="30">
+        <f t="shared" si="15"/>
+        <v>45673</v>
+      </c>
       <c r="B370" s="5"/>
       <c r="C370" s="13"/>
       <c r="D370" s="5"/>
@@ -6591,7 +7486,10 @@
       <c r="L370" s="5"/>
     </row>
     <row r="371" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A371" s="37"/>
+      <c r="A371" s="30">
+        <f t="shared" si="15"/>
+        <v>45673</v>
+      </c>
       <c r="B371" s="5"/>
       <c r="C371" s="13"/>
       <c r="D371" s="5"/>
@@ -6605,7 +7503,10 @@
       <c r="L371" s="5"/>
     </row>
     <row r="372" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A372" s="37"/>
+      <c r="A372" s="30">
+        <f t="shared" si="15"/>
+        <v>45673</v>
+      </c>
       <c r="B372" s="5"/>
       <c r="C372" s="13"/>
       <c r="D372" s="5"/>
@@ -6619,7 +7520,10 @@
       <c r="L372" s="5"/>
     </row>
     <row r="373" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A373" s="37"/>
+      <c r="A373" s="30">
+        <f t="shared" si="15"/>
+        <v>45673</v>
+      </c>
       <c r="B373" s="5"/>
       <c r="C373" s="13"/>
       <c r="D373" s="5"/>
@@ -6633,7 +7537,10 @@
       <c r="L373" s="5"/>
     </row>
     <row r="374" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A374" s="37"/>
+      <c r="A374" s="30">
+        <f t="shared" si="15"/>
+        <v>45673</v>
+      </c>
       <c r="B374" s="5"/>
       <c r="C374" s="13"/>
       <c r="D374" s="5"/>
@@ -6647,7 +7554,10 @@
       <c r="L374" s="5"/>
     </row>
     <row r="375" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A375" s="37"/>
+      <c r="A375" s="30">
+        <f t="shared" si="15"/>
+        <v>45673</v>
+      </c>
       <c r="B375" s="5"/>
       <c r="C375" s="13"/>
       <c r="D375" s="5"/>
@@ -6661,7 +7571,10 @@
       <c r="L375" s="5"/>
     </row>
     <row r="376" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A376" s="37"/>
+      <c r="A376" s="30">
+        <f t="shared" si="15"/>
+        <v>45673</v>
+      </c>
       <c r="B376" s="5"/>
       <c r="C376" s="13"/>
       <c r="D376" s="5"/>
@@ -6675,7 +7588,10 @@
       <c r="L376" s="5"/>
     </row>
     <row r="377" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A377" s="37"/>
+      <c r="A377" s="30">
+        <f t="shared" si="15"/>
+        <v>45673</v>
+      </c>
       <c r="B377" s="5"/>
       <c r="C377" s="13"/>
       <c r="D377" s="5"/>
@@ -6689,7 +7605,10 @@
       <c r="L377" s="5"/>
     </row>
     <row r="378" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A378" s="37"/>
+      <c r="A378" s="30">
+        <f t="shared" si="15"/>
+        <v>45673</v>
+      </c>
       <c r="B378" s="5"/>
       <c r="C378" s="13"/>
       <c r="D378" s="5"/>
@@ -6703,7 +7622,10 @@
       <c r="L378" s="5"/>
     </row>
     <row r="379" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A379" s="37"/>
+      <c r="A379" s="30">
+        <f t="shared" si="15"/>
+        <v>45673</v>
+      </c>
       <c r="B379" s="5"/>
       <c r="C379" s="13"/>
       <c r="D379" s="5"/>
@@ -6717,7 +7639,10 @@
       <c r="L379" s="5"/>
     </row>
     <row r="380" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A380" s="37"/>
+      <c r="A380" s="30">
+        <f t="shared" si="15"/>
+        <v>45673</v>
+      </c>
       <c r="B380" s="5"/>
       <c r="C380" s="13"/>
       <c r="D380" s="5"/>
@@ -6731,7 +7656,10 @@
       <c r="L380" s="5"/>
     </row>
     <row r="381" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A381" s="37"/>
+      <c r="A381" s="30">
+        <f t="shared" si="15"/>
+        <v>45673</v>
+      </c>
       <c r="B381" s="5"/>
       <c r="C381" s="13"/>
       <c r="D381" s="5"/>
@@ -6745,7 +7673,10 @@
       <c r="L381" s="5"/>
     </row>
     <row r="382" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A382" s="37"/>
+      <c r="A382" s="30">
+        <f t="shared" si="15"/>
+        <v>45673</v>
+      </c>
       <c r="B382" s="5"/>
       <c r="C382" s="13"/>
       <c r="D382" s="5"/>
@@ -6759,7 +7690,10 @@
       <c r="L382" s="5"/>
     </row>
     <row r="383" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A383" s="37"/>
+      <c r="A383" s="30">
+        <f t="shared" si="15"/>
+        <v>45673</v>
+      </c>
       <c r="B383" s="5"/>
       <c r="C383" s="13"/>
       <c r="D383" s="5"/>
@@ -6773,7 +7707,10 @@
       <c r="L383" s="5"/>
     </row>
     <row r="384" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A384" s="37"/>
+      <c r="A384" s="30">
+        <f t="shared" si="15"/>
+        <v>45673</v>
+      </c>
       <c r="B384" s="5"/>
       <c r="C384" s="13"/>
       <c r="D384" s="5"/>
@@ -6824,24 +7761,24 @@
     <row r="387" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A387" s="17" t="str">
         <f>UPPER(TEXT(A389,"DDDD"))</f>
-        <v>SÁBADO</v>
-      </c>
-      <c r="B387" s="29" t="s">
+        <v>VIERNES</v>
+      </c>
+      <c r="B387" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="C387" s="30"/>
-      <c r="D387" s="31"/>
-      <c r="H387" s="32" t="s">
+      <c r="C387" s="36"/>
+      <c r="D387" s="37"/>
+      <c r="H387" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="I387" s="33"/>
+      <c r="I387" s="32"/>
       <c r="J387" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="K387" s="34" t="s">
+      <c r="K387" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="L387" s="34" t="s">
+      <c r="L387" s="33" t="s">
         <v>9</v>
       </c>
     </row>
@@ -6876,11 +7813,14 @@
       <c r="J388" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="K388" s="35"/>
-      <c r="L388" s="35"/>
+      <c r="K388" s="34"/>
+      <c r="L388" s="34"/>
     </row>
     <row r="389" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A389" s="37"/>
+      <c r="A389" s="30">
+        <f>A365+1</f>
+        <v>45674</v>
+      </c>
       <c r="B389" s="19"/>
       <c r="C389" s="18"/>
       <c r="D389" s="19"/>
@@ -6894,7 +7834,10 @@
       <c r="L389" s="19"/>
     </row>
     <row r="390" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A390" s="37"/>
+      <c r="A390" s="30">
+        <f>A389</f>
+        <v>45674</v>
+      </c>
       <c r="B390" s="5"/>
       <c r="C390" s="13"/>
       <c r="D390" s="5"/>
@@ -6908,7 +7851,10 @@
       <c r="L390" s="5"/>
     </row>
     <row r="391" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A391" s="37"/>
+      <c r="A391" s="30">
+        <f t="shared" ref="A391:A408" si="16">A390</f>
+        <v>45674</v>
+      </c>
       <c r="B391" s="5"/>
       <c r="C391" s="13"/>
       <c r="D391" s="5"/>
@@ -6922,7 +7868,10 @@
       <c r="L391" s="5"/>
     </row>
     <row r="392" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A392" s="37"/>
+      <c r="A392" s="30">
+        <f t="shared" si="16"/>
+        <v>45674</v>
+      </c>
       <c r="B392" s="5"/>
       <c r="C392" s="13"/>
       <c r="D392" s="5"/>
@@ -6936,7 +7885,10 @@
       <c r="L392" s="5"/>
     </row>
     <row r="393" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A393" s="37"/>
+      <c r="A393" s="30">
+        <f t="shared" si="16"/>
+        <v>45674</v>
+      </c>
       <c r="B393" s="5"/>
       <c r="C393" s="13"/>
       <c r="D393" s="5"/>
@@ -6950,7 +7902,10 @@
       <c r="L393" s="5"/>
     </row>
     <row r="394" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A394" s="37"/>
+      <c r="A394" s="30">
+        <f t="shared" si="16"/>
+        <v>45674</v>
+      </c>
       <c r="B394" s="5"/>
       <c r="C394" s="13"/>
       <c r="D394" s="5"/>
@@ -6964,7 +7919,10 @@
       <c r="L394" s="5"/>
     </row>
     <row r="395" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A395" s="37"/>
+      <c r="A395" s="30">
+        <f t="shared" si="16"/>
+        <v>45674</v>
+      </c>
       <c r="B395" s="5"/>
       <c r="C395" s="13"/>
       <c r="D395" s="5"/>
@@ -6978,7 +7936,10 @@
       <c r="L395" s="5"/>
     </row>
     <row r="396" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A396" s="37"/>
+      <c r="A396" s="30">
+        <f t="shared" si="16"/>
+        <v>45674</v>
+      </c>
       <c r="B396" s="5"/>
       <c r="C396" s="13"/>
       <c r="D396" s="5"/>
@@ -6992,7 +7953,10 @@
       <c r="L396" s="5"/>
     </row>
     <row r="397" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A397" s="37"/>
+      <c r="A397" s="30">
+        <f t="shared" si="16"/>
+        <v>45674</v>
+      </c>
       <c r="B397" s="5"/>
       <c r="C397" s="13"/>
       <c r="D397" s="5"/>
@@ -7006,7 +7970,10 @@
       <c r="L397" s="5"/>
     </row>
     <row r="398" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A398" s="37"/>
+      <c r="A398" s="30">
+        <f t="shared" si="16"/>
+        <v>45674</v>
+      </c>
       <c r="B398" s="5"/>
       <c r="C398" s="13"/>
       <c r="D398" s="5"/>
@@ -7020,7 +7987,10 @@
       <c r="L398" s="5"/>
     </row>
     <row r="399" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A399" s="37"/>
+      <c r="A399" s="30">
+        <f t="shared" si="16"/>
+        <v>45674</v>
+      </c>
       <c r="B399" s="5"/>
       <c r="C399" s="13"/>
       <c r="D399" s="5"/>
@@ -7034,7 +8004,10 @@
       <c r="L399" s="5"/>
     </row>
     <row r="400" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A400" s="37"/>
+      <c r="A400" s="30">
+        <f t="shared" si="16"/>
+        <v>45674</v>
+      </c>
       <c r="B400" s="5"/>
       <c r="C400" s="13"/>
       <c r="D400" s="5"/>
@@ -7048,7 +8021,10 @@
       <c r="L400" s="5"/>
     </row>
     <row r="401" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A401" s="37"/>
+      <c r="A401" s="30">
+        <f t="shared" si="16"/>
+        <v>45674</v>
+      </c>
       <c r="B401" s="5"/>
       <c r="C401" s="13"/>
       <c r="D401" s="5"/>
@@ -7062,7 +8038,10 @@
       <c r="L401" s="5"/>
     </row>
     <row r="402" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A402" s="37"/>
+      <c r="A402" s="30">
+        <f t="shared" si="16"/>
+        <v>45674</v>
+      </c>
       <c r="B402" s="5"/>
       <c r="C402" s="13"/>
       <c r="D402" s="5"/>
@@ -7076,7 +8055,10 @@
       <c r="L402" s="5"/>
     </row>
     <row r="403" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A403" s="37"/>
+      <c r="A403" s="30">
+        <f t="shared" si="16"/>
+        <v>45674</v>
+      </c>
       <c r="B403" s="5"/>
       <c r="C403" s="13"/>
       <c r="D403" s="5"/>
@@ -7090,7 +8072,10 @@
       <c r="L403" s="5"/>
     </row>
     <row r="404" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A404" s="37"/>
+      <c r="A404" s="30">
+        <f t="shared" si="16"/>
+        <v>45674</v>
+      </c>
       <c r="B404" s="5"/>
       <c r="C404" s="13"/>
       <c r="D404" s="5"/>
@@ -7104,7 +8089,10 @@
       <c r="L404" s="5"/>
     </row>
     <row r="405" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A405" s="37"/>
+      <c r="A405" s="30">
+        <f t="shared" si="16"/>
+        <v>45674</v>
+      </c>
       <c r="B405" s="5"/>
       <c r="C405" s="13"/>
       <c r="D405" s="5"/>
@@ -7118,7 +8106,10 @@
       <c r="L405" s="5"/>
     </row>
     <row r="406" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A406" s="37"/>
+      <c r="A406" s="30">
+        <f t="shared" si="16"/>
+        <v>45674</v>
+      </c>
       <c r="B406" s="5"/>
       <c r="C406" s="13"/>
       <c r="D406" s="5"/>
@@ -7132,7 +8123,10 @@
       <c r="L406" s="5"/>
     </row>
     <row r="407" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A407" s="37"/>
+      <c r="A407" s="30">
+        <f t="shared" si="16"/>
+        <v>45674</v>
+      </c>
       <c r="B407" s="5"/>
       <c r="C407" s="13"/>
       <c r="D407" s="5"/>
@@ -7146,7 +8140,10 @@
       <c r="L407" s="5"/>
     </row>
     <row r="408" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A408" s="37"/>
+      <c r="A408" s="30">
+        <f t="shared" si="16"/>
+        <v>45674</v>
+      </c>
       <c r="B408" s="5"/>
       <c r="C408" s="13"/>
       <c r="D408" s="5"/>
@@ -7199,22 +8196,22 @@
         <f>UPPER(TEXT(A413,"DDDD"))</f>
         <v>SÁBADO</v>
       </c>
-      <c r="B411" s="29" t="s">
+      <c r="B411" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="C411" s="30"/>
-      <c r="D411" s="31"/>
-      <c r="H411" s="32" t="s">
+      <c r="C411" s="36"/>
+      <c r="D411" s="37"/>
+      <c r="H411" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="I411" s="33"/>
+      <c r="I411" s="32"/>
       <c r="J411" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="K411" s="34" t="s">
+      <c r="K411" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="L411" s="34" t="s">
+      <c r="L411" s="33" t="s">
         <v>9</v>
       </c>
     </row>
@@ -7249,11 +8246,14 @@
       <c r="J412" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="K412" s="35"/>
-      <c r="L412" s="35"/>
+      <c r="K412" s="34"/>
+      <c r="L412" s="34"/>
     </row>
     <row r="413" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A413" s="37"/>
+      <c r="A413" s="30">
+        <f>A389+1</f>
+        <v>45675</v>
+      </c>
       <c r="B413" s="19"/>
       <c r="C413" s="18"/>
       <c r="D413" s="19"/>
@@ -7267,7 +8267,10 @@
       <c r="L413" s="19"/>
     </row>
     <row r="414" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A414" s="37"/>
+      <c r="A414" s="30">
+        <f>A413</f>
+        <v>45675</v>
+      </c>
       <c r="B414" s="5"/>
       <c r="C414" s="13"/>
       <c r="D414" s="5"/>
@@ -7281,7 +8284,10 @@
       <c r="L414" s="5"/>
     </row>
     <row r="415" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A415" s="37"/>
+      <c r="A415" s="30">
+        <f t="shared" ref="A415:A432" si="17">A414</f>
+        <v>45675</v>
+      </c>
       <c r="B415" s="5"/>
       <c r="C415" s="13"/>
       <c r="D415" s="5"/>
@@ -7295,7 +8301,10 @@
       <c r="L415" s="5"/>
     </row>
     <row r="416" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A416" s="37"/>
+      <c r="A416" s="30">
+        <f t="shared" si="17"/>
+        <v>45675</v>
+      </c>
       <c r="B416" s="5"/>
       <c r="C416" s="13"/>
       <c r="D416" s="5"/>
@@ -7309,7 +8318,10 @@
       <c r="L416" s="5"/>
     </row>
     <row r="417" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A417" s="37"/>
+      <c r="A417" s="30">
+        <f t="shared" si="17"/>
+        <v>45675</v>
+      </c>
       <c r="B417" s="5"/>
       <c r="C417" s="13"/>
       <c r="D417" s="5"/>
@@ -7323,7 +8335,10 @@
       <c r="L417" s="5"/>
     </row>
     <row r="418" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A418" s="37"/>
+      <c r="A418" s="30">
+        <f t="shared" si="17"/>
+        <v>45675</v>
+      </c>
       <c r="B418" s="5"/>
       <c r="C418" s="13"/>
       <c r="D418" s="5"/>
@@ -7337,7 +8352,10 @@
       <c r="L418" s="5"/>
     </row>
     <row r="419" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A419" s="37"/>
+      <c r="A419" s="30">
+        <f t="shared" si="17"/>
+        <v>45675</v>
+      </c>
       <c r="B419" s="5"/>
       <c r="C419" s="13"/>
       <c r="D419" s="5"/>
@@ -7351,7 +8369,10 @@
       <c r="L419" s="5"/>
     </row>
     <row r="420" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A420" s="37"/>
+      <c r="A420" s="30">
+        <f t="shared" si="17"/>
+        <v>45675</v>
+      </c>
       <c r="B420" s="5"/>
       <c r="C420" s="13"/>
       <c r="D420" s="5"/>
@@ -7365,7 +8386,10 @@
       <c r="L420" s="5"/>
     </row>
     <row r="421" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A421" s="37"/>
+      <c r="A421" s="30">
+        <f t="shared" si="17"/>
+        <v>45675</v>
+      </c>
       <c r="B421" s="5"/>
       <c r="C421" s="13"/>
       <c r="D421" s="5"/>
@@ -7379,7 +8403,10 @@
       <c r="L421" s="5"/>
     </row>
     <row r="422" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A422" s="37"/>
+      <c r="A422" s="30">
+        <f t="shared" si="17"/>
+        <v>45675</v>
+      </c>
       <c r="B422" s="5"/>
       <c r="C422" s="13"/>
       <c r="D422" s="5"/>
@@ -7393,7 +8420,10 @@
       <c r="L422" s="5"/>
     </row>
     <row r="423" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A423" s="37"/>
+      <c r="A423" s="30">
+        <f t="shared" si="17"/>
+        <v>45675</v>
+      </c>
       <c r="B423" s="5"/>
       <c r="C423" s="13"/>
       <c r="D423" s="5"/>
@@ -7407,7 +8437,10 @@
       <c r="L423" s="5"/>
     </row>
     <row r="424" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A424" s="37"/>
+      <c r="A424" s="30">
+        <f t="shared" si="17"/>
+        <v>45675</v>
+      </c>
       <c r="B424" s="5"/>
       <c r="C424" s="13"/>
       <c r="D424" s="5"/>
@@ -7421,7 +8454,10 @@
       <c r="L424" s="5"/>
     </row>
     <row r="425" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A425" s="37"/>
+      <c r="A425" s="30">
+        <f t="shared" si="17"/>
+        <v>45675</v>
+      </c>
       <c r="B425" s="5"/>
       <c r="C425" s="13"/>
       <c r="D425" s="5"/>
@@ -7435,7 +8471,10 @@
       <c r="L425" s="5"/>
     </row>
     <row r="426" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A426" s="37"/>
+      <c r="A426" s="30">
+        <f t="shared" si="17"/>
+        <v>45675</v>
+      </c>
       <c r="B426" s="5"/>
       <c r="C426" s="13"/>
       <c r="D426" s="5"/>
@@ -7449,7 +8488,10 @@
       <c r="L426" s="5"/>
     </row>
     <row r="427" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A427" s="37"/>
+      <c r="A427" s="30">
+        <f t="shared" si="17"/>
+        <v>45675</v>
+      </c>
       <c r="B427" s="5"/>
       <c r="C427" s="13"/>
       <c r="D427" s="5"/>
@@ -7463,7 +8505,10 @@
       <c r="L427" s="5"/>
     </row>
     <row r="428" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A428" s="37"/>
+      <c r="A428" s="30">
+        <f t="shared" si="17"/>
+        <v>45675</v>
+      </c>
       <c r="B428" s="5"/>
       <c r="C428" s="13"/>
       <c r="D428" s="5"/>
@@ -7477,7 +8522,10 @@
       <c r="L428" s="5"/>
     </row>
     <row r="429" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A429" s="37"/>
+      <c r="A429" s="30">
+        <f t="shared" si="17"/>
+        <v>45675</v>
+      </c>
       <c r="B429" s="5"/>
       <c r="C429" s="13"/>
       <c r="D429" s="5"/>
@@ -7491,7 +8539,10 @@
       <c r="L429" s="5"/>
     </row>
     <row r="430" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A430" s="37"/>
+      <c r="A430" s="30">
+        <f t="shared" si="17"/>
+        <v>45675</v>
+      </c>
       <c r="B430" s="5"/>
       <c r="C430" s="13"/>
       <c r="D430" s="5"/>
@@ -7505,7 +8556,10 @@
       <c r="L430" s="5"/>
     </row>
     <row r="431" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A431" s="37"/>
+      <c r="A431" s="30">
+        <f t="shared" si="17"/>
+        <v>45675</v>
+      </c>
       <c r="B431" s="5"/>
       <c r="C431" s="13"/>
       <c r="D431" s="5"/>
@@ -7519,7 +8573,10 @@
       <c r="L431" s="5"/>
     </row>
     <row r="432" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A432" s="37"/>
+      <c r="A432" s="30">
+        <f t="shared" si="17"/>
+        <v>45675</v>
+      </c>
       <c r="B432" s="5"/>
       <c r="C432" s="13"/>
       <c r="D432" s="5"/>
@@ -7570,24 +8627,24 @@
     <row r="435" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A435" s="17" t="str">
         <f>UPPER(TEXT(A437,"DDDD"))</f>
-        <v>SÁBADO</v>
-      </c>
-      <c r="B435" s="29" t="s">
+        <v>DOMINGO</v>
+      </c>
+      <c r="B435" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="C435" s="30"/>
-      <c r="D435" s="31"/>
-      <c r="H435" s="32" t="s">
+      <c r="C435" s="36"/>
+      <c r="D435" s="37"/>
+      <c r="H435" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="I435" s="33"/>
+      <c r="I435" s="32"/>
       <c r="J435" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="K435" s="34" t="s">
+      <c r="K435" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="L435" s="34" t="s">
+      <c r="L435" s="33" t="s">
         <v>9</v>
       </c>
     </row>
@@ -7622,11 +8679,14 @@
       <c r="J436" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="K436" s="35"/>
-      <c r="L436" s="35"/>
+      <c r="K436" s="34"/>
+      <c r="L436" s="34"/>
     </row>
     <row r="437" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A437" s="37"/>
+      <c r="A437" s="30">
+        <f>A413+1</f>
+        <v>45676</v>
+      </c>
       <c r="B437" s="19"/>
       <c r="C437" s="18"/>
       <c r="D437" s="19"/>
@@ -7640,7 +8700,10 @@
       <c r="L437" s="19"/>
     </row>
     <row r="438" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A438" s="37"/>
+      <c r="A438" s="30">
+        <f>A437</f>
+        <v>45676</v>
+      </c>
       <c r="B438" s="5"/>
       <c r="C438" s="13"/>
       <c r="D438" s="5"/>
@@ -7654,7 +8717,10 @@
       <c r="L438" s="5"/>
     </row>
     <row r="439" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A439" s="37"/>
+      <c r="A439" s="30">
+        <f t="shared" ref="A439:A456" si="18">A438</f>
+        <v>45676</v>
+      </c>
       <c r="B439" s="5"/>
       <c r="C439" s="13"/>
       <c r="D439" s="5"/>
@@ -7668,7 +8734,10 @@
       <c r="L439" s="5"/>
     </row>
     <row r="440" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A440" s="37"/>
+      <c r="A440" s="30">
+        <f t="shared" si="18"/>
+        <v>45676</v>
+      </c>
       <c r="B440" s="5"/>
       <c r="C440" s="13"/>
       <c r="D440" s="5"/>
@@ -7682,7 +8751,10 @@
       <c r="L440" s="5"/>
     </row>
     <row r="441" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A441" s="37"/>
+      <c r="A441" s="30">
+        <f t="shared" si="18"/>
+        <v>45676</v>
+      </c>
       <c r="B441" s="5"/>
       <c r="C441" s="13"/>
       <c r="D441" s="5"/>
@@ -7696,7 +8768,10 @@
       <c r="L441" s="5"/>
     </row>
     <row r="442" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A442" s="37"/>
+      <c r="A442" s="30">
+        <f t="shared" si="18"/>
+        <v>45676</v>
+      </c>
       <c r="B442" s="5"/>
       <c r="C442" s="13"/>
       <c r="D442" s="5"/>
@@ -7710,7 +8785,10 @@
       <c r="L442" s="5"/>
     </row>
     <row r="443" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A443" s="37"/>
+      <c r="A443" s="30">
+        <f t="shared" si="18"/>
+        <v>45676</v>
+      </c>
       <c r="B443" s="5"/>
       <c r="C443" s="13"/>
       <c r="D443" s="5"/>
@@ -7724,7 +8802,10 @@
       <c r="L443" s="5"/>
     </row>
     <row r="444" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A444" s="37"/>
+      <c r="A444" s="30">
+        <f t="shared" si="18"/>
+        <v>45676</v>
+      </c>
       <c r="B444" s="5"/>
       <c r="C444" s="13"/>
       <c r="D444" s="5"/>
@@ -7738,7 +8819,10 @@
       <c r="L444" s="5"/>
     </row>
     <row r="445" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A445" s="37"/>
+      <c r="A445" s="30">
+        <f t="shared" si="18"/>
+        <v>45676</v>
+      </c>
       <c r="B445" s="5"/>
       <c r="C445" s="13"/>
       <c r="D445" s="5"/>
@@ -7752,7 +8836,10 @@
       <c r="L445" s="5"/>
     </row>
     <row r="446" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A446" s="37"/>
+      <c r="A446" s="30">
+        <f t="shared" si="18"/>
+        <v>45676</v>
+      </c>
       <c r="B446" s="5"/>
       <c r="C446" s="13"/>
       <c r="D446" s="5"/>
@@ -7766,7 +8853,10 @@
       <c r="L446" s="5"/>
     </row>
     <row r="447" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A447" s="37"/>
+      <c r="A447" s="30">
+        <f t="shared" si="18"/>
+        <v>45676</v>
+      </c>
       <c r="B447" s="5"/>
       <c r="C447" s="13"/>
       <c r="D447" s="5"/>
@@ -7780,7 +8870,10 @@
       <c r="L447" s="5"/>
     </row>
     <row r="448" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A448" s="37"/>
+      <c r="A448" s="30">
+        <f t="shared" si="18"/>
+        <v>45676</v>
+      </c>
       <c r="B448" s="5"/>
       <c r="C448" s="13"/>
       <c r="D448" s="5"/>
@@ -7794,7 +8887,10 @@
       <c r="L448" s="5"/>
     </row>
     <row r="449" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A449" s="37"/>
+      <c r="A449" s="30">
+        <f t="shared" si="18"/>
+        <v>45676</v>
+      </c>
       <c r="B449" s="5"/>
       <c r="C449" s="13"/>
       <c r="D449" s="5"/>
@@ -7808,7 +8904,10 @@
       <c r="L449" s="5"/>
     </row>
     <row r="450" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A450" s="37"/>
+      <c r="A450" s="30">
+        <f t="shared" si="18"/>
+        <v>45676</v>
+      </c>
       <c r="B450" s="5"/>
       <c r="C450" s="13"/>
       <c r="D450" s="5"/>
@@ -7822,7 +8921,10 @@
       <c r="L450" s="5"/>
     </row>
     <row r="451" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A451" s="37"/>
+      <c r="A451" s="30">
+        <f t="shared" si="18"/>
+        <v>45676</v>
+      </c>
       <c r="B451" s="5"/>
       <c r="C451" s="13"/>
       <c r="D451" s="5"/>
@@ -7836,7 +8938,10 @@
       <c r="L451" s="5"/>
     </row>
     <row r="452" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A452" s="37"/>
+      <c r="A452" s="30">
+        <f t="shared" si="18"/>
+        <v>45676</v>
+      </c>
       <c r="B452" s="5"/>
       <c r="C452" s="13"/>
       <c r="D452" s="5"/>
@@ -7850,7 +8955,10 @@
       <c r="L452" s="5"/>
     </row>
     <row r="453" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A453" s="37"/>
+      <c r="A453" s="30">
+        <f t="shared" si="18"/>
+        <v>45676</v>
+      </c>
       <c r="B453" s="5"/>
       <c r="C453" s="13"/>
       <c r="D453" s="5"/>
@@ -7864,7 +8972,10 @@
       <c r="L453" s="5"/>
     </row>
     <row r="454" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A454" s="37"/>
+      <c r="A454" s="30">
+        <f t="shared" si="18"/>
+        <v>45676</v>
+      </c>
       <c r="B454" s="5"/>
       <c r="C454" s="13"/>
       <c r="D454" s="5"/>
@@ -7878,7 +8989,10 @@
       <c r="L454" s="5"/>
     </row>
     <row r="455" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A455" s="37"/>
+      <c r="A455" s="30">
+        <f t="shared" si="18"/>
+        <v>45676</v>
+      </c>
       <c r="B455" s="5"/>
       <c r="C455" s="13"/>
       <c r="D455" s="5"/>
@@ -7892,7 +9006,10 @@
       <c r="L455" s="5"/>
     </row>
     <row r="456" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A456" s="37"/>
+      <c r="A456" s="30">
+        <f t="shared" si="18"/>
+        <v>45676</v>
+      </c>
       <c r="B456" s="5"/>
       <c r="C456" s="13"/>
       <c r="D456" s="5"/>
@@ -7943,24 +9060,24 @@
     <row r="459" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A459" s="17" t="str">
         <f>UPPER(TEXT(A461,"DDDD"))</f>
-        <v>SÁBADO</v>
-      </c>
-      <c r="B459" s="29" t="s">
+        <v>LUNES</v>
+      </c>
+      <c r="B459" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="C459" s="30"/>
-      <c r="D459" s="31"/>
-      <c r="H459" s="32" t="s">
+      <c r="C459" s="36"/>
+      <c r="D459" s="37"/>
+      <c r="H459" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="I459" s="33"/>
+      <c r="I459" s="32"/>
       <c r="J459" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="K459" s="34" t="s">
+      <c r="K459" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="L459" s="34" t="s">
+      <c r="L459" s="33" t="s">
         <v>9</v>
       </c>
     </row>
@@ -7995,11 +9112,14 @@
       <c r="J460" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="K460" s="35"/>
-      <c r="L460" s="35"/>
+      <c r="K460" s="34"/>
+      <c r="L460" s="34"/>
     </row>
     <row r="461" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A461" s="37"/>
+      <c r="A461" s="30">
+        <f>A437+1</f>
+        <v>45677</v>
+      </c>
       <c r="B461" s="19"/>
       <c r="C461" s="18"/>
       <c r="D461" s="19"/>
@@ -8013,7 +9133,10 @@
       <c r="L461" s="19"/>
     </row>
     <row r="462" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A462" s="37"/>
+      <c r="A462" s="30">
+        <f>A461</f>
+        <v>45677</v>
+      </c>
       <c r="B462" s="5"/>
       <c r="C462" s="13"/>
       <c r="D462" s="5"/>
@@ -8027,7 +9150,10 @@
       <c r="L462" s="5"/>
     </row>
     <row r="463" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A463" s="37"/>
+      <c r="A463" s="30">
+        <f t="shared" ref="A463:A481" si="19">A462</f>
+        <v>45677</v>
+      </c>
       <c r="B463" s="5"/>
       <c r="C463" s="13"/>
       <c r="D463" s="5"/>
@@ -8041,7 +9167,10 @@
       <c r="L463" s="5"/>
     </row>
     <row r="464" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A464" s="37"/>
+      <c r="A464" s="30">
+        <f t="shared" si="19"/>
+        <v>45677</v>
+      </c>
       <c r="B464" s="5"/>
       <c r="C464" s="13"/>
       <c r="D464" s="5"/>
@@ -8055,7 +9184,10 @@
       <c r="L464" s="5"/>
     </row>
     <row r="465" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A465" s="37"/>
+      <c r="A465" s="30">
+        <f t="shared" si="19"/>
+        <v>45677</v>
+      </c>
       <c r="B465" s="5"/>
       <c r="C465" s="13"/>
       <c r="D465" s="5"/>
@@ -8069,7 +9201,10 @@
       <c r="L465" s="5"/>
     </row>
     <row r="466" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A466" s="37"/>
+      <c r="A466" s="30">
+        <f t="shared" si="19"/>
+        <v>45677</v>
+      </c>
       <c r="B466" s="5"/>
       <c r="C466" s="13"/>
       <c r="D466" s="5"/>
@@ -8083,7 +9218,10 @@
       <c r="L466" s="5"/>
     </row>
     <row r="467" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A467" s="37"/>
+      <c r="A467" s="30">
+        <f t="shared" si="19"/>
+        <v>45677</v>
+      </c>
       <c r="B467" s="5"/>
       <c r="C467" s="13"/>
       <c r="D467" s="5"/>
@@ -8097,7 +9235,10 @@
       <c r="L467" s="5"/>
     </row>
     <row r="468" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A468" s="37"/>
+      <c r="A468" s="30">
+        <f t="shared" si="19"/>
+        <v>45677</v>
+      </c>
       <c r="B468" s="5"/>
       <c r="C468" s="13"/>
       <c r="D468" s="5"/>
@@ -8111,7 +9252,10 @@
       <c r="L468" s="5"/>
     </row>
     <row r="469" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A469" s="37"/>
+      <c r="A469" s="30">
+        <f t="shared" si="19"/>
+        <v>45677</v>
+      </c>
       <c r="B469" s="5"/>
       <c r="C469" s="13"/>
       <c r="D469" s="5"/>
@@ -8125,7 +9269,10 @@
       <c r="L469" s="5"/>
     </row>
     <row r="470" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A470" s="37"/>
+      <c r="A470" s="30">
+        <f t="shared" si="19"/>
+        <v>45677</v>
+      </c>
       <c r="B470" s="5"/>
       <c r="C470" s="13"/>
       <c r="D470" s="5"/>
@@ -8139,7 +9286,10 @@
       <c r="L470" s="5"/>
     </row>
     <row r="471" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A471" s="37"/>
+      <c r="A471" s="30">
+        <f t="shared" si="19"/>
+        <v>45677</v>
+      </c>
       <c r="B471" s="5"/>
       <c r="C471" s="13"/>
       <c r="D471" s="5"/>
@@ -8153,7 +9303,10 @@
       <c r="L471" s="5"/>
     </row>
     <row r="472" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A472" s="37"/>
+      <c r="A472" s="30">
+        <f t="shared" si="19"/>
+        <v>45677</v>
+      </c>
       <c r="B472" s="5"/>
       <c r="C472" s="13"/>
       <c r="D472" s="5"/>
@@ -8167,7 +9320,10 @@
       <c r="L472" s="5"/>
     </row>
     <row r="473" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A473" s="37"/>
+      <c r="A473" s="30">
+        <f t="shared" si="19"/>
+        <v>45677</v>
+      </c>
       <c r="B473" s="5"/>
       <c r="C473" s="13"/>
       <c r="D473" s="5"/>
@@ -8181,7 +9337,10 @@
       <c r="L473" s="5"/>
     </row>
     <row r="474" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A474" s="37"/>
+      <c r="A474" s="30">
+        <f t="shared" si="19"/>
+        <v>45677</v>
+      </c>
       <c r="B474" s="5"/>
       <c r="C474" s="13"/>
       <c r="D474" s="5"/>
@@ -8195,7 +9354,10 @@
       <c r="L474" s="5"/>
     </row>
     <row r="475" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A475" s="37"/>
+      <c r="A475" s="30">
+        <f t="shared" si="19"/>
+        <v>45677</v>
+      </c>
       <c r="B475" s="5"/>
       <c r="C475" s="13"/>
       <c r="D475" s="5"/>
@@ -8209,7 +9371,10 @@
       <c r="L475" s="5"/>
     </row>
     <row r="476" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A476" s="37"/>
+      <c r="A476" s="30">
+        <f t="shared" si="19"/>
+        <v>45677</v>
+      </c>
       <c r="B476" s="5"/>
       <c r="C476" s="13"/>
       <c r="D476" s="5"/>
@@ -8223,7 +9388,10 @@
       <c r="L476" s="5"/>
     </row>
     <row r="477" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A477" s="37"/>
+      <c r="A477" s="30">
+        <f t="shared" si="19"/>
+        <v>45677</v>
+      </c>
       <c r="B477" s="5"/>
       <c r="C477" s="13"/>
       <c r="D477" s="5"/>
@@ -8237,7 +9405,10 @@
       <c r="L477" s="5"/>
     </row>
     <row r="478" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A478" s="37"/>
+      <c r="A478" s="30">
+        <f t="shared" si="19"/>
+        <v>45677</v>
+      </c>
       <c r="B478" s="5"/>
       <c r="C478" s="13"/>
       <c r="D478" s="5"/>
@@ -8251,7 +9422,10 @@
       <c r="L478" s="5"/>
     </row>
     <row r="479" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A479" s="37"/>
+      <c r="A479" s="30">
+        <f t="shared" si="19"/>
+        <v>45677</v>
+      </c>
       <c r="B479" s="5"/>
       <c r="C479" s="13"/>
       <c r="D479" s="5"/>
@@ -8265,7 +9439,10 @@
       <c r="L479" s="5"/>
     </row>
     <row r="480" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A480" s="37"/>
+      <c r="A480" s="30">
+        <f t="shared" si="19"/>
+        <v>45677</v>
+      </c>
       <c r="B480" s="5"/>
       <c r="C480" s="13"/>
       <c r="D480" s="5"/>
@@ -8279,8 +9456,9 @@
       <c r="L480" s="5"/>
     </row>
     <row r="481" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A481" s="11" t="s">
-        <v>9</v>
+      <c r="A481" s="30">
+        <f t="shared" si="19"/>
+        <v>45677</v>
       </c>
       <c r="B481" s="15" t="str">
         <f>SUM(B461:B480)&amp;" Artículos"</f>
@@ -8316,24 +9494,24 @@
     <row r="483" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A483" s="17" t="str">
         <f>UPPER(TEXT(A485,"DDDD"))</f>
-        <v>SÁBADO</v>
-      </c>
-      <c r="B483" s="29" t="s">
+        <v>MARTES</v>
+      </c>
+      <c r="B483" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="C483" s="30"/>
-      <c r="D483" s="31"/>
-      <c r="H483" s="32" t="s">
+      <c r="C483" s="36"/>
+      <c r="D483" s="37"/>
+      <c r="H483" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="I483" s="33"/>
+      <c r="I483" s="32"/>
       <c r="J483" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="K483" s="34" t="s">
+      <c r="K483" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="L483" s="34" t="s">
+      <c r="L483" s="33" t="s">
         <v>9</v>
       </c>
     </row>
@@ -8368,11 +9546,14 @@
       <c r="J484" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="K484" s="35"/>
-      <c r="L484" s="35"/>
+      <c r="K484" s="34"/>
+      <c r="L484" s="34"/>
     </row>
     <row r="485" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A485" s="37"/>
+      <c r="A485" s="30">
+        <f>A461+1</f>
+        <v>45678</v>
+      </c>
       <c r="B485" s="19"/>
       <c r="C485" s="18"/>
       <c r="D485" s="19"/>
@@ -8386,7 +9567,10 @@
       <c r="L485" s="19"/>
     </row>
     <row r="486" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A486" s="37"/>
+      <c r="A486" s="30">
+        <f>A485</f>
+        <v>45678</v>
+      </c>
       <c r="B486" s="5"/>
       <c r="C486" s="13"/>
       <c r="D486" s="5"/>
@@ -8400,7 +9584,10 @@
       <c r="L486" s="5"/>
     </row>
     <row r="487" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A487" s="37"/>
+      <c r="A487" s="30">
+        <f t="shared" ref="A487:A504" si="20">A486</f>
+        <v>45678</v>
+      </c>
       <c r="B487" s="5"/>
       <c r="C487" s="13"/>
       <c r="D487" s="5"/>
@@ -8414,7 +9601,10 @@
       <c r="L487" s="5"/>
     </row>
     <row r="488" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A488" s="37"/>
+      <c r="A488" s="30">
+        <f t="shared" si="20"/>
+        <v>45678</v>
+      </c>
       <c r="B488" s="5"/>
       <c r="C488" s="13"/>
       <c r="D488" s="5"/>
@@ -8428,7 +9618,10 @@
       <c r="L488" s="5"/>
     </row>
     <row r="489" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A489" s="37"/>
+      <c r="A489" s="30">
+        <f t="shared" si="20"/>
+        <v>45678</v>
+      </c>
       <c r="B489" s="5"/>
       <c r="C489" s="13"/>
       <c r="D489" s="5"/>
@@ -8442,7 +9635,10 @@
       <c r="L489" s="5"/>
     </row>
     <row r="490" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A490" s="37"/>
+      <c r="A490" s="30">
+        <f t="shared" si="20"/>
+        <v>45678</v>
+      </c>
       <c r="B490" s="5"/>
       <c r="C490" s="13"/>
       <c r="D490" s="5"/>
@@ -8456,7 +9652,10 @@
       <c r="L490" s="5"/>
     </row>
     <row r="491" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A491" s="37"/>
+      <c r="A491" s="30">
+        <f t="shared" si="20"/>
+        <v>45678</v>
+      </c>
       <c r="B491" s="5"/>
       <c r="C491" s="13"/>
       <c r="D491" s="5"/>
@@ -8470,7 +9669,10 @@
       <c r="L491" s="5"/>
     </row>
     <row r="492" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A492" s="37"/>
+      <c r="A492" s="30">
+        <f t="shared" si="20"/>
+        <v>45678</v>
+      </c>
       <c r="B492" s="5"/>
       <c r="C492" s="13"/>
       <c r="D492" s="5"/>
@@ -8484,7 +9686,10 @@
       <c r="L492" s="5"/>
     </row>
     <row r="493" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A493" s="37"/>
+      <c r="A493" s="30">
+        <f t="shared" si="20"/>
+        <v>45678</v>
+      </c>
       <c r="B493" s="5"/>
       <c r="C493" s="13"/>
       <c r="D493" s="5"/>
@@ -8498,7 +9703,10 @@
       <c r="L493" s="5"/>
     </row>
     <row r="494" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A494" s="37"/>
+      <c r="A494" s="30">
+        <f t="shared" si="20"/>
+        <v>45678</v>
+      </c>
       <c r="B494" s="5"/>
       <c r="C494" s="13"/>
       <c r="D494" s="5"/>
@@ -8512,7 +9720,10 @@
       <c r="L494" s="5"/>
     </row>
     <row r="495" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A495" s="37"/>
+      <c r="A495" s="30">
+        <f t="shared" si="20"/>
+        <v>45678</v>
+      </c>
       <c r="B495" s="5"/>
       <c r="C495" s="13"/>
       <c r="D495" s="5"/>
@@ -8526,7 +9737,10 @@
       <c r="L495" s="5"/>
     </row>
     <row r="496" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A496" s="37"/>
+      <c r="A496" s="30">
+        <f t="shared" si="20"/>
+        <v>45678</v>
+      </c>
       <c r="B496" s="5"/>
       <c r="C496" s="13"/>
       <c r="D496" s="5"/>
@@ -8540,7 +9754,10 @@
       <c r="L496" s="5"/>
     </row>
     <row r="497" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A497" s="37"/>
+      <c r="A497" s="30">
+        <f t="shared" si="20"/>
+        <v>45678</v>
+      </c>
       <c r="B497" s="5"/>
       <c r="C497" s="13"/>
       <c r="D497" s="5"/>
@@ -8554,7 +9771,10 @@
       <c r="L497" s="5"/>
     </row>
     <row r="498" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A498" s="37"/>
+      <c r="A498" s="30">
+        <f t="shared" si="20"/>
+        <v>45678</v>
+      </c>
       <c r="B498" s="5"/>
       <c r="C498" s="13"/>
       <c r="D498" s="5"/>
@@ -8568,7 +9788,10 @@
       <c r="L498" s="5"/>
     </row>
     <row r="499" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A499" s="37"/>
+      <c r="A499" s="30">
+        <f t="shared" si="20"/>
+        <v>45678</v>
+      </c>
       <c r="B499" s="5"/>
       <c r="C499" s="13"/>
       <c r="D499" s="5"/>
@@ -8582,7 +9805,10 @@
       <c r="L499" s="5"/>
     </row>
     <row r="500" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A500" s="37"/>
+      <c r="A500" s="30">
+        <f t="shared" si="20"/>
+        <v>45678</v>
+      </c>
       <c r="B500" s="5"/>
       <c r="C500" s="13"/>
       <c r="D500" s="5"/>
@@ -8596,7 +9822,10 @@
       <c r="L500" s="5"/>
     </row>
     <row r="501" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A501" s="37"/>
+      <c r="A501" s="30">
+        <f t="shared" si="20"/>
+        <v>45678</v>
+      </c>
       <c r="B501" s="5"/>
       <c r="C501" s="13"/>
       <c r="D501" s="5"/>
@@ -8610,7 +9839,10 @@
       <c r="L501" s="5"/>
     </row>
     <row r="502" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A502" s="37"/>
+      <c r="A502" s="30">
+        <f t="shared" si="20"/>
+        <v>45678</v>
+      </c>
       <c r="B502" s="5"/>
       <c r="C502" s="13"/>
       <c r="D502" s="5"/>
@@ -8624,7 +9856,10 @@
       <c r="L502" s="5"/>
     </row>
     <row r="503" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A503" s="37"/>
+      <c r="A503" s="30">
+        <f t="shared" si="20"/>
+        <v>45678</v>
+      </c>
       <c r="B503" s="5"/>
       <c r="C503" s="13"/>
       <c r="D503" s="5"/>
@@ -8638,7 +9873,10 @@
       <c r="L503" s="5"/>
     </row>
     <row r="504" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A504" s="37"/>
+      <c r="A504" s="30">
+        <f t="shared" si="20"/>
+        <v>45678</v>
+      </c>
       <c r="B504" s="5"/>
       <c r="C504" s="13"/>
       <c r="D504" s="5"/>
@@ -8689,24 +9927,24 @@
     <row r="507" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A507" s="17" t="str">
         <f>UPPER(TEXT(A509,"DDDD"))</f>
-        <v>SÁBADO</v>
-      </c>
-      <c r="B507" s="29" t="s">
+        <v>MIÉRCOLES</v>
+      </c>
+      <c r="B507" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="C507" s="30"/>
-      <c r="D507" s="31"/>
-      <c r="H507" s="32" t="s">
+      <c r="C507" s="36"/>
+      <c r="D507" s="37"/>
+      <c r="H507" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="I507" s="33"/>
+      <c r="I507" s="32"/>
       <c r="J507" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="K507" s="34" t="s">
+      <c r="K507" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="L507" s="34" t="s">
+      <c r="L507" s="33" t="s">
         <v>9</v>
       </c>
     </row>
@@ -8741,11 +9979,14 @@
       <c r="J508" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="K508" s="35"/>
-      <c r="L508" s="35"/>
+      <c r="K508" s="34"/>
+      <c r="L508" s="34"/>
     </row>
     <row r="509" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A509" s="37"/>
+      <c r="A509" s="30">
+        <f>A485+1</f>
+        <v>45679</v>
+      </c>
       <c r="B509" s="19"/>
       <c r="C509" s="18"/>
       <c r="D509" s="19"/>
@@ -8759,7 +10000,10 @@
       <c r="L509" s="19"/>
     </row>
     <row r="510" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A510" s="37"/>
+      <c r="A510" s="30">
+        <f t="shared" ref="A510:A528" si="21">A486+1</f>
+        <v>45679</v>
+      </c>
       <c r="B510" s="5"/>
       <c r="C510" s="13"/>
       <c r="D510" s="5"/>
@@ -8773,7 +10017,10 @@
       <c r="L510" s="5"/>
     </row>
     <row r="511" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A511" s="37"/>
+      <c r="A511" s="30">
+        <f t="shared" si="21"/>
+        <v>45679</v>
+      </c>
       <c r="B511" s="5"/>
       <c r="C511" s="13"/>
       <c r="D511" s="5"/>
@@ -8787,7 +10034,10 @@
       <c r="L511" s="5"/>
     </row>
     <row r="512" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A512" s="37"/>
+      <c r="A512" s="30">
+        <f t="shared" si="21"/>
+        <v>45679</v>
+      </c>
       <c r="B512" s="5"/>
       <c r="C512" s="13"/>
       <c r="D512" s="5"/>
@@ -8801,7 +10051,10 @@
       <c r="L512" s="5"/>
     </row>
     <row r="513" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A513" s="37"/>
+      <c r="A513" s="30">
+        <f t="shared" si="21"/>
+        <v>45679</v>
+      </c>
       <c r="B513" s="5"/>
       <c r="C513" s="13"/>
       <c r="D513" s="5"/>
@@ -8815,7 +10068,10 @@
       <c r="L513" s="5"/>
     </row>
     <row r="514" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A514" s="37"/>
+      <c r="A514" s="30">
+        <f t="shared" si="21"/>
+        <v>45679</v>
+      </c>
       <c r="B514" s="5"/>
       <c r="C514" s="13"/>
       <c r="D514" s="5"/>
@@ -8829,7 +10085,10 @@
       <c r="L514" s="5"/>
     </row>
     <row r="515" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A515" s="37"/>
+      <c r="A515" s="30">
+        <f t="shared" si="21"/>
+        <v>45679</v>
+      </c>
       <c r="B515" s="5"/>
       <c r="C515" s="13"/>
       <c r="D515" s="5"/>
@@ -8843,7 +10102,10 @@
       <c r="L515" s="5"/>
     </row>
     <row r="516" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A516" s="37"/>
+      <c r="A516" s="30">
+        <f t="shared" si="21"/>
+        <v>45679</v>
+      </c>
       <c r="B516" s="5"/>
       <c r="C516" s="13"/>
       <c r="D516" s="5"/>
@@ -8857,7 +10119,10 @@
       <c r="L516" s="5"/>
     </row>
     <row r="517" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A517" s="37"/>
+      <c r="A517" s="30">
+        <f t="shared" si="21"/>
+        <v>45679</v>
+      </c>
       <c r="B517" s="5"/>
       <c r="C517" s="13"/>
       <c r="D517" s="5"/>
@@ -8871,7 +10136,10 @@
       <c r="L517" s="5"/>
     </row>
     <row r="518" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A518" s="37"/>
+      <c r="A518" s="30">
+        <f t="shared" si="21"/>
+        <v>45679</v>
+      </c>
       <c r="B518" s="5"/>
       <c r="C518" s="13"/>
       <c r="D518" s="5"/>
@@ -8885,7 +10153,10 @@
       <c r="L518" s="5"/>
     </row>
     <row r="519" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A519" s="37"/>
+      <c r="A519" s="30">
+        <f t="shared" si="21"/>
+        <v>45679</v>
+      </c>
       <c r="B519" s="5"/>
       <c r="C519" s="13"/>
       <c r="D519" s="5"/>
@@ -8899,7 +10170,10 @@
       <c r="L519" s="5"/>
     </row>
     <row r="520" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A520" s="37"/>
+      <c r="A520" s="30">
+        <f t="shared" si="21"/>
+        <v>45679</v>
+      </c>
       <c r="B520" s="5"/>
       <c r="C520" s="13"/>
       <c r="D520" s="5"/>
@@ -8913,7 +10187,10 @@
       <c r="L520" s="5"/>
     </row>
     <row r="521" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A521" s="37"/>
+      <c r="A521" s="30">
+        <f t="shared" si="21"/>
+        <v>45679</v>
+      </c>
       <c r="B521" s="5"/>
       <c r="C521" s="13"/>
       <c r="D521" s="5"/>
@@ -8927,7 +10204,10 @@
       <c r="L521" s="5"/>
     </row>
     <row r="522" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A522" s="37"/>
+      <c r="A522" s="30">
+        <f t="shared" si="21"/>
+        <v>45679</v>
+      </c>
       <c r="B522" s="5"/>
       <c r="C522" s="13"/>
       <c r="D522" s="5"/>
@@ -8941,7 +10221,10 @@
       <c r="L522" s="5"/>
     </row>
     <row r="523" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A523" s="37"/>
+      <c r="A523" s="30">
+        <f t="shared" si="21"/>
+        <v>45679</v>
+      </c>
       <c r="B523" s="5"/>
       <c r="C523" s="13"/>
       <c r="D523" s="5"/>
@@ -8955,7 +10238,10 @@
       <c r="L523" s="5"/>
     </row>
     <row r="524" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A524" s="37"/>
+      <c r="A524" s="30">
+        <f t="shared" si="21"/>
+        <v>45679</v>
+      </c>
       <c r="B524" s="5"/>
       <c r="C524" s="13"/>
       <c r="D524" s="5"/>
@@ -8969,7 +10255,10 @@
       <c r="L524" s="5"/>
     </row>
     <row r="525" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A525" s="37"/>
+      <c r="A525" s="30">
+        <f t="shared" si="21"/>
+        <v>45679</v>
+      </c>
       <c r="B525" s="5"/>
       <c r="C525" s="13"/>
       <c r="D525" s="5"/>
@@ -8983,7 +10272,10 @@
       <c r="L525" s="5"/>
     </row>
     <row r="526" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A526" s="37"/>
+      <c r="A526" s="30">
+        <f t="shared" si="21"/>
+        <v>45679</v>
+      </c>
       <c r="B526" s="5"/>
       <c r="C526" s="13"/>
       <c r="D526" s="5"/>
@@ -8997,7 +10289,10 @@
       <c r="L526" s="5"/>
     </row>
     <row r="527" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A527" s="37"/>
+      <c r="A527" s="30">
+        <f t="shared" si="21"/>
+        <v>45679</v>
+      </c>
       <c r="B527" s="5"/>
       <c r="C527" s="13"/>
       <c r="D527" s="5"/>
@@ -9011,7 +10306,10 @@
       <c r="L527" s="5"/>
     </row>
     <row r="528" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A528" s="37"/>
+      <c r="A528" s="30">
+        <f t="shared" si="21"/>
+        <v>45679</v>
+      </c>
       <c r="B528" s="5"/>
       <c r="C528" s="13"/>
       <c r="D528" s="5"/>
@@ -9062,24 +10360,24 @@
     <row r="531" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A531" s="17" t="str">
         <f>UPPER(TEXT(A533,"DDDD"))</f>
-        <v>SÁBADO</v>
-      </c>
-      <c r="B531" s="29" t="s">
+        <v>JUEVES</v>
+      </c>
+      <c r="B531" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="C531" s="30"/>
-      <c r="D531" s="31"/>
-      <c r="H531" s="32" t="s">
+      <c r="C531" s="36"/>
+      <c r="D531" s="37"/>
+      <c r="H531" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="I531" s="33"/>
+      <c r="I531" s="32"/>
       <c r="J531" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="K531" s="34" t="s">
+      <c r="K531" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="L531" s="34" t="s">
+      <c r="L531" s="33" t="s">
         <v>9</v>
       </c>
     </row>
@@ -9114,11 +10412,14 @@
       <c r="J532" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="K532" s="35"/>
-      <c r="L532" s="35"/>
+      <c r="K532" s="34"/>
+      <c r="L532" s="34"/>
     </row>
     <row r="533" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A533" s="37"/>
+      <c r="A533" s="30">
+        <f>A509+1</f>
+        <v>45680</v>
+      </c>
       <c r="B533" s="19"/>
       <c r="C533" s="18"/>
       <c r="D533" s="19"/>
@@ -9132,7 +10433,10 @@
       <c r="L533" s="19"/>
     </row>
     <row r="534" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A534" s="37"/>
+      <c r="A534" s="30">
+        <f>A533</f>
+        <v>45680</v>
+      </c>
       <c r="B534" s="5"/>
       <c r="C534" s="13"/>
       <c r="D534" s="5"/>
@@ -9146,7 +10450,10 @@
       <c r="L534" s="5"/>
     </row>
     <row r="535" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A535" s="37"/>
+      <c r="A535" s="30">
+        <f t="shared" ref="A535:A552" si="22">A534</f>
+        <v>45680</v>
+      </c>
       <c r="B535" s="5"/>
       <c r="C535" s="13"/>
       <c r="D535" s="5"/>
@@ -9160,7 +10467,10 @@
       <c r="L535" s="5"/>
     </row>
     <row r="536" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A536" s="37"/>
+      <c r="A536" s="30">
+        <f t="shared" si="22"/>
+        <v>45680</v>
+      </c>
       <c r="B536" s="5"/>
       <c r="C536" s="13"/>
       <c r="D536" s="5"/>
@@ -9174,7 +10484,10 @@
       <c r="L536" s="5"/>
     </row>
     <row r="537" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A537" s="37"/>
+      <c r="A537" s="30">
+        <f t="shared" si="22"/>
+        <v>45680</v>
+      </c>
       <c r="B537" s="5"/>
       <c r="C537" s="13"/>
       <c r="D537" s="5"/>
@@ -9188,7 +10501,10 @@
       <c r="L537" s="5"/>
     </row>
     <row r="538" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A538" s="37"/>
+      <c r="A538" s="30">
+        <f t="shared" si="22"/>
+        <v>45680</v>
+      </c>
       <c r="B538" s="5"/>
       <c r="C538" s="13"/>
       <c r="D538" s="5"/>
@@ -9202,7 +10518,10 @@
       <c r="L538" s="5"/>
     </row>
     <row r="539" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A539" s="37"/>
+      <c r="A539" s="30">
+        <f t="shared" si="22"/>
+        <v>45680</v>
+      </c>
       <c r="B539" s="5"/>
       <c r="C539" s="13"/>
       <c r="D539" s="5"/>
@@ -9216,7 +10535,10 @@
       <c r="L539" s="5"/>
     </row>
     <row r="540" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A540" s="37"/>
+      <c r="A540" s="30">
+        <f t="shared" si="22"/>
+        <v>45680</v>
+      </c>
       <c r="B540" s="5"/>
       <c r="C540" s="13"/>
       <c r="D540" s="5"/>
@@ -9230,7 +10552,10 @@
       <c r="L540" s="5"/>
     </row>
     <row r="541" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A541" s="37"/>
+      <c r="A541" s="30">
+        <f t="shared" si="22"/>
+        <v>45680</v>
+      </c>
       <c r="B541" s="5"/>
       <c r="C541" s="13"/>
       <c r="D541" s="5"/>
@@ -9244,7 +10569,10 @@
       <c r="L541" s="5"/>
     </row>
     <row r="542" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A542" s="37"/>
+      <c r="A542" s="30">
+        <f t="shared" si="22"/>
+        <v>45680</v>
+      </c>
       <c r="B542" s="5"/>
       <c r="C542" s="13"/>
       <c r="D542" s="5"/>
@@ -9258,7 +10586,10 @@
       <c r="L542" s="5"/>
     </row>
     <row r="543" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A543" s="37"/>
+      <c r="A543" s="30">
+        <f t="shared" si="22"/>
+        <v>45680</v>
+      </c>
       <c r="B543" s="5"/>
       <c r="C543" s="13"/>
       <c r="D543" s="5"/>
@@ -9272,7 +10603,10 @@
       <c r="L543" s="5"/>
     </row>
     <row r="544" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A544" s="37"/>
+      <c r="A544" s="30">
+        <f t="shared" si="22"/>
+        <v>45680</v>
+      </c>
       <c r="B544" s="5"/>
       <c r="C544" s="13"/>
       <c r="D544" s="5"/>
@@ -9286,7 +10620,10 @@
       <c r="L544" s="5"/>
     </row>
     <row r="545" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A545" s="37"/>
+      <c r="A545" s="30">
+        <f t="shared" si="22"/>
+        <v>45680</v>
+      </c>
       <c r="B545" s="5"/>
       <c r="C545" s="13"/>
       <c r="D545" s="5"/>
@@ -9300,7 +10637,10 @@
       <c r="L545" s="5"/>
     </row>
     <row r="546" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A546" s="37"/>
+      <c r="A546" s="30">
+        <f t="shared" si="22"/>
+        <v>45680</v>
+      </c>
       <c r="B546" s="5"/>
       <c r="C546" s="13"/>
       <c r="D546" s="5"/>
@@ -9314,7 +10654,10 @@
       <c r="L546" s="5"/>
     </row>
     <row r="547" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A547" s="37"/>
+      <c r="A547" s="30">
+        <f t="shared" si="22"/>
+        <v>45680</v>
+      </c>
       <c r="B547" s="5"/>
       <c r="C547" s="13"/>
       <c r="D547" s="5"/>
@@ -9328,7 +10671,10 @@
       <c r="L547" s="5"/>
     </row>
     <row r="548" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A548" s="37"/>
+      <c r="A548" s="30">
+        <f t="shared" si="22"/>
+        <v>45680</v>
+      </c>
       <c r="B548" s="5"/>
       <c r="C548" s="13"/>
       <c r="D548" s="5"/>
@@ -9342,7 +10688,10 @@
       <c r="L548" s="5"/>
     </row>
     <row r="549" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A549" s="37"/>
+      <c r="A549" s="30">
+        <f t="shared" si="22"/>
+        <v>45680</v>
+      </c>
       <c r="B549" s="5"/>
       <c r="C549" s="13"/>
       <c r="D549" s="5"/>
@@ -9356,7 +10705,10 @@
       <c r="L549" s="5"/>
     </row>
     <row r="550" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A550" s="37"/>
+      <c r="A550" s="30">
+        <f t="shared" si="22"/>
+        <v>45680</v>
+      </c>
       <c r="B550" s="5"/>
       <c r="C550" s="13"/>
       <c r="D550" s="5"/>
@@ -9370,7 +10722,10 @@
       <c r="L550" s="5"/>
     </row>
     <row r="551" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A551" s="37"/>
+      <c r="A551" s="30">
+        <f t="shared" si="22"/>
+        <v>45680</v>
+      </c>
       <c r="B551" s="5"/>
       <c r="C551" s="13"/>
       <c r="D551" s="5"/>
@@ -9384,7 +10739,10 @@
       <c r="L551" s="5"/>
     </row>
     <row r="552" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A552" s="37"/>
+      <c r="A552" s="30">
+        <f t="shared" si="22"/>
+        <v>45680</v>
+      </c>
       <c r="B552" s="5"/>
       <c r="C552" s="13"/>
       <c r="D552" s="5"/>
@@ -9435,24 +10793,24 @@
     <row r="555" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A555" s="17" t="str">
         <f>UPPER(TEXT(A557,"DDDD"))</f>
-        <v>SÁBADO</v>
-      </c>
-      <c r="B555" s="29" t="s">
+        <v>VIERNES</v>
+      </c>
+      <c r="B555" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="C555" s="30"/>
-      <c r="D555" s="31"/>
-      <c r="H555" s="32" t="s">
+      <c r="C555" s="36"/>
+      <c r="D555" s="37"/>
+      <c r="H555" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="I555" s="33"/>
+      <c r="I555" s="32"/>
       <c r="J555" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="K555" s="34" t="s">
+      <c r="K555" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="L555" s="34" t="s">
+      <c r="L555" s="33" t="s">
         <v>9</v>
       </c>
     </row>
@@ -9487,11 +10845,14 @@
       <c r="J556" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="K556" s="35"/>
-      <c r="L556" s="35"/>
+      <c r="K556" s="34"/>
+      <c r="L556" s="34"/>
     </row>
     <row r="557" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A557" s="37"/>
+      <c r="A557" s="30">
+        <f>A533+1</f>
+        <v>45681</v>
+      </c>
       <c r="B557" s="19"/>
       <c r="C557" s="18"/>
       <c r="D557" s="19"/>
@@ -9505,7 +10866,10 @@
       <c r="L557" s="19"/>
     </row>
     <row r="558" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A558" s="37"/>
+      <c r="A558" s="30">
+        <f>A557</f>
+        <v>45681</v>
+      </c>
       <c r="B558" s="5"/>
       <c r="C558" s="13"/>
       <c r="D558" s="5"/>
@@ -9519,7 +10883,10 @@
       <c r="L558" s="5"/>
     </row>
     <row r="559" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A559" s="37"/>
+      <c r="A559" s="30">
+        <f t="shared" ref="A559:A576" si="23">A558</f>
+        <v>45681</v>
+      </c>
       <c r="B559" s="5"/>
       <c r="C559" s="13"/>
       <c r="D559" s="5"/>
@@ -9533,7 +10900,10 @@
       <c r="L559" s="5"/>
     </row>
     <row r="560" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A560" s="37"/>
+      <c r="A560" s="30">
+        <f t="shared" si="23"/>
+        <v>45681</v>
+      </c>
       <c r="B560" s="5"/>
       <c r="C560" s="13"/>
       <c r="D560" s="5"/>
@@ -9547,7 +10917,10 @@
       <c r="L560" s="5"/>
     </row>
     <row r="561" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A561" s="37"/>
+      <c r="A561" s="30">
+        <f t="shared" si="23"/>
+        <v>45681</v>
+      </c>
       <c r="B561" s="5"/>
       <c r="C561" s="13"/>
       <c r="D561" s="5"/>
@@ -9561,7 +10934,10 @@
       <c r="L561" s="5"/>
     </row>
     <row r="562" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A562" s="37"/>
+      <c r="A562" s="30">
+        <f t="shared" si="23"/>
+        <v>45681</v>
+      </c>
       <c r="B562" s="5"/>
       <c r="C562" s="13"/>
       <c r="D562" s="5"/>
@@ -9575,7 +10951,10 @@
       <c r="L562" s="5"/>
     </row>
     <row r="563" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A563" s="37"/>
+      <c r="A563" s="30">
+        <f t="shared" si="23"/>
+        <v>45681</v>
+      </c>
       <c r="B563" s="5"/>
       <c r="C563" s="13"/>
       <c r="D563" s="5"/>
@@ -9589,7 +10968,10 @@
       <c r="L563" s="5"/>
     </row>
     <row r="564" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A564" s="37"/>
+      <c r="A564" s="30">
+        <f t="shared" si="23"/>
+        <v>45681</v>
+      </c>
       <c r="B564" s="5"/>
       <c r="C564" s="13"/>
       <c r="D564" s="5"/>
@@ -9603,7 +10985,10 @@
       <c r="L564" s="5"/>
     </row>
     <row r="565" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A565" s="37"/>
+      <c r="A565" s="30">
+        <f t="shared" si="23"/>
+        <v>45681</v>
+      </c>
       <c r="B565" s="5"/>
       <c r="C565" s="13"/>
       <c r="D565" s="5"/>
@@ -9617,7 +11002,10 @@
       <c r="L565" s="5"/>
     </row>
     <row r="566" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A566" s="37"/>
+      <c r="A566" s="30">
+        <f t="shared" si="23"/>
+        <v>45681</v>
+      </c>
       <c r="B566" s="5"/>
       <c r="C566" s="13"/>
       <c r="D566" s="5"/>
@@ -9631,7 +11019,10 @@
       <c r="L566" s="5"/>
     </row>
     <row r="567" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A567" s="37"/>
+      <c r="A567" s="30">
+        <f t="shared" si="23"/>
+        <v>45681</v>
+      </c>
       <c r="B567" s="5"/>
       <c r="C567" s="13"/>
       <c r="D567" s="5"/>
@@ -9645,7 +11036,10 @@
       <c r="L567" s="5"/>
     </row>
     <row r="568" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A568" s="37"/>
+      <c r="A568" s="30">
+        <f t="shared" si="23"/>
+        <v>45681</v>
+      </c>
       <c r="B568" s="5"/>
       <c r="C568" s="13"/>
       <c r="D568" s="5"/>
@@ -9659,7 +11053,10 @@
       <c r="L568" s="5"/>
     </row>
     <row r="569" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A569" s="37"/>
+      <c r="A569" s="30">
+        <f t="shared" si="23"/>
+        <v>45681</v>
+      </c>
       <c r="B569" s="5"/>
       <c r="C569" s="13"/>
       <c r="D569" s="5"/>
@@ -9673,7 +11070,10 @@
       <c r="L569" s="5"/>
     </row>
     <row r="570" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A570" s="37"/>
+      <c r="A570" s="30">
+        <f t="shared" si="23"/>
+        <v>45681</v>
+      </c>
       <c r="B570" s="5"/>
       <c r="C570" s="13"/>
       <c r="D570" s="5"/>
@@ -9687,7 +11087,10 @@
       <c r="L570" s="5"/>
     </row>
     <row r="571" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A571" s="37"/>
+      <c r="A571" s="30">
+        <f t="shared" si="23"/>
+        <v>45681</v>
+      </c>
       <c r="B571" s="5"/>
       <c r="C571" s="13"/>
       <c r="D571" s="5"/>
@@ -9701,7 +11104,10 @@
       <c r="L571" s="5"/>
     </row>
     <row r="572" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A572" s="37"/>
+      <c r="A572" s="30">
+        <f t="shared" si="23"/>
+        <v>45681</v>
+      </c>
       <c r="B572" s="5"/>
       <c r="C572" s="13"/>
       <c r="D572" s="5"/>
@@ -9715,7 +11121,10 @@
       <c r="L572" s="5"/>
     </row>
     <row r="573" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A573" s="37"/>
+      <c r="A573" s="30">
+        <f t="shared" si="23"/>
+        <v>45681</v>
+      </c>
       <c r="B573" s="5"/>
       <c r="C573" s="13"/>
       <c r="D573" s="5"/>
@@ -9729,7 +11138,10 @@
       <c r="L573" s="5"/>
     </row>
     <row r="574" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A574" s="37"/>
+      <c r="A574" s="30">
+        <f t="shared" si="23"/>
+        <v>45681</v>
+      </c>
       <c r="B574" s="5"/>
       <c r="C574" s="13"/>
       <c r="D574" s="5"/>
@@ -9743,7 +11155,10 @@
       <c r="L574" s="5"/>
     </row>
     <row r="575" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A575" s="37"/>
+      <c r="A575" s="30">
+        <f t="shared" si="23"/>
+        <v>45681</v>
+      </c>
       <c r="B575" s="5"/>
       <c r="C575" s="13"/>
       <c r="D575" s="5"/>
@@ -9757,7 +11172,10 @@
       <c r="L575" s="5"/>
     </row>
     <row r="576" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A576" s="37"/>
+      <c r="A576" s="30">
+        <f t="shared" si="23"/>
+        <v>45681</v>
+      </c>
       <c r="B576" s="5"/>
       <c r="C576" s="13"/>
       <c r="D576" s="5"/>
@@ -9810,22 +11228,22 @@
         <f>UPPER(TEXT(A581,"DDDD"))</f>
         <v>SÁBADO</v>
       </c>
-      <c r="B579" s="29" t="s">
+      <c r="B579" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="C579" s="30"/>
-      <c r="D579" s="31"/>
-      <c r="H579" s="32" t="s">
+      <c r="C579" s="36"/>
+      <c r="D579" s="37"/>
+      <c r="H579" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="I579" s="33"/>
+      <c r="I579" s="32"/>
       <c r="J579" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="K579" s="34" t="s">
+      <c r="K579" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="L579" s="34" t="s">
+      <c r="L579" s="33" t="s">
         <v>9</v>
       </c>
     </row>
@@ -9860,11 +11278,14 @@
       <c r="J580" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="K580" s="35"/>
-      <c r="L580" s="35"/>
+      <c r="K580" s="34"/>
+      <c r="L580" s="34"/>
     </row>
     <row r="581" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A581" s="37"/>
+      <c r="A581" s="30">
+        <f>A557+1</f>
+        <v>45682</v>
+      </c>
       <c r="B581" s="19"/>
       <c r="C581" s="18"/>
       <c r="D581" s="19"/>
@@ -9878,7 +11299,10 @@
       <c r="L581" s="19"/>
     </row>
     <row r="582" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A582" s="37"/>
+      <c r="A582" s="30">
+        <f>A581</f>
+        <v>45682</v>
+      </c>
       <c r="B582" s="5"/>
       <c r="C582" s="13"/>
       <c r="D582" s="5"/>
@@ -9892,7 +11316,10 @@
       <c r="L582" s="5"/>
     </row>
     <row r="583" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A583" s="37"/>
+      <c r="A583" s="30">
+        <f t="shared" ref="A583:A600" si="24">A582</f>
+        <v>45682</v>
+      </c>
       <c r="B583" s="5"/>
       <c r="C583" s="13"/>
       <c r="D583" s="5"/>
@@ -9906,7 +11333,10 @@
       <c r="L583" s="5"/>
     </row>
     <row r="584" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A584" s="37"/>
+      <c r="A584" s="30">
+        <f t="shared" si="24"/>
+        <v>45682</v>
+      </c>
       <c r="B584" s="5"/>
       <c r="C584" s="13"/>
       <c r="D584" s="5"/>
@@ -9920,7 +11350,10 @@
       <c r="L584" s="5"/>
     </row>
     <row r="585" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A585" s="37"/>
+      <c r="A585" s="30">
+        <f t="shared" si="24"/>
+        <v>45682</v>
+      </c>
       <c r="B585" s="5"/>
       <c r="C585" s="13"/>
       <c r="D585" s="5"/>
@@ -9934,7 +11367,10 @@
       <c r="L585" s="5"/>
     </row>
     <row r="586" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A586" s="37"/>
+      <c r="A586" s="30">
+        <f t="shared" si="24"/>
+        <v>45682</v>
+      </c>
       <c r="B586" s="5"/>
       <c r="C586" s="13"/>
       <c r="D586" s="5"/>
@@ -9948,7 +11384,10 @@
       <c r="L586" s="5"/>
     </row>
     <row r="587" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A587" s="37"/>
+      <c r="A587" s="30">
+        <f t="shared" si="24"/>
+        <v>45682</v>
+      </c>
       <c r="B587" s="5"/>
       <c r="C587" s="13"/>
       <c r="D587" s="5"/>
@@ -9962,7 +11401,10 @@
       <c r="L587" s="5"/>
     </row>
     <row r="588" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A588" s="37"/>
+      <c r="A588" s="30">
+        <f t="shared" si="24"/>
+        <v>45682</v>
+      </c>
       <c r="B588" s="5"/>
       <c r="C588" s="13"/>
       <c r="D588" s="5"/>
@@ -9976,7 +11418,10 @@
       <c r="L588" s="5"/>
     </row>
     <row r="589" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A589" s="37"/>
+      <c r="A589" s="30">
+        <f t="shared" si="24"/>
+        <v>45682</v>
+      </c>
       <c r="B589" s="5"/>
       <c r="C589" s="13"/>
       <c r="D589" s="5"/>
@@ -9990,7 +11435,10 @@
       <c r="L589" s="5"/>
     </row>
     <row r="590" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A590" s="37"/>
+      <c r="A590" s="30">
+        <f t="shared" si="24"/>
+        <v>45682</v>
+      </c>
       <c r="B590" s="5"/>
       <c r="C590" s="13"/>
       <c r="D590" s="5"/>
@@ -10004,7 +11452,10 @@
       <c r="L590" s="5"/>
     </row>
     <row r="591" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A591" s="37"/>
+      <c r="A591" s="30">
+        <f t="shared" si="24"/>
+        <v>45682</v>
+      </c>
       <c r="B591" s="5"/>
       <c r="C591" s="13"/>
       <c r="D591" s="5"/>
@@ -10018,7 +11469,10 @@
       <c r="L591" s="5"/>
     </row>
     <row r="592" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A592" s="37"/>
+      <c r="A592" s="30">
+        <f t="shared" si="24"/>
+        <v>45682</v>
+      </c>
       <c r="B592" s="5"/>
       <c r="C592" s="13"/>
       <c r="D592" s="5"/>
@@ -10032,7 +11486,10 @@
       <c r="L592" s="5"/>
     </row>
     <row r="593" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A593" s="37"/>
+      <c r="A593" s="30">
+        <f t="shared" si="24"/>
+        <v>45682</v>
+      </c>
       <c r="B593" s="5"/>
       <c r="C593" s="13"/>
       <c r="D593" s="5"/>
@@ -10046,7 +11503,10 @@
       <c r="L593" s="5"/>
     </row>
     <row r="594" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A594" s="37"/>
+      <c r="A594" s="30">
+        <f t="shared" si="24"/>
+        <v>45682</v>
+      </c>
       <c r="B594" s="5"/>
       <c r="C594" s="13"/>
       <c r="D594" s="5"/>
@@ -10060,7 +11520,10 @@
       <c r="L594" s="5"/>
     </row>
     <row r="595" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A595" s="37"/>
+      <c r="A595" s="30">
+        <f t="shared" si="24"/>
+        <v>45682</v>
+      </c>
       <c r="B595" s="5"/>
       <c r="C595" s="13"/>
       <c r="D595" s="5"/>
@@ -10074,7 +11537,10 @@
       <c r="L595" s="5"/>
     </row>
     <row r="596" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A596" s="37"/>
+      <c r="A596" s="30">
+        <f t="shared" si="24"/>
+        <v>45682</v>
+      </c>
       <c r="B596" s="5"/>
       <c r="C596" s="13"/>
       <c r="D596" s="5"/>
@@ -10088,7 +11554,10 @@
       <c r="L596" s="5"/>
     </row>
     <row r="597" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A597" s="37"/>
+      <c r="A597" s="30">
+        <f t="shared" si="24"/>
+        <v>45682</v>
+      </c>
       <c r="B597" s="5"/>
       <c r="C597" s="13"/>
       <c r="D597" s="5"/>
@@ -10102,7 +11571,10 @@
       <c r="L597" s="5"/>
     </row>
     <row r="598" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A598" s="37"/>
+      <c r="A598" s="30">
+        <f t="shared" si="24"/>
+        <v>45682</v>
+      </c>
       <c r="B598" s="5"/>
       <c r="C598" s="13"/>
       <c r="D598" s="5"/>
@@ -10116,7 +11588,10 @@
       <c r="L598" s="5"/>
     </row>
     <row r="599" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A599" s="37"/>
+      <c r="A599" s="30">
+        <f t="shared" si="24"/>
+        <v>45682</v>
+      </c>
       <c r="B599" s="5"/>
       <c r="C599" s="13"/>
       <c r="D599" s="5"/>
@@ -10130,7 +11605,10 @@
       <c r="L599" s="5"/>
     </row>
     <row r="600" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A600" s="37"/>
+      <c r="A600" s="30">
+        <f t="shared" si="24"/>
+        <v>45682</v>
+      </c>
       <c r="B600" s="5"/>
       <c r="C600" s="13"/>
       <c r="D600" s="5"/>
@@ -10181,24 +11659,24 @@
     <row r="603" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A603" s="17" t="str">
         <f>UPPER(TEXT(A605,"DDDD"))</f>
-        <v>SÁBADO</v>
-      </c>
-      <c r="B603" s="29" t="s">
+        <v>DOMINGO</v>
+      </c>
+      <c r="B603" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="C603" s="30"/>
-      <c r="D603" s="31"/>
-      <c r="H603" s="32" t="s">
+      <c r="C603" s="36"/>
+      <c r="D603" s="37"/>
+      <c r="H603" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="I603" s="33"/>
+      <c r="I603" s="32"/>
       <c r="J603" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="K603" s="34" t="s">
+      <c r="K603" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="L603" s="34" t="s">
+      <c r="L603" s="33" t="s">
         <v>9</v>
       </c>
     </row>
@@ -10233,11 +11711,14 @@
       <c r="J604" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="K604" s="35"/>
-      <c r="L604" s="35"/>
+      <c r="K604" s="34"/>
+      <c r="L604" s="34"/>
     </row>
     <row r="605" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A605" s="37"/>
+      <c r="A605" s="30">
+        <f>A581+1</f>
+        <v>45683</v>
+      </c>
       <c r="B605" s="19"/>
       <c r="C605" s="18"/>
       <c r="D605" s="19"/>
@@ -10251,7 +11732,10 @@
       <c r="L605" s="19"/>
     </row>
     <row r="606" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A606" s="37"/>
+      <c r="A606" s="30">
+        <f>A605</f>
+        <v>45683</v>
+      </c>
       <c r="B606" s="5"/>
       <c r="C606" s="13"/>
       <c r="D606" s="5"/>
@@ -10265,7 +11749,10 @@
       <c r="L606" s="5"/>
     </row>
     <row r="607" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A607" s="37"/>
+      <c r="A607" s="30">
+        <f t="shared" ref="A607:A624" si="25">A606</f>
+        <v>45683</v>
+      </c>
       <c r="B607" s="5"/>
       <c r="C607" s="13"/>
       <c r="D607" s="5"/>
@@ -10279,7 +11766,10 @@
       <c r="L607" s="5"/>
     </row>
     <row r="608" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A608" s="37"/>
+      <c r="A608" s="30">
+        <f t="shared" si="25"/>
+        <v>45683</v>
+      </c>
       <c r="B608" s="5"/>
       <c r="C608" s="13"/>
       <c r="D608" s="5"/>
@@ -10293,7 +11783,10 @@
       <c r="L608" s="5"/>
     </row>
     <row r="609" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A609" s="37"/>
+      <c r="A609" s="30">
+        <f t="shared" si="25"/>
+        <v>45683</v>
+      </c>
       <c r="B609" s="5"/>
       <c r="C609" s="13"/>
       <c r="D609" s="5"/>
@@ -10307,7 +11800,10 @@
       <c r="L609" s="5"/>
     </row>
     <row r="610" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A610" s="37"/>
+      <c r="A610" s="30">
+        <f t="shared" si="25"/>
+        <v>45683</v>
+      </c>
       <c r="B610" s="5"/>
       <c r="C610" s="13"/>
       <c r="D610" s="5"/>
@@ -10321,7 +11817,10 @@
       <c r="L610" s="5"/>
     </row>
     <row r="611" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A611" s="37"/>
+      <c r="A611" s="30">
+        <f t="shared" si="25"/>
+        <v>45683</v>
+      </c>
       <c r="B611" s="5"/>
       <c r="C611" s="13"/>
       <c r="D611" s="5"/>
@@ -10335,7 +11834,10 @@
       <c r="L611" s="5"/>
     </row>
     <row r="612" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A612" s="37"/>
+      <c r="A612" s="30">
+        <f t="shared" si="25"/>
+        <v>45683</v>
+      </c>
       <c r="B612" s="5"/>
       <c r="C612" s="13"/>
       <c r="D612" s="5"/>
@@ -10349,7 +11851,10 @@
       <c r="L612" s="5"/>
     </row>
     <row r="613" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A613" s="37"/>
+      <c r="A613" s="30">
+        <f t="shared" si="25"/>
+        <v>45683</v>
+      </c>
       <c r="B613" s="5"/>
       <c r="C613" s="13"/>
       <c r="D613" s="5"/>
@@ -10363,7 +11868,10 @@
       <c r="L613" s="5"/>
     </row>
     <row r="614" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A614" s="37"/>
+      <c r="A614" s="30">
+        <f t="shared" si="25"/>
+        <v>45683</v>
+      </c>
       <c r="B614" s="5"/>
       <c r="C614" s="13"/>
       <c r="D614" s="5"/>
@@ -10377,7 +11885,10 @@
       <c r="L614" s="5"/>
     </row>
     <row r="615" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A615" s="37"/>
+      <c r="A615" s="30">
+        <f t="shared" si="25"/>
+        <v>45683</v>
+      </c>
       <c r="B615" s="5"/>
       <c r="C615" s="13"/>
       <c r="D615" s="5"/>
@@ -10391,7 +11902,10 @@
       <c r="L615" s="5"/>
     </row>
     <row r="616" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A616" s="37"/>
+      <c r="A616" s="30">
+        <f t="shared" si="25"/>
+        <v>45683</v>
+      </c>
       <c r="B616" s="5"/>
       <c r="C616" s="13"/>
       <c r="D616" s="5"/>
@@ -10405,7 +11919,10 @@
       <c r="L616" s="5"/>
     </row>
     <row r="617" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A617" s="37"/>
+      <c r="A617" s="30">
+        <f t="shared" si="25"/>
+        <v>45683</v>
+      </c>
       <c r="B617" s="5"/>
       <c r="C617" s="13"/>
       <c r="D617" s="5"/>
@@ -10419,7 +11936,10 @@
       <c r="L617" s="5"/>
     </row>
     <row r="618" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A618" s="37"/>
+      <c r="A618" s="30">
+        <f t="shared" si="25"/>
+        <v>45683</v>
+      </c>
       <c r="B618" s="5"/>
       <c r="C618" s="13"/>
       <c r="D618" s="5"/>
@@ -10433,7 +11953,10 @@
       <c r="L618" s="5"/>
     </row>
     <row r="619" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A619" s="37"/>
+      <c r="A619" s="30">
+        <f t="shared" si="25"/>
+        <v>45683</v>
+      </c>
       <c r="B619" s="5"/>
       <c r="C619" s="13"/>
       <c r="D619" s="5"/>
@@ -10447,7 +11970,10 @@
       <c r="L619" s="5"/>
     </row>
     <row r="620" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A620" s="37"/>
+      <c r="A620" s="30">
+        <f t="shared" si="25"/>
+        <v>45683</v>
+      </c>
       <c r="B620" s="5"/>
       <c r="C620" s="13"/>
       <c r="D620" s="5"/>
@@ -10461,7 +11987,10 @@
       <c r="L620" s="5"/>
     </row>
     <row r="621" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A621" s="37"/>
+      <c r="A621" s="30">
+        <f t="shared" si="25"/>
+        <v>45683</v>
+      </c>
       <c r="B621" s="5"/>
       <c r="C621" s="13"/>
       <c r="D621" s="5"/>
@@ -10475,7 +12004,10 @@
       <c r="L621" s="5"/>
     </row>
     <row r="622" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A622" s="37"/>
+      <c r="A622" s="30">
+        <f t="shared" si="25"/>
+        <v>45683</v>
+      </c>
       <c r="B622" s="5"/>
       <c r="C622" s="13"/>
       <c r="D622" s="5"/>
@@ -10489,7 +12021,10 @@
       <c r="L622" s="5"/>
     </row>
     <row r="623" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A623" s="37"/>
+      <c r="A623" s="30">
+        <f t="shared" si="25"/>
+        <v>45683</v>
+      </c>
       <c r="B623" s="5"/>
       <c r="C623" s="13"/>
       <c r="D623" s="5"/>
@@ -10503,7 +12038,10 @@
       <c r="L623" s="5"/>
     </row>
     <row r="624" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A624" s="37"/>
+      <c r="A624" s="30">
+        <f t="shared" si="25"/>
+        <v>45683</v>
+      </c>
       <c r="B624" s="5"/>
       <c r="C624" s="13"/>
       <c r="D624" s="5"/>
@@ -10554,24 +12092,24 @@
     <row r="627" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A627" s="17" t="str">
         <f>UPPER(TEXT(A629,"DDDD"))</f>
-        <v>SÁBADO</v>
-      </c>
-      <c r="B627" s="29" t="s">
+        <v>LUNES</v>
+      </c>
+      <c r="B627" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="C627" s="30"/>
-      <c r="D627" s="31"/>
-      <c r="H627" s="32" t="s">
+      <c r="C627" s="36"/>
+      <c r="D627" s="37"/>
+      <c r="H627" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="I627" s="33"/>
+      <c r="I627" s="32"/>
       <c r="J627" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="K627" s="34" t="s">
+      <c r="K627" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="L627" s="34" t="s">
+      <c r="L627" s="33" t="s">
         <v>9</v>
       </c>
     </row>
@@ -10606,11 +12144,14 @@
       <c r="J628" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="K628" s="35"/>
-      <c r="L628" s="35"/>
+      <c r="K628" s="34"/>
+      <c r="L628" s="34"/>
     </row>
     <row r="629" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A629" s="37"/>
+      <c r="A629" s="30">
+        <f>A605+1</f>
+        <v>45684</v>
+      </c>
       <c r="B629" s="19"/>
       <c r="C629" s="18"/>
       <c r="D629" s="19"/>
@@ -10624,7 +12165,10 @@
       <c r="L629" s="19"/>
     </row>
     <row r="630" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A630" s="37"/>
+      <c r="A630" s="30">
+        <f>A629</f>
+        <v>45684</v>
+      </c>
       <c r="B630" s="5"/>
       <c r="C630" s="13"/>
       <c r="D630" s="5"/>
@@ -10638,7 +12182,10 @@
       <c r="L630" s="5"/>
     </row>
     <row r="631" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A631" s="37"/>
+      <c r="A631" s="30">
+        <f t="shared" ref="A631:A648" si="26">A630</f>
+        <v>45684</v>
+      </c>
       <c r="B631" s="5"/>
       <c r="C631" s="13"/>
       <c r="D631" s="5"/>
@@ -10652,7 +12199,10 @@
       <c r="L631" s="5"/>
     </row>
     <row r="632" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A632" s="37"/>
+      <c r="A632" s="30">
+        <f t="shared" si="26"/>
+        <v>45684</v>
+      </c>
       <c r="B632" s="5"/>
       <c r="C632" s="13"/>
       <c r="D632" s="5"/>
@@ -10666,7 +12216,10 @@
       <c r="L632" s="5"/>
     </row>
     <row r="633" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A633" s="37"/>
+      <c r="A633" s="30">
+        <f t="shared" si="26"/>
+        <v>45684</v>
+      </c>
       <c r="B633" s="5"/>
       <c r="C633" s="13"/>
       <c r="D633" s="5"/>
@@ -10680,7 +12233,10 @@
       <c r="L633" s="5"/>
     </row>
     <row r="634" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A634" s="37"/>
+      <c r="A634" s="30">
+        <f t="shared" si="26"/>
+        <v>45684</v>
+      </c>
       <c r="B634" s="5"/>
       <c r="C634" s="13"/>
       <c r="D634" s="5"/>
@@ -10694,7 +12250,10 @@
       <c r="L634" s="5"/>
     </row>
     <row r="635" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A635" s="37"/>
+      <c r="A635" s="30">
+        <f t="shared" si="26"/>
+        <v>45684</v>
+      </c>
       <c r="B635" s="5"/>
       <c r="C635" s="13"/>
       <c r="D635" s="5"/>
@@ -10708,7 +12267,10 @@
       <c r="L635" s="5"/>
     </row>
     <row r="636" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A636" s="37"/>
+      <c r="A636" s="30">
+        <f t="shared" si="26"/>
+        <v>45684</v>
+      </c>
       <c r="B636" s="5"/>
       <c r="C636" s="13"/>
       <c r="D636" s="5"/>
@@ -10722,7 +12284,10 @@
       <c r="L636" s="5"/>
     </row>
     <row r="637" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A637" s="37"/>
+      <c r="A637" s="30">
+        <f t="shared" si="26"/>
+        <v>45684</v>
+      </c>
       <c r="B637" s="5"/>
       <c r="C637" s="13"/>
       <c r="D637" s="5"/>
@@ -10736,7 +12301,10 @@
       <c r="L637" s="5"/>
     </row>
     <row r="638" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A638" s="37"/>
+      <c r="A638" s="30">
+        <f t="shared" si="26"/>
+        <v>45684</v>
+      </c>
       <c r="B638" s="5"/>
       <c r="C638" s="13"/>
       <c r="D638" s="5"/>
@@ -10750,7 +12318,10 @@
       <c r="L638" s="5"/>
     </row>
     <row r="639" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A639" s="37"/>
+      <c r="A639" s="30">
+        <f t="shared" si="26"/>
+        <v>45684</v>
+      </c>
       <c r="B639" s="5"/>
       <c r="C639" s="13"/>
       <c r="D639" s="5"/>
@@ -10764,7 +12335,10 @@
       <c r="L639" s="5"/>
     </row>
     <row r="640" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A640" s="37"/>
+      <c r="A640" s="30">
+        <f t="shared" si="26"/>
+        <v>45684</v>
+      </c>
       <c r="B640" s="5"/>
       <c r="C640" s="13"/>
       <c r="D640" s="5"/>
@@ -10778,7 +12352,10 @@
       <c r="L640" s="5"/>
     </row>
     <row r="641" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A641" s="37"/>
+      <c r="A641" s="30">
+        <f t="shared" si="26"/>
+        <v>45684</v>
+      </c>
       <c r="B641" s="5"/>
       <c r="C641" s="13"/>
       <c r="D641" s="5"/>
@@ -10792,7 +12369,10 @@
       <c r="L641" s="5"/>
     </row>
     <row r="642" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A642" s="37"/>
+      <c r="A642" s="30">
+        <f t="shared" si="26"/>
+        <v>45684</v>
+      </c>
       <c r="B642" s="5"/>
       <c r="C642" s="13"/>
       <c r="D642" s="5"/>
@@ -10806,7 +12386,10 @@
       <c r="L642" s="5"/>
     </row>
     <row r="643" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A643" s="37"/>
+      <c r="A643" s="30">
+        <f t="shared" si="26"/>
+        <v>45684</v>
+      </c>
       <c r="B643" s="5"/>
       <c r="C643" s="13"/>
       <c r="D643" s="5"/>
@@ -10820,7 +12403,10 @@
       <c r="L643" s="5"/>
     </row>
     <row r="644" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A644" s="37"/>
+      <c r="A644" s="30">
+        <f t="shared" si="26"/>
+        <v>45684</v>
+      </c>
       <c r="B644" s="5"/>
       <c r="C644" s="13"/>
       <c r="D644" s="5"/>
@@ -10834,7 +12420,10 @@
       <c r="L644" s="5"/>
     </row>
     <row r="645" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A645" s="37"/>
+      <c r="A645" s="30">
+        <f t="shared" si="26"/>
+        <v>45684</v>
+      </c>
       <c r="B645" s="5"/>
       <c r="C645" s="13"/>
       <c r="D645" s="5"/>
@@ -10848,7 +12437,10 @@
       <c r="L645" s="5"/>
     </row>
     <row r="646" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A646" s="37"/>
+      <c r="A646" s="30">
+        <f t="shared" si="26"/>
+        <v>45684</v>
+      </c>
       <c r="B646" s="5"/>
       <c r="C646" s="13"/>
       <c r="D646" s="5"/>
@@ -10862,7 +12454,10 @@
       <c r="L646" s="5"/>
     </row>
     <row r="647" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A647" s="37"/>
+      <c r="A647" s="30">
+        <f t="shared" si="26"/>
+        <v>45684</v>
+      </c>
       <c r="B647" s="5"/>
       <c r="C647" s="13"/>
       <c r="D647" s="5"/>
@@ -10876,7 +12471,10 @@
       <c r="L647" s="5"/>
     </row>
     <row r="648" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A648" s="37"/>
+      <c r="A648" s="30">
+        <f t="shared" si="26"/>
+        <v>45684</v>
+      </c>
       <c r="B648" s="5"/>
       <c r="C648" s="13"/>
       <c r="D648" s="5"/>
@@ -10927,24 +12525,24 @@
     <row r="651" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A651" s="17" t="str">
         <f>UPPER(TEXT(A653,"DDDD"))</f>
-        <v>SÁBADO</v>
-      </c>
-      <c r="B651" s="29" t="s">
+        <v>MARTES</v>
+      </c>
+      <c r="B651" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="C651" s="30"/>
-      <c r="D651" s="31"/>
-      <c r="H651" s="32" t="s">
+      <c r="C651" s="36"/>
+      <c r="D651" s="37"/>
+      <c r="H651" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="I651" s="33"/>
+      <c r="I651" s="32"/>
       <c r="J651" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="K651" s="34" t="s">
+      <c r="K651" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="L651" s="34" t="s">
+      <c r="L651" s="33" t="s">
         <v>9</v>
       </c>
     </row>
@@ -10979,11 +12577,14 @@
       <c r="J652" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="K652" s="35"/>
-      <c r="L652" s="35"/>
+      <c r="K652" s="34"/>
+      <c r="L652" s="34"/>
     </row>
     <row r="653" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A653" s="37"/>
+      <c r="A653" s="30">
+        <f>A629+1</f>
+        <v>45685</v>
+      </c>
       <c r="B653" s="19"/>
       <c r="C653" s="18"/>
       <c r="D653" s="19"/>
@@ -10997,7 +12598,10 @@
       <c r="L653" s="19"/>
     </row>
     <row r="654" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A654" s="37"/>
+      <c r="A654" s="30">
+        <f>A653</f>
+        <v>45685</v>
+      </c>
       <c r="B654" s="5"/>
       <c r="C654" s="13"/>
       <c r="D654" s="5"/>
@@ -11011,7 +12615,10 @@
       <c r="L654" s="5"/>
     </row>
     <row r="655" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A655" s="37"/>
+      <c r="A655" s="30">
+        <f t="shared" ref="A655:A672" si="27">A654</f>
+        <v>45685</v>
+      </c>
       <c r="B655" s="5"/>
       <c r="C655" s="13"/>
       <c r="D655" s="5"/>
@@ -11025,7 +12632,10 @@
       <c r="L655" s="5"/>
     </row>
     <row r="656" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A656" s="37"/>
+      <c r="A656" s="30">
+        <f t="shared" si="27"/>
+        <v>45685</v>
+      </c>
       <c r="B656" s="5"/>
       <c r="C656" s="13"/>
       <c r="D656" s="5"/>
@@ -11039,7 +12649,10 @@
       <c r="L656" s="5"/>
     </row>
     <row r="657" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A657" s="37"/>
+      <c r="A657" s="30">
+        <f t="shared" si="27"/>
+        <v>45685</v>
+      </c>
       <c r="B657" s="5"/>
       <c r="C657" s="13"/>
       <c r="D657" s="5"/>
@@ -11053,7 +12666,10 @@
       <c r="L657" s="5"/>
     </row>
     <row r="658" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A658" s="37"/>
+      <c r="A658" s="30">
+        <f t="shared" si="27"/>
+        <v>45685</v>
+      </c>
       <c r="B658" s="5"/>
       <c r="C658" s="13"/>
       <c r="D658" s="5"/>
@@ -11067,7 +12683,10 @@
       <c r="L658" s="5"/>
     </row>
     <row r="659" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A659" s="37"/>
+      <c r="A659" s="30">
+        <f t="shared" si="27"/>
+        <v>45685</v>
+      </c>
       <c r="B659" s="5"/>
       <c r="C659" s="13"/>
       <c r="D659" s="5"/>
@@ -11081,7 +12700,10 @@
       <c r="L659" s="5"/>
     </row>
     <row r="660" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A660" s="37"/>
+      <c r="A660" s="30">
+        <f t="shared" si="27"/>
+        <v>45685</v>
+      </c>
       <c r="B660" s="5"/>
       <c r="C660" s="13"/>
       <c r="D660" s="5"/>
@@ -11095,7 +12717,10 @@
       <c r="L660" s="5"/>
     </row>
     <row r="661" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A661" s="37"/>
+      <c r="A661" s="30">
+        <f t="shared" si="27"/>
+        <v>45685</v>
+      </c>
       <c r="B661" s="5"/>
       <c r="C661" s="13"/>
       <c r="D661" s="5"/>
@@ -11109,7 +12734,10 @@
       <c r="L661" s="5"/>
     </row>
     <row r="662" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A662" s="37"/>
+      <c r="A662" s="30">
+        <f t="shared" si="27"/>
+        <v>45685</v>
+      </c>
       <c r="B662" s="5"/>
       <c r="C662" s="13"/>
       <c r="D662" s="5"/>
@@ -11123,7 +12751,10 @@
       <c r="L662" s="5"/>
     </row>
     <row r="663" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A663" s="37"/>
+      <c r="A663" s="30">
+        <f t="shared" si="27"/>
+        <v>45685</v>
+      </c>
       <c r="B663" s="5"/>
       <c r="C663" s="13"/>
       <c r="D663" s="5"/>
@@ -11137,7 +12768,10 @@
       <c r="L663" s="5"/>
     </row>
     <row r="664" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A664" s="37"/>
+      <c r="A664" s="30">
+        <f t="shared" si="27"/>
+        <v>45685</v>
+      </c>
       <c r="B664" s="5"/>
       <c r="C664" s="13"/>
       <c r="D664" s="5"/>
@@ -11151,7 +12785,10 @@
       <c r="L664" s="5"/>
     </row>
     <row r="665" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A665" s="37"/>
+      <c r="A665" s="30">
+        <f t="shared" si="27"/>
+        <v>45685</v>
+      </c>
       <c r="B665" s="5"/>
       <c r="C665" s="13"/>
       <c r="D665" s="5"/>
@@ -11165,7 +12802,10 @@
       <c r="L665" s="5"/>
     </row>
     <row r="666" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A666" s="37"/>
+      <c r="A666" s="30">
+        <f t="shared" si="27"/>
+        <v>45685</v>
+      </c>
       <c r="B666" s="5"/>
       <c r="C666" s="13"/>
       <c r="D666" s="5"/>
@@ -11179,7 +12819,10 @@
       <c r="L666" s="5"/>
     </row>
     <row r="667" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A667" s="37"/>
+      <c r="A667" s="30">
+        <f t="shared" si="27"/>
+        <v>45685</v>
+      </c>
       <c r="B667" s="5"/>
       <c r="C667" s="13"/>
       <c r="D667" s="5"/>
@@ -11193,7 +12836,10 @@
       <c r="L667" s="5"/>
     </row>
     <row r="668" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A668" s="37"/>
+      <c r="A668" s="30">
+        <f t="shared" si="27"/>
+        <v>45685</v>
+      </c>
       <c r="B668" s="5"/>
       <c r="C668" s="13"/>
       <c r="D668" s="5"/>
@@ -11207,7 +12853,10 @@
       <c r="L668" s="5"/>
     </row>
     <row r="669" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A669" s="37"/>
+      <c r="A669" s="30">
+        <f t="shared" si="27"/>
+        <v>45685</v>
+      </c>
       <c r="B669" s="5"/>
       <c r="C669" s="13"/>
       <c r="D669" s="5"/>
@@ -11221,7 +12870,10 @@
       <c r="L669" s="5"/>
     </row>
     <row r="670" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A670" s="37"/>
+      <c r="A670" s="30">
+        <f t="shared" si="27"/>
+        <v>45685</v>
+      </c>
       <c r="B670" s="5"/>
       <c r="C670" s="13"/>
       <c r="D670" s="5"/>
@@ -11235,7 +12887,10 @@
       <c r="L670" s="5"/>
     </row>
     <row r="671" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A671" s="37"/>
+      <c r="A671" s="30">
+        <f t="shared" si="27"/>
+        <v>45685</v>
+      </c>
       <c r="B671" s="5"/>
       <c r="C671" s="13"/>
       <c r="D671" s="5"/>
@@ -11249,7 +12904,10 @@
       <c r="L671" s="5"/>
     </row>
     <row r="672" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A672" s="37"/>
+      <c r="A672" s="30">
+        <f t="shared" si="27"/>
+        <v>45685</v>
+      </c>
       <c r="B672" s="5"/>
       <c r="C672" s="13"/>
       <c r="D672" s="5"/>
@@ -11300,24 +12958,24 @@
     <row r="675" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A675" s="17" t="str">
         <f>UPPER(TEXT(A677,"DDDD"))</f>
-        <v>SÁBADO</v>
-      </c>
-      <c r="B675" s="29" t="s">
+        <v>MIÉRCOLES</v>
+      </c>
+      <c r="B675" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="C675" s="30"/>
-      <c r="D675" s="31"/>
-      <c r="H675" s="32" t="s">
+      <c r="C675" s="36"/>
+      <c r="D675" s="37"/>
+      <c r="H675" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="I675" s="33"/>
+      <c r="I675" s="32"/>
       <c r="J675" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="K675" s="34" t="s">
+      <c r="K675" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="L675" s="34" t="s">
+      <c r="L675" s="33" t="s">
         <v>9</v>
       </c>
     </row>
@@ -11352,11 +13010,14 @@
       <c r="J676" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="K676" s="35"/>
-      <c r="L676" s="35"/>
+      <c r="K676" s="34"/>
+      <c r="L676" s="34"/>
     </row>
     <row r="677" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A677" s="37"/>
+      <c r="A677" s="30">
+        <f>A653+1</f>
+        <v>45686</v>
+      </c>
       <c r="B677" s="19"/>
       <c r="C677" s="18"/>
       <c r="D677" s="19"/>
@@ -11370,7 +13031,10 @@
       <c r="L677" s="19"/>
     </row>
     <row r="678" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A678" s="37"/>
+      <c r="A678" s="30">
+        <f>A677</f>
+        <v>45686</v>
+      </c>
       <c r="B678" s="5"/>
       <c r="C678" s="13"/>
       <c r="D678" s="5"/>
@@ -11384,7 +13048,10 @@
       <c r="L678" s="5"/>
     </row>
     <row r="679" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A679" s="37"/>
+      <c r="A679" s="30">
+        <f t="shared" ref="A679:A696" si="28">A678</f>
+        <v>45686</v>
+      </c>
       <c r="B679" s="5"/>
       <c r="C679" s="13"/>
       <c r="D679" s="5"/>
@@ -11398,7 +13065,10 @@
       <c r="L679" s="5"/>
     </row>
     <row r="680" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A680" s="37"/>
+      <c r="A680" s="30">
+        <f t="shared" si="28"/>
+        <v>45686</v>
+      </c>
       <c r="B680" s="5"/>
       <c r="C680" s="13"/>
       <c r="D680" s="5"/>
@@ -11412,7 +13082,10 @@
       <c r="L680" s="5"/>
     </row>
     <row r="681" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A681" s="37"/>
+      <c r="A681" s="30">
+        <f t="shared" si="28"/>
+        <v>45686</v>
+      </c>
       <c r="B681" s="5"/>
       <c r="C681" s="13"/>
       <c r="D681" s="5"/>
@@ -11426,7 +13099,10 @@
       <c r="L681" s="5"/>
     </row>
     <row r="682" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A682" s="37"/>
+      <c r="A682" s="30">
+        <f t="shared" si="28"/>
+        <v>45686</v>
+      </c>
       <c r="B682" s="5"/>
       <c r="C682" s="13"/>
       <c r="D682" s="5"/>
@@ -11440,7 +13116,10 @@
       <c r="L682" s="5"/>
     </row>
     <row r="683" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A683" s="37"/>
+      <c r="A683" s="30">
+        <f t="shared" si="28"/>
+        <v>45686</v>
+      </c>
       <c r="B683" s="5"/>
       <c r="C683" s="13"/>
       <c r="D683" s="5"/>
@@ -11454,7 +13133,10 @@
       <c r="L683" s="5"/>
     </row>
     <row r="684" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A684" s="37"/>
+      <c r="A684" s="30">
+        <f t="shared" si="28"/>
+        <v>45686</v>
+      </c>
       <c r="B684" s="5"/>
       <c r="C684" s="13"/>
       <c r="D684" s="5"/>
@@ -11468,7 +13150,10 @@
       <c r="L684" s="5"/>
     </row>
     <row r="685" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A685" s="37"/>
+      <c r="A685" s="30">
+        <f t="shared" si="28"/>
+        <v>45686</v>
+      </c>
       <c r="B685" s="5"/>
       <c r="C685" s="13"/>
       <c r="D685" s="5"/>
@@ -11482,7 +13167,10 @@
       <c r="L685" s="5"/>
     </row>
     <row r="686" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A686" s="37"/>
+      <c r="A686" s="30">
+        <f t="shared" si="28"/>
+        <v>45686</v>
+      </c>
       <c r="B686" s="5"/>
       <c r="C686" s="13"/>
       <c r="D686" s="5"/>
@@ -11496,7 +13184,10 @@
       <c r="L686" s="5"/>
     </row>
     <row r="687" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A687" s="37"/>
+      <c r="A687" s="30">
+        <f t="shared" si="28"/>
+        <v>45686</v>
+      </c>
       <c r="B687" s="5"/>
       <c r="C687" s="13"/>
       <c r="D687" s="5"/>
@@ -11510,7 +13201,10 @@
       <c r="L687" s="5"/>
     </row>
     <row r="688" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A688" s="37"/>
+      <c r="A688" s="30">
+        <f t="shared" si="28"/>
+        <v>45686</v>
+      </c>
       <c r="B688" s="5"/>
       <c r="C688" s="13"/>
       <c r="D688" s="5"/>
@@ -11524,7 +13218,10 @@
       <c r="L688" s="5"/>
     </row>
     <row r="689" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A689" s="37"/>
+      <c r="A689" s="30">
+        <f t="shared" si="28"/>
+        <v>45686</v>
+      </c>
       <c r="B689" s="5"/>
       <c r="C689" s="13"/>
       <c r="D689" s="5"/>
@@ -11538,7 +13235,10 @@
       <c r="L689" s="5"/>
     </row>
     <row r="690" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A690" s="37"/>
+      <c r="A690" s="30">
+        <f t="shared" si="28"/>
+        <v>45686</v>
+      </c>
       <c r="B690" s="5"/>
       <c r="C690" s="13"/>
       <c r="D690" s="5"/>
@@ -11552,7 +13252,10 @@
       <c r="L690" s="5"/>
     </row>
     <row r="691" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A691" s="37"/>
+      <c r="A691" s="30">
+        <f t="shared" si="28"/>
+        <v>45686</v>
+      </c>
       <c r="B691" s="5"/>
       <c r="C691" s="13"/>
       <c r="D691" s="5"/>
@@ -11566,7 +13269,10 @@
       <c r="L691" s="5"/>
     </row>
     <row r="692" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A692" s="37"/>
+      <c r="A692" s="30">
+        <f t="shared" si="28"/>
+        <v>45686</v>
+      </c>
       <c r="B692" s="5"/>
       <c r="C692" s="13"/>
       <c r="D692" s="5"/>
@@ -11580,7 +13286,10 @@
       <c r="L692" s="5"/>
     </row>
     <row r="693" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A693" s="37"/>
+      <c r="A693" s="30">
+        <f t="shared" si="28"/>
+        <v>45686</v>
+      </c>
       <c r="B693" s="5"/>
       <c r="C693" s="13"/>
       <c r="D693" s="5"/>
@@ -11594,7 +13303,10 @@
       <c r="L693" s="5"/>
     </row>
     <row r="694" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A694" s="37"/>
+      <c r="A694" s="30">
+        <f t="shared" si="28"/>
+        <v>45686</v>
+      </c>
       <c r="B694" s="5"/>
       <c r="C694" s="13"/>
       <c r="D694" s="5"/>
@@ -11608,7 +13320,10 @@
       <c r="L694" s="5"/>
     </row>
     <row r="695" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A695" s="37"/>
+      <c r="A695" s="30">
+        <f t="shared" si="28"/>
+        <v>45686</v>
+      </c>
       <c r="B695" s="5"/>
       <c r="C695" s="13"/>
       <c r="D695" s="5"/>
@@ -11622,7 +13337,10 @@
       <c r="L695" s="5"/>
     </row>
     <row r="696" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A696" s="37"/>
+      <c r="A696" s="30">
+        <f t="shared" si="28"/>
+        <v>45686</v>
+      </c>
       <c r="B696" s="5"/>
       <c r="C696" s="13"/>
       <c r="D696" s="5"/>
@@ -11673,24 +13391,24 @@
     <row r="699" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A699" s="17" t="str">
         <f>UPPER(TEXT(A701,"DDDD"))</f>
-        <v>SÁBADO</v>
-      </c>
-      <c r="B699" s="29" t="s">
+        <v>JUEVES</v>
+      </c>
+      <c r="B699" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="C699" s="30"/>
-      <c r="D699" s="31"/>
-      <c r="H699" s="32" t="s">
+      <c r="C699" s="36"/>
+      <c r="D699" s="37"/>
+      <c r="H699" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="I699" s="33"/>
+      <c r="I699" s="32"/>
       <c r="J699" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="K699" s="34" t="s">
+      <c r="K699" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="L699" s="34" t="s">
+      <c r="L699" s="33" t="s">
         <v>9</v>
       </c>
     </row>
@@ -11725,11 +13443,14 @@
       <c r="J700" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="K700" s="35"/>
-      <c r="L700" s="35"/>
+      <c r="K700" s="34"/>
+      <c r="L700" s="34"/>
     </row>
     <row r="701" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A701" s="37"/>
+      <c r="A701" s="30">
+        <f>A677+1</f>
+        <v>45687</v>
+      </c>
       <c r="B701" s="19"/>
       <c r="C701" s="18"/>
       <c r="D701" s="19"/>
@@ -11743,7 +13464,10 @@
       <c r="L701" s="19"/>
     </row>
     <row r="702" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A702" s="37"/>
+      <c r="A702" s="30">
+        <f>A701</f>
+        <v>45687</v>
+      </c>
       <c r="B702" s="5"/>
       <c r="C702" s="13"/>
       <c r="D702" s="5"/>
@@ -11757,7 +13481,10 @@
       <c r="L702" s="5"/>
     </row>
     <row r="703" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A703" s="37"/>
+      <c r="A703" s="30">
+        <f t="shared" ref="A703:A720" si="29">A702</f>
+        <v>45687</v>
+      </c>
       <c r="B703" s="5"/>
       <c r="C703" s="13"/>
       <c r="D703" s="5"/>
@@ -11771,7 +13498,10 @@
       <c r="L703" s="5"/>
     </row>
     <row r="704" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A704" s="37"/>
+      <c r="A704" s="30">
+        <f t="shared" si="29"/>
+        <v>45687</v>
+      </c>
       <c r="B704" s="5"/>
       <c r="C704" s="13"/>
       <c r="D704" s="5"/>
@@ -11785,7 +13515,10 @@
       <c r="L704" s="5"/>
     </row>
     <row r="705" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A705" s="37"/>
+      <c r="A705" s="30">
+        <f t="shared" si="29"/>
+        <v>45687</v>
+      </c>
       <c r="B705" s="5"/>
       <c r="C705" s="13"/>
       <c r="D705" s="5"/>
@@ -11799,7 +13532,10 @@
       <c r="L705" s="5"/>
     </row>
     <row r="706" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A706" s="37"/>
+      <c r="A706" s="30">
+        <f t="shared" si="29"/>
+        <v>45687</v>
+      </c>
       <c r="B706" s="5"/>
       <c r="C706" s="13"/>
       <c r="D706" s="5"/>
@@ -11813,7 +13549,10 @@
       <c r="L706" s="5"/>
     </row>
     <row r="707" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A707" s="37"/>
+      <c r="A707" s="30">
+        <f t="shared" si="29"/>
+        <v>45687</v>
+      </c>
       <c r="B707" s="5"/>
       <c r="C707" s="13"/>
       <c r="D707" s="5"/>
@@ -11827,7 +13566,10 @@
       <c r="L707" s="5"/>
     </row>
     <row r="708" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A708" s="37"/>
+      <c r="A708" s="30">
+        <f t="shared" si="29"/>
+        <v>45687</v>
+      </c>
       <c r="B708" s="5"/>
       <c r="C708" s="13"/>
       <c r="D708" s="5"/>
@@ -11841,7 +13583,10 @@
       <c r="L708" s="5"/>
     </row>
     <row r="709" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A709" s="37"/>
+      <c r="A709" s="30">
+        <f t="shared" si="29"/>
+        <v>45687</v>
+      </c>
       <c r="B709" s="5"/>
       <c r="C709" s="13"/>
       <c r="D709" s="5"/>
@@ -11855,7 +13600,10 @@
       <c r="L709" s="5"/>
     </row>
     <row r="710" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A710" s="37"/>
+      <c r="A710" s="30">
+        <f t="shared" si="29"/>
+        <v>45687</v>
+      </c>
       <c r="B710" s="5"/>
       <c r="C710" s="13"/>
       <c r="D710" s="5"/>
@@ -11869,7 +13617,10 @@
       <c r="L710" s="5"/>
     </row>
     <row r="711" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A711" s="37"/>
+      <c r="A711" s="30">
+        <f t="shared" si="29"/>
+        <v>45687</v>
+      </c>
       <c r="B711" s="5"/>
       <c r="C711" s="13"/>
       <c r="D711" s="5"/>
@@ -11883,7 +13634,10 @@
       <c r="L711" s="5"/>
     </row>
     <row r="712" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A712" s="37"/>
+      <c r="A712" s="30">
+        <f t="shared" si="29"/>
+        <v>45687</v>
+      </c>
       <c r="B712" s="5"/>
       <c r="C712" s="13"/>
       <c r="D712" s="5"/>
@@ -11897,7 +13651,10 @@
       <c r="L712" s="5"/>
     </row>
     <row r="713" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A713" s="37"/>
+      <c r="A713" s="30">
+        <f t="shared" si="29"/>
+        <v>45687</v>
+      </c>
       <c r="B713" s="5"/>
       <c r="C713" s="13"/>
       <c r="D713" s="5"/>
@@ -11911,7 +13668,10 @@
       <c r="L713" s="5"/>
     </row>
     <row r="714" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A714" s="37"/>
+      <c r="A714" s="30">
+        <f t="shared" si="29"/>
+        <v>45687</v>
+      </c>
       <c r="B714" s="5"/>
       <c r="C714" s="13"/>
       <c r="D714" s="5"/>
@@ -11925,7 +13685,10 @@
       <c r="L714" s="5"/>
     </row>
     <row r="715" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A715" s="37"/>
+      <c r="A715" s="30">
+        <f t="shared" si="29"/>
+        <v>45687</v>
+      </c>
       <c r="B715" s="5"/>
       <c r="C715" s="13"/>
       <c r="D715" s="5"/>
@@ -11939,7 +13702,10 @@
       <c r="L715" s="5"/>
     </row>
     <row r="716" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A716" s="37"/>
+      <c r="A716" s="30">
+        <f t="shared" si="29"/>
+        <v>45687</v>
+      </c>
       <c r="B716" s="5"/>
       <c r="C716" s="13"/>
       <c r="D716" s="5"/>
@@ -11953,7 +13719,10 @@
       <c r="L716" s="5"/>
     </row>
     <row r="717" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A717" s="37"/>
+      <c r="A717" s="30">
+        <f t="shared" si="29"/>
+        <v>45687</v>
+      </c>
       <c r="B717" s="5"/>
       <c r="C717" s="13"/>
       <c r="D717" s="5"/>
@@ -11967,7 +13736,10 @@
       <c r="L717" s="5"/>
     </row>
     <row r="718" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A718" s="37"/>
+      <c r="A718" s="30">
+        <f t="shared" si="29"/>
+        <v>45687</v>
+      </c>
       <c r="B718" s="5"/>
       <c r="C718" s="13"/>
       <c r="D718" s="5"/>
@@ -11981,7 +13753,10 @@
       <c r="L718" s="5"/>
     </row>
     <row r="719" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A719" s="37"/>
+      <c r="A719" s="30">
+        <f t="shared" si="29"/>
+        <v>45687</v>
+      </c>
       <c r="B719" s="5"/>
       <c r="C719" s="13"/>
       <c r="D719" s="5"/>
@@ -11995,7 +13770,10 @@
       <c r="L719" s="5"/>
     </row>
     <row r="720" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A720" s="37"/>
+      <c r="A720" s="30">
+        <f t="shared" si="29"/>
+        <v>45687</v>
+      </c>
       <c r="B720" s="5"/>
       <c r="C720" s="13"/>
       <c r="D720" s="5"/>
@@ -12046,24 +13824,24 @@
     <row r="723" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A723" s="17" t="str">
         <f>UPPER(TEXT(A725,"DDDD"))</f>
-        <v>SÁBADO</v>
-      </c>
-      <c r="B723" s="29" t="s">
+        <v>VIERNES</v>
+      </c>
+      <c r="B723" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="C723" s="30"/>
-      <c r="D723" s="31"/>
-      <c r="H723" s="32" t="s">
+      <c r="C723" s="36"/>
+      <c r="D723" s="37"/>
+      <c r="H723" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="I723" s="33"/>
+      <c r="I723" s="32"/>
       <c r="J723" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="K723" s="34" t="s">
+      <c r="K723" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="L723" s="34" t="s">
+      <c r="L723" s="33" t="s">
         <v>9</v>
       </c>
     </row>
@@ -12098,11 +13876,14 @@
       <c r="J724" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="K724" s="35"/>
-      <c r="L724" s="35"/>
+      <c r="K724" s="34"/>
+      <c r="L724" s="34"/>
     </row>
     <row r="725" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A725" s="37"/>
+      <c r="A725" s="30">
+        <f>A701+1</f>
+        <v>45688</v>
+      </c>
       <c r="B725" s="19"/>
       <c r="C725" s="18"/>
       <c r="D725" s="19"/>
@@ -12116,7 +13897,10 @@
       <c r="L725" s="19"/>
     </row>
     <row r="726" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A726" s="37"/>
+      <c r="A726" s="30">
+        <f t="shared" ref="A726:A744" si="30">A702+1</f>
+        <v>45688</v>
+      </c>
       <c r="B726" s="5"/>
       <c r="C726" s="13"/>
       <c r="D726" s="5"/>
@@ -12130,7 +13914,10 @@
       <c r="L726" s="5"/>
     </row>
     <row r="727" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A727" s="37"/>
+      <c r="A727" s="30">
+        <f t="shared" si="30"/>
+        <v>45688</v>
+      </c>
       <c r="B727" s="5"/>
       <c r="C727" s="13"/>
       <c r="D727" s="5"/>
@@ -12144,7 +13931,10 @@
       <c r="L727" s="5"/>
     </row>
     <row r="728" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A728" s="37"/>
+      <c r="A728" s="30">
+        <f t="shared" si="30"/>
+        <v>45688</v>
+      </c>
       <c r="B728" s="5"/>
       <c r="C728" s="13"/>
       <c r="D728" s="5"/>
@@ -12158,7 +13948,10 @@
       <c r="L728" s="5"/>
     </row>
     <row r="729" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A729" s="37"/>
+      <c r="A729" s="30">
+        <f t="shared" si="30"/>
+        <v>45688</v>
+      </c>
       <c r="B729" s="5"/>
       <c r="C729" s="13"/>
       <c r="D729" s="5"/>
@@ -12172,7 +13965,10 @@
       <c r="L729" s="5"/>
     </row>
     <row r="730" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A730" s="37"/>
+      <c r="A730" s="30">
+        <f t="shared" si="30"/>
+        <v>45688</v>
+      </c>
       <c r="B730" s="5"/>
       <c r="C730" s="13"/>
       <c r="D730" s="5"/>
@@ -12186,7 +13982,10 @@
       <c r="L730" s="5"/>
     </row>
     <row r="731" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A731" s="37"/>
+      <c r="A731" s="30">
+        <f t="shared" si="30"/>
+        <v>45688</v>
+      </c>
       <c r="B731" s="5"/>
       <c r="C731" s="13"/>
       <c r="D731" s="5"/>
@@ -12200,7 +13999,10 @@
       <c r="L731" s="5"/>
     </row>
     <row r="732" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A732" s="37"/>
+      <c r="A732" s="30">
+        <f t="shared" si="30"/>
+        <v>45688</v>
+      </c>
       <c r="B732" s="5"/>
       <c r="C732" s="13"/>
       <c r="D732" s="5"/>
@@ -12214,7 +14016,10 @@
       <c r="L732" s="5"/>
     </row>
     <row r="733" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A733" s="37"/>
+      <c r="A733" s="30">
+        <f t="shared" si="30"/>
+        <v>45688</v>
+      </c>
       <c r="B733" s="5"/>
       <c r="C733" s="13"/>
       <c r="D733" s="5"/>
@@ -12228,7 +14033,10 @@
       <c r="L733" s="5"/>
     </row>
     <row r="734" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A734" s="37"/>
+      <c r="A734" s="30">
+        <f t="shared" si="30"/>
+        <v>45688</v>
+      </c>
       <c r="B734" s="5"/>
       <c r="C734" s="13"/>
       <c r="D734" s="5"/>
@@ -12242,7 +14050,10 @@
       <c r="L734" s="5"/>
     </row>
     <row r="735" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A735" s="37"/>
+      <c r="A735" s="30">
+        <f t="shared" si="30"/>
+        <v>45688</v>
+      </c>
       <c r="B735" s="5"/>
       <c r="C735" s="13"/>
       <c r="D735" s="5"/>
@@ -12256,7 +14067,10 @@
       <c r="L735" s="5"/>
     </row>
     <row r="736" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A736" s="37"/>
+      <c r="A736" s="30">
+        <f t="shared" si="30"/>
+        <v>45688</v>
+      </c>
       <c r="B736" s="5"/>
       <c r="C736" s="13"/>
       <c r="D736" s="5"/>
@@ -12270,7 +14084,10 @@
       <c r="L736" s="5"/>
     </row>
     <row r="737" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A737" s="37"/>
+      <c r="A737" s="30">
+        <f t="shared" si="30"/>
+        <v>45688</v>
+      </c>
       <c r="B737" s="5"/>
       <c r="C737" s="13"/>
       <c r="D737" s="5"/>
@@ -12284,7 +14101,10 @@
       <c r="L737" s="5"/>
     </row>
     <row r="738" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A738" s="37"/>
+      <c r="A738" s="30">
+        <f t="shared" si="30"/>
+        <v>45688</v>
+      </c>
       <c r="B738" s="5"/>
       <c r="C738" s="13"/>
       <c r="D738" s="5"/>
@@ -12298,7 +14118,10 @@
       <c r="L738" s="5"/>
     </row>
     <row r="739" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A739" s="37"/>
+      <c r="A739" s="30">
+        <f t="shared" si="30"/>
+        <v>45688</v>
+      </c>
       <c r="B739" s="5"/>
       <c r="C739" s="13"/>
       <c r="D739" s="5"/>
@@ -12312,7 +14135,10 @@
       <c r="L739" s="5"/>
     </row>
     <row r="740" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A740" s="37"/>
+      <c r="A740" s="30">
+        <f t="shared" si="30"/>
+        <v>45688</v>
+      </c>
       <c r="B740" s="5"/>
       <c r="C740" s="13"/>
       <c r="D740" s="5"/>
@@ -12326,7 +14152,10 @@
       <c r="L740" s="5"/>
     </row>
     <row r="741" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A741" s="37"/>
+      <c r="A741" s="30">
+        <f t="shared" si="30"/>
+        <v>45688</v>
+      </c>
       <c r="B741" s="5"/>
       <c r="C741" s="13"/>
       <c r="D741" s="5"/>
@@ -12340,7 +14169,10 @@
       <c r="L741" s="5"/>
     </row>
     <row r="742" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A742" s="37"/>
+      <c r="A742" s="30">
+        <f t="shared" si="30"/>
+        <v>45688</v>
+      </c>
       <c r="B742" s="5"/>
       <c r="C742" s="13"/>
       <c r="D742" s="5"/>
@@ -12354,7 +14186,10 @@
       <c r="L742" s="5"/>
     </row>
     <row r="743" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A743" s="37"/>
+      <c r="A743" s="30">
+        <f t="shared" si="30"/>
+        <v>45688</v>
+      </c>
       <c r="B743" s="5"/>
       <c r="C743" s="13"/>
       <c r="D743" s="5"/>
@@ -12368,7 +14203,10 @@
       <c r="L743" s="5"/>
     </row>
     <row r="744" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A744" s="37"/>
+      <c r="A744" s="30">
+        <f t="shared" si="30"/>
+        <v>45688</v>
+      </c>
       <c r="B744" s="5"/>
       <c r="C744" s="13"/>
       <c r="D744" s="5"/>
@@ -12417,6 +14255,118 @@
     </row>
   </sheetData>
   <mergeCells count="124">
+    <mergeCell ref="B723:D723"/>
+    <mergeCell ref="B603:D603"/>
+    <mergeCell ref="B627:D627"/>
+    <mergeCell ref="B651:D651"/>
+    <mergeCell ref="B675:D675"/>
+    <mergeCell ref="B699:D699"/>
+    <mergeCell ref="B483:D483"/>
+    <mergeCell ref="B507:D507"/>
+    <mergeCell ref="B531:D531"/>
+    <mergeCell ref="B555:D555"/>
+    <mergeCell ref="B579:D579"/>
+    <mergeCell ref="B363:D363"/>
+    <mergeCell ref="B387:D387"/>
+    <mergeCell ref="B411:D411"/>
+    <mergeCell ref="B435:D435"/>
+    <mergeCell ref="B459:D459"/>
+    <mergeCell ref="B243:D243"/>
+    <mergeCell ref="B267:D267"/>
+    <mergeCell ref="B291:D291"/>
+    <mergeCell ref="B315:D315"/>
+    <mergeCell ref="B339:D339"/>
+    <mergeCell ref="B123:D123"/>
+    <mergeCell ref="B147:D147"/>
+    <mergeCell ref="B171:D171"/>
+    <mergeCell ref="B195:D195"/>
+    <mergeCell ref="B219:D219"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="B99:D99"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="K27:K28"/>
+    <mergeCell ref="L27:L28"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="K51:K52"/>
+    <mergeCell ref="L51:L52"/>
+    <mergeCell ref="H75:I75"/>
+    <mergeCell ref="K75:K76"/>
+    <mergeCell ref="L75:L76"/>
+    <mergeCell ref="H99:I99"/>
+    <mergeCell ref="K99:K100"/>
+    <mergeCell ref="L99:L100"/>
+    <mergeCell ref="H123:I123"/>
+    <mergeCell ref="K123:K124"/>
+    <mergeCell ref="L123:L124"/>
+    <mergeCell ref="H147:I147"/>
+    <mergeCell ref="K147:K148"/>
+    <mergeCell ref="L147:L148"/>
+    <mergeCell ref="H171:I171"/>
+    <mergeCell ref="K171:K172"/>
+    <mergeCell ref="L171:L172"/>
+    <mergeCell ref="H195:I195"/>
+    <mergeCell ref="K195:K196"/>
+    <mergeCell ref="L195:L196"/>
+    <mergeCell ref="H219:I219"/>
+    <mergeCell ref="K219:K220"/>
+    <mergeCell ref="L219:L220"/>
+    <mergeCell ref="H243:I243"/>
+    <mergeCell ref="K243:K244"/>
+    <mergeCell ref="L243:L244"/>
+    <mergeCell ref="H267:I267"/>
+    <mergeCell ref="K267:K268"/>
+    <mergeCell ref="L267:L268"/>
+    <mergeCell ref="H291:I291"/>
+    <mergeCell ref="K291:K292"/>
+    <mergeCell ref="L291:L292"/>
+    <mergeCell ref="H315:I315"/>
+    <mergeCell ref="K315:K316"/>
+    <mergeCell ref="L315:L316"/>
+    <mergeCell ref="H339:I339"/>
+    <mergeCell ref="K339:K340"/>
+    <mergeCell ref="L339:L340"/>
+    <mergeCell ref="H363:I363"/>
+    <mergeCell ref="K363:K364"/>
+    <mergeCell ref="L363:L364"/>
+    <mergeCell ref="H387:I387"/>
+    <mergeCell ref="K387:K388"/>
+    <mergeCell ref="L387:L388"/>
+    <mergeCell ref="H411:I411"/>
+    <mergeCell ref="K411:K412"/>
+    <mergeCell ref="L411:L412"/>
+    <mergeCell ref="H435:I435"/>
+    <mergeCell ref="K435:K436"/>
+    <mergeCell ref="L435:L436"/>
+    <mergeCell ref="H459:I459"/>
+    <mergeCell ref="K459:K460"/>
+    <mergeCell ref="L459:L460"/>
+    <mergeCell ref="H483:I483"/>
+    <mergeCell ref="K483:K484"/>
+    <mergeCell ref="L483:L484"/>
+    <mergeCell ref="H507:I507"/>
+    <mergeCell ref="K507:K508"/>
+    <mergeCell ref="L507:L508"/>
+    <mergeCell ref="H531:I531"/>
+    <mergeCell ref="K531:K532"/>
+    <mergeCell ref="L531:L532"/>
+    <mergeCell ref="H555:I555"/>
+    <mergeCell ref="K555:K556"/>
+    <mergeCell ref="L555:L556"/>
+    <mergeCell ref="H579:I579"/>
+    <mergeCell ref="K579:K580"/>
+    <mergeCell ref="L579:L580"/>
+    <mergeCell ref="H603:I603"/>
+    <mergeCell ref="K603:K604"/>
+    <mergeCell ref="L603:L604"/>
+    <mergeCell ref="H627:I627"/>
+    <mergeCell ref="K627:K628"/>
+    <mergeCell ref="L627:L628"/>
     <mergeCell ref="H651:I651"/>
     <mergeCell ref="K651:K652"/>
     <mergeCell ref="L651:L652"/>
@@ -12429,121 +14379,9 @@
     <mergeCell ref="H699:I699"/>
     <mergeCell ref="K699:K700"/>
     <mergeCell ref="L699:L700"/>
-    <mergeCell ref="H579:I579"/>
-    <mergeCell ref="K579:K580"/>
-    <mergeCell ref="L579:L580"/>
-    <mergeCell ref="H603:I603"/>
-    <mergeCell ref="K603:K604"/>
-    <mergeCell ref="L603:L604"/>
-    <mergeCell ref="H627:I627"/>
-    <mergeCell ref="K627:K628"/>
-    <mergeCell ref="L627:L628"/>
-    <mergeCell ref="H507:I507"/>
-    <mergeCell ref="K507:K508"/>
-    <mergeCell ref="L507:L508"/>
-    <mergeCell ref="H531:I531"/>
-    <mergeCell ref="K531:K532"/>
-    <mergeCell ref="L531:L532"/>
-    <mergeCell ref="H555:I555"/>
-    <mergeCell ref="K555:K556"/>
-    <mergeCell ref="L555:L556"/>
-    <mergeCell ref="H435:I435"/>
-    <mergeCell ref="K435:K436"/>
-    <mergeCell ref="L435:L436"/>
-    <mergeCell ref="H459:I459"/>
-    <mergeCell ref="K459:K460"/>
-    <mergeCell ref="L459:L460"/>
-    <mergeCell ref="H483:I483"/>
-    <mergeCell ref="K483:K484"/>
-    <mergeCell ref="L483:L484"/>
-    <mergeCell ref="H363:I363"/>
-    <mergeCell ref="K363:K364"/>
-    <mergeCell ref="L363:L364"/>
-    <mergeCell ref="H387:I387"/>
-    <mergeCell ref="K387:K388"/>
-    <mergeCell ref="L387:L388"/>
-    <mergeCell ref="H411:I411"/>
-    <mergeCell ref="K411:K412"/>
-    <mergeCell ref="L411:L412"/>
-    <mergeCell ref="H291:I291"/>
-    <mergeCell ref="K291:K292"/>
-    <mergeCell ref="L291:L292"/>
-    <mergeCell ref="H315:I315"/>
-    <mergeCell ref="K315:K316"/>
-    <mergeCell ref="L315:L316"/>
-    <mergeCell ref="H339:I339"/>
-    <mergeCell ref="K339:K340"/>
-    <mergeCell ref="L339:L340"/>
-    <mergeCell ref="H219:I219"/>
-    <mergeCell ref="K219:K220"/>
-    <mergeCell ref="L219:L220"/>
-    <mergeCell ref="H243:I243"/>
-    <mergeCell ref="K243:K244"/>
-    <mergeCell ref="L243:L244"/>
-    <mergeCell ref="H267:I267"/>
-    <mergeCell ref="K267:K268"/>
-    <mergeCell ref="L267:L268"/>
-    <mergeCell ref="H147:I147"/>
-    <mergeCell ref="K147:K148"/>
-    <mergeCell ref="L147:L148"/>
-    <mergeCell ref="H171:I171"/>
-    <mergeCell ref="K171:K172"/>
-    <mergeCell ref="L171:L172"/>
-    <mergeCell ref="H195:I195"/>
-    <mergeCell ref="K195:K196"/>
-    <mergeCell ref="L195:L196"/>
-    <mergeCell ref="H75:I75"/>
-    <mergeCell ref="K75:K76"/>
-    <mergeCell ref="L75:L76"/>
-    <mergeCell ref="H99:I99"/>
-    <mergeCell ref="K99:K100"/>
-    <mergeCell ref="L99:L100"/>
-    <mergeCell ref="H123:I123"/>
-    <mergeCell ref="K123:K124"/>
-    <mergeCell ref="L123:L124"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="K27:K28"/>
-    <mergeCell ref="L27:L28"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="K51:K52"/>
-    <mergeCell ref="L51:L52"/>
-    <mergeCell ref="B123:D123"/>
-    <mergeCell ref="B147:D147"/>
-    <mergeCell ref="B171:D171"/>
-    <mergeCell ref="B195:D195"/>
-    <mergeCell ref="B219:D219"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="B75:D75"/>
-    <mergeCell ref="B99:D99"/>
-    <mergeCell ref="B363:D363"/>
-    <mergeCell ref="B387:D387"/>
-    <mergeCell ref="B411:D411"/>
-    <mergeCell ref="B435:D435"/>
-    <mergeCell ref="B459:D459"/>
-    <mergeCell ref="B243:D243"/>
-    <mergeCell ref="B267:D267"/>
-    <mergeCell ref="B291:D291"/>
-    <mergeCell ref="B315:D315"/>
-    <mergeCell ref="B339:D339"/>
-    <mergeCell ref="B723:D723"/>
-    <mergeCell ref="B603:D603"/>
-    <mergeCell ref="B627:D627"/>
-    <mergeCell ref="B651:D651"/>
-    <mergeCell ref="B675:D675"/>
-    <mergeCell ref="B699:D699"/>
-    <mergeCell ref="B483:D483"/>
-    <mergeCell ref="B507:D507"/>
-    <mergeCell ref="B531:D531"/>
-    <mergeCell ref="B555:D555"/>
-    <mergeCell ref="B579:D579"/>
   </mergeCells>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="timePeriod" dxfId="1" priority="2" timePeriod="today">
+    <cfRule type="timePeriod" dxfId="0" priority="2" timePeriod="today">
       <formula>FLOOR(A1,1)=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
